--- a/lista.xlsx
+++ b/lista.xlsx
@@ -64,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,384 +433,36 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>514710</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>8759420560</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>1760000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45754.99967592592</v>
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>FORTALEZA</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>SAMSUNG</v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H2">
-        <v>1425.65</v>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>FIXA</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>514710</v>
-      </c>
-      <c r="B3" t="str">
-        <v>8759420565</v>
-      </c>
-      <c r="C3" t="str">
-        <v>1759999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45754.99967592592</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Eduardo</v>
-      </c>
-      <c r="F3" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G3" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H3">
-        <v>1484</v>
-      </c>
-      <c r="I3" t="str">
-        <v>FIXA</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>514711</v>
-      </c>
-      <c r="B4" t="str">
-        <v>8759420580</v>
-      </c>
-      <c r="C4" t="str">
-        <v>1760000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>45754.99967592592</v>
-      </c>
-      <c r="E4" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F4" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G4" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H4">
-        <v>1425.65</v>
-      </c>
-      <c r="I4" t="str">
-        <v>FIXA</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>514714</v>
-      </c>
-      <c r="B5" t="str">
-        <v>8759420509</v>
-      </c>
-      <c r="C5" t="str">
-        <v>1760001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45754.99967592592</v>
-      </c>
-      <c r="E5" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F5" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G5" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="str">
-        <v>MKT</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>514714</v>
-      </c>
-      <c r="B6" t="str">
-        <v>8759420511</v>
-      </c>
-      <c r="C6" t="str">
-        <v>1760001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45754.99967592592</v>
-      </c>
-      <c r="E6" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F6" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G6" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="str">
-        <v>MKT</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>514714</v>
-      </c>
-      <c r="B7" t="str">
-        <v>8759420570</v>
-      </c>
-      <c r="C7" t="str">
-        <v>1760001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45754.99967592592</v>
-      </c>
-      <c r="E7" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F7" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G7" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="str">
-        <v>MKT</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>514715</v>
-      </c>
-      <c r="B8" t="str">
-        <v>8759420178</v>
-      </c>
-      <c r="C8" t="str">
-        <v>1759999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45725.99967592592</v>
-      </c>
-      <c r="E8" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F8" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G8" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H8">
-        <v>1484</v>
-      </c>
-      <c r="I8" t="str">
-        <v>FIXA</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>514715</v>
-      </c>
-      <c r="B9" t="str">
-        <v>8759420180</v>
-      </c>
-      <c r="C9" t="str">
-        <v>1760000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45725.99967592592</v>
-      </c>
-      <c r="E9" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F9" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G9" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H9">
-        <v>1425.65</v>
-      </c>
-      <c r="I9" t="str">
-        <v>FIXA</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>514716</v>
-      </c>
-      <c r="B10" t="str">
-        <v>8759420170</v>
-      </c>
-      <c r="C10" t="str">
-        <v>1760001</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45769.99967592592</v>
-      </c>
-      <c r="E10" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F10" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G10" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="str">
-        <v>MKT</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>514716</v>
-      </c>
-      <c r="B11" t="str">
-        <v>8759420109</v>
-      </c>
-      <c r="C11" t="str">
-        <v>1760001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45769.99967592592</v>
-      </c>
-      <c r="E11" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F11" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G11" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="str">
-        <v>MKT</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>514716</v>
-      </c>
-      <c r="B12" t="str">
-        <v>8759420111</v>
-      </c>
-      <c r="C12" t="str">
-        <v>1760001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45769.99967592592</v>
-      </c>
-      <c r="E12" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F12" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G12" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="str">
-        <v>MKT</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>514715</v>
-      </c>
-      <c r="B13" t="str">
-        <v>8759420410</v>
-      </c>
-      <c r="C13" t="str">
-        <v>1759999</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45760.99967592592</v>
-      </c>
-      <c r="E13" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F13" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G13" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H13">
-        <v>1484</v>
-      </c>
-      <c r="I13" t="str">
-        <v>FIXA</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>514715</v>
-      </c>
-      <c r="B14" t="str">
-        <v>8759421080</v>
-      </c>
-      <c r="C14" t="str">
-        <v>1760000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>45760.99967592592</v>
-      </c>
-      <c r="E14" t="str">
-        <v>FORTALEZA</v>
-      </c>
-      <c r="F14" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G14" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H14">
-        <v>1425.65</v>
-      </c>
-      <c r="I14" t="str">
-        <v>FIXA</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/lista.xlsx
+++ b/lista.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,39 +430,3525 @@
       <c r="I1" t="str">
         <v>Categoria</v>
       </c>
+      <c r="J1" t="str">
+        <v>Nome</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Transporte</v>
+      </c>
+      <c r="L1" t="str">
+        <v>CPF</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Data Expedição</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Hora Expedição</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Status</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>156656</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>875688774</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>176649</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>30/04/2025</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>SALVADOR</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>CAROBA</v>
       </c>
       <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
+        <v>AEREO</v>
+      </c>
+      <c r="H2">
+        <v>150</v>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>FIXA</v>
+      </c>
+      <c r="J2" t="str">
+        <v>joão</v>
+      </c>
+      <c r="K2" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L2" t="str">
+        <v>12345678910</v>
+      </c>
+      <c r="M2" t="str">
+        <v>01/05/2025</v>
+      </c>
+      <c r="N2" t="str">
+        <v>12:46</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>156656</v>
+      </c>
+      <c r="B3" t="str">
+        <v>875688775</v>
+      </c>
+      <c r="C3" t="str">
+        <v>176648</v>
+      </c>
+      <c r="D3" t="str">
+        <v>30/04/2025</v>
+      </c>
+      <c r="E3" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F3" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G3" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="J3" t="str">
+        <v>joão</v>
+      </c>
+      <c r="K3" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L3" t="str">
+        <v>12345678910</v>
+      </c>
+      <c r="M3" t="str">
+        <v>01/05/2025</v>
+      </c>
+      <c r="N3" t="str">
+        <v>12:46</v>
+      </c>
+      <c r="O3" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B4" t="str">
+        <v>8759420512</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1759990</v>
+      </c>
+      <c r="D4" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E4" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F4" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G4" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H4">
+        <v>14.56</v>
+      </c>
+      <c r="I4" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O4" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B5" t="str">
+        <v>8759420505</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1759999</v>
+      </c>
+      <c r="D5" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E5" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F5" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G5" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H5">
+        <v>10.56</v>
+      </c>
+      <c r="I5" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B6" t="str">
+        <v>8759420506</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1760000</v>
+      </c>
+      <c r="D6" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E6" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F6" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G6" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H6">
+        <v>11.56</v>
+      </c>
+      <c r="I6" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B7" t="str">
+        <v>8759420510</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1760001</v>
+      </c>
+      <c r="D7" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E7" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F7" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G7" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H7">
+        <v>12.56</v>
+      </c>
+      <c r="I7" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O7" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>514710</v>
+      </c>
+      <c r="B8" t="str">
+        <v>8759420560</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1760000</v>
+      </c>
+      <c r="D8" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E8" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F8" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G8" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H8">
+        <v>1425.65</v>
+      </c>
+      <c r="I8" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O8" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>514711</v>
+      </c>
+      <c r="B9" t="str">
+        <v>8759420580</v>
+      </c>
+      <c r="C9" t="str">
+        <v>1760000</v>
+      </c>
+      <c r="D9" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E9" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F9" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G9" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H9">
+        <v>1425.65</v>
+      </c>
+      <c r="I9" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O9" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>514714</v>
+      </c>
+      <c r="B10" t="str">
+        <v>8759420509</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1760001</v>
+      </c>
+      <c r="D10" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E10" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F10" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G10" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="O10" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>514714</v>
+      </c>
+      <c r="B11" t="str">
+        <v>8759420511</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1760001</v>
+      </c>
+      <c r="D11" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E11" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F11" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G11" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="O11" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>514714</v>
+      </c>
+      <c r="B12" t="str">
+        <v>8759420570</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1760001</v>
+      </c>
+      <c r="D12" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E12" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F12" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G12" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="O12" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>514716</v>
+      </c>
+      <c r="B13" t="str">
+        <v>8759420170</v>
+      </c>
+      <c r="C13" t="str">
+        <v>1760001</v>
+      </c>
+      <c r="D13" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="E13" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F13" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G13" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Thiago</v>
+      </c>
+      <c r="K13" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="L13" t="str">
+        <v>21534897541</v>
+      </c>
+      <c r="M13" t="str">
+        <v>15/04/2025</v>
+      </c>
+      <c r="N13" t="str">
+        <v>15:00</v>
+      </c>
+      <c r="O13" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>514716</v>
+      </c>
+      <c r="B14" t="str">
+        <v>8759420109</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1760001</v>
+      </c>
+      <c r="D14" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="E14" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F14" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G14" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Thiago</v>
+      </c>
+      <c r="K14" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="L14" t="str">
+        <v>21534897541</v>
+      </c>
+      <c r="M14" t="str">
+        <v>15/04/2025</v>
+      </c>
+      <c r="N14" t="str">
+        <v>15:00</v>
+      </c>
+      <c r="O14" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>514716</v>
+      </c>
+      <c r="B15" t="str">
+        <v>8759420111</v>
+      </c>
+      <c r="C15" t="str">
+        <v>1760001</v>
+      </c>
+      <c r="D15" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="E15" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F15" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G15" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Thiago</v>
+      </c>
+      <c r="K15" t="str">
+        <v>MKT</v>
+      </c>
+      <c r="L15" t="str">
+        <v>21534897541</v>
+      </c>
+      <c r="M15" t="str">
+        <v>15/04/2025</v>
+      </c>
+      <c r="N15" t="str">
+        <v>15:00</v>
+      </c>
+      <c r="O15" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B16" t="str">
+        <v>8759420513</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1760030</v>
+      </c>
+      <c r="D16" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E16" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F16" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G16" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H16">
+        <v>15.56</v>
+      </c>
+      <c r="I16" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O16" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>514786</v>
+      </c>
+      <c r="B17" t="str">
+        <v>8759420514</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1760624</v>
+      </c>
+      <c r="D17" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E17" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F17" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G17" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H17">
+        <v>16.56</v>
+      </c>
+      <c r="I17" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O17" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>514787</v>
+      </c>
+      <c r="B18" t="str">
+        <v>8759420515</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1760625</v>
+      </c>
+      <c r="D18" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E18" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F18" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G18" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H18">
+        <v>17.56</v>
+      </c>
+      <c r="I18" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O18" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>514788</v>
+      </c>
+      <c r="B19" t="str">
+        <v>8759420516</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1760626</v>
+      </c>
+      <c r="D19" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E19" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F19" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G19" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H19">
+        <v>18.56</v>
+      </c>
+      <c r="I19" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O19" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>514789</v>
+      </c>
+      <c r="B20" t="str">
+        <v>8759420517</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1760627</v>
+      </c>
+      <c r="D20" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E20" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F20" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G20" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H20">
+        <v>19.56</v>
+      </c>
+      <c r="I20" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O20" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>514790</v>
+      </c>
+      <c r="B21" t="str">
+        <v>8759420518</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1760628</v>
+      </c>
+      <c r="D21" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E21" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F21" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G21" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H21">
+        <v>20.56</v>
+      </c>
+      <c r="I21" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O21" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B22" t="str">
+        <v>8759420519</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1760629</v>
+      </c>
+      <c r="D22" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E22" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F22" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G22" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H22">
+        <v>21.56</v>
+      </c>
+      <c r="I22" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O22" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>514792</v>
+      </c>
+      <c r="B23" t="str">
+        <v>8759420520</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1760630</v>
+      </c>
+      <c r="D23" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E23" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F23" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G23" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H23">
+        <v>22.56</v>
+      </c>
+      <c r="I23" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O23" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>514793</v>
+      </c>
+      <c r="B24" t="str">
+        <v>8759420521</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1760631</v>
+      </c>
+      <c r="D24" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E24" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F24" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G24" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H24">
+        <v>23.56</v>
+      </c>
+      <c r="I24" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O24" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>514794</v>
+      </c>
+      <c r="B25" t="str">
+        <v>8759420522</v>
+      </c>
+      <c r="C25" t="str">
+        <v>1760632</v>
+      </c>
+      <c r="D25" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E25" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F25" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G25" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H25">
+        <v>24.56</v>
+      </c>
+      <c r="I25" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O25" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>514795</v>
+      </c>
+      <c r="B26" t="str">
+        <v>8759420523</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1760633</v>
+      </c>
+      <c r="D26" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E26" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F26" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G26" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H26">
+        <v>25.56</v>
+      </c>
+      <c r="I26" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O26" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>514796</v>
+      </c>
+      <c r="B27" t="str">
+        <v>8759420524</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1760634</v>
+      </c>
+      <c r="D27" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E27" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F27" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G27" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H27">
+        <v>26.56</v>
+      </c>
+      <c r="I27" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O27" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>514797</v>
+      </c>
+      <c r="B28" t="str">
+        <v>8759420525</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1760635</v>
+      </c>
+      <c r="D28" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E28" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F28" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G28" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H28">
+        <v>27.56</v>
+      </c>
+      <c r="I28" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O28" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>514798</v>
+      </c>
+      <c r="B29" t="str">
+        <v>8759420526</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1760636</v>
+      </c>
+      <c r="D29" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E29" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F29" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G29" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H29">
+        <v>28.56</v>
+      </c>
+      <c r="I29" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O29" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>514799</v>
+      </c>
+      <c r="B30" t="str">
+        <v>8759420527</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1760637</v>
+      </c>
+      <c r="D30" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E30" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F30" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G30" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H30">
+        <v>29.56</v>
+      </c>
+      <c r="I30" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O30" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>514800</v>
+      </c>
+      <c r="B31" t="str">
+        <v>8759420528</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1760638</v>
+      </c>
+      <c r="D31" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E31" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F31" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G31" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H31">
+        <v>30.56</v>
+      </c>
+      <c r="I31" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O31" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>514801</v>
+      </c>
+      <c r="B32" t="str">
+        <v>8759420529</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1760639</v>
+      </c>
+      <c r="D32" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E32" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F32" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G32" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H32">
+        <v>31.56</v>
+      </c>
+      <c r="I32" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O32" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>514802</v>
+      </c>
+      <c r="B33" t="str">
+        <v>8759420530</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1760640</v>
+      </c>
+      <c r="D33" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E33" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F33" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G33" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H33">
+        <v>32.56</v>
+      </c>
+      <c r="I33" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O33" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>514803</v>
+      </c>
+      <c r="B34" t="str">
+        <v>8759420531</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1760641</v>
+      </c>
+      <c r="D34" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E34" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F34" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G34" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H34">
+        <v>33.56</v>
+      </c>
+      <c r="I34" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O34" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>514804</v>
+      </c>
+      <c r="B35" t="str">
+        <v>8759420532</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1760642</v>
+      </c>
+      <c r="D35" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E35" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F35" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G35" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H35">
+        <v>34.56</v>
+      </c>
+      <c r="I35" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O35" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>514805</v>
+      </c>
+      <c r="B36" t="str">
+        <v>8759420533</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1760643</v>
+      </c>
+      <c r="D36" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E36" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F36" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G36" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H36">
+        <v>35.56</v>
+      </c>
+      <c r="I36" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O36" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>514806</v>
+      </c>
+      <c r="B37" t="str">
+        <v>8759420534</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1760644</v>
+      </c>
+      <c r="D37" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E37" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F37" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G37" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H37">
+        <v>36.56</v>
+      </c>
+      <c r="I37" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O37" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>514807</v>
+      </c>
+      <c r="B38" t="str">
+        <v>8759420535</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1760645</v>
+      </c>
+      <c r="D38" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E38" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F38" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G38" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H38">
+        <v>37.56</v>
+      </c>
+      <c r="I38" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O38" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>514808</v>
+      </c>
+      <c r="B39" t="str">
+        <v>8759420536</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1760646</v>
+      </c>
+      <c r="D39" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E39" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F39" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G39" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H39">
+        <v>38.56</v>
+      </c>
+      <c r="I39" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O39" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>514809</v>
+      </c>
+      <c r="B40" t="str">
+        <v>8759420537</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1760647</v>
+      </c>
+      <c r="D40" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E40" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F40" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G40" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H40">
+        <v>39.56</v>
+      </c>
+      <c r="I40" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O40" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>514810</v>
+      </c>
+      <c r="B41" t="str">
+        <v>8759420538</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1760648</v>
+      </c>
+      <c r="D41" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E41" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F41" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G41" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H41">
+        <v>40.56</v>
+      </c>
+      <c r="I41" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O41" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>514811</v>
+      </c>
+      <c r="B42" t="str">
+        <v>8759420539</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1760649</v>
+      </c>
+      <c r="D42" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E42" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F42" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G42" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H42">
+        <v>41.56</v>
+      </c>
+      <c r="I42" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O42" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>514812</v>
+      </c>
+      <c r="B43" t="str">
+        <v>8759420540</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1760650</v>
+      </c>
+      <c r="D43" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E43" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F43" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G43" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H43">
+        <v>42.56</v>
+      </c>
+      <c r="I43" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O43" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>514813</v>
+      </c>
+      <c r="B44" t="str">
+        <v>8759420541</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1760651</v>
+      </c>
+      <c r="D44" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E44" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F44" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G44" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H44">
+        <v>43.56</v>
+      </c>
+      <c r="I44" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O44" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>514814</v>
+      </c>
+      <c r="B45" t="str">
+        <v>8759420542</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1760652</v>
+      </c>
+      <c r="D45" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E45" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F45" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G45" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H45">
+        <v>44.56</v>
+      </c>
+      <c r="I45" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O45" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>514815</v>
+      </c>
+      <c r="B46" t="str">
+        <v>8759420543</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1760653</v>
+      </c>
+      <c r="D46" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E46" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F46" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G46" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H46">
+        <v>45.56</v>
+      </c>
+      <c r="I46" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O46" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>514816</v>
+      </c>
+      <c r="B47" t="str">
+        <v>8759420544</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1760654</v>
+      </c>
+      <c r="D47" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E47" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F47" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G47" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H47">
+        <v>46.56</v>
+      </c>
+      <c r="I47" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O47" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>514817</v>
+      </c>
+      <c r="B48" t="str">
+        <v>8759420545</v>
+      </c>
+      <c r="C48" t="str">
+        <v>1760655</v>
+      </c>
+      <c r="D48" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E48" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F48" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G48" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H48">
+        <v>47.56</v>
+      </c>
+      <c r="I48" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O48" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>514818</v>
+      </c>
+      <c r="B49" t="str">
+        <v>8759420546</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1760656</v>
+      </c>
+      <c r="D49" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E49" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F49" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G49" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H49">
+        <v>48.56</v>
+      </c>
+      <c r="I49" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O49" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>514819</v>
+      </c>
+      <c r="B50" t="str">
+        <v>8759420547</v>
+      </c>
+      <c r="C50" t="str">
+        <v>1760657</v>
+      </c>
+      <c r="D50" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E50" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F50" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G50" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H50">
+        <v>49.56</v>
+      </c>
+      <c r="I50" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O50" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>514820</v>
+      </c>
+      <c r="B51" t="str">
+        <v>8759420548</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1760658</v>
+      </c>
+      <c r="D51" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E51" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F51" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G51" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H51">
+        <v>50.56</v>
+      </c>
+      <c r="I51" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O51" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>514821</v>
+      </c>
+      <c r="B52" t="str">
+        <v>8759420549</v>
+      </c>
+      <c r="C52" t="str">
+        <v>1760659</v>
+      </c>
+      <c r="D52" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E52" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F52" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G52" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H52">
+        <v>51.56</v>
+      </c>
+      <c r="I52" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O52" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>514822</v>
+      </c>
+      <c r="B53" t="str">
+        <v>8759420550</v>
+      </c>
+      <c r="C53" t="str">
+        <v>1760660</v>
+      </c>
+      <c r="D53" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E53" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F53" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G53" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H53">
+        <v>52.56</v>
+      </c>
+      <c r="I53" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O53" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>514823</v>
+      </c>
+      <c r="B54" t="str">
+        <v>8759420551</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1760661</v>
+      </c>
+      <c r="D54" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E54" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F54" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G54" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H54">
+        <v>53.56</v>
+      </c>
+      <c r="I54" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O54" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>514824</v>
+      </c>
+      <c r="B55" t="str">
+        <v>8759420552</v>
+      </c>
+      <c r="C55" t="str">
+        <v>1760662</v>
+      </c>
+      <c r="D55" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E55" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F55" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G55" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H55">
+        <v>54.56</v>
+      </c>
+      <c r="I55" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O55" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>514825</v>
+      </c>
+      <c r="B56" t="str">
+        <v>8759420553</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1760663</v>
+      </c>
+      <c r="D56" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E56" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F56" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G56" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H56">
+        <v>55.56</v>
+      </c>
+      <c r="I56" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O56" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>514826</v>
+      </c>
+      <c r="B57" t="str">
+        <v>8759420554</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1760664</v>
+      </c>
+      <c r="D57" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E57" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F57" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G57" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H57">
+        <v>56.56</v>
+      </c>
+      <c r="I57" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O57" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>514827</v>
+      </c>
+      <c r="B58" t="str">
+        <v>8759420555</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1760665</v>
+      </c>
+      <c r="D58" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E58" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F58" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G58" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H58">
+        <v>57.56</v>
+      </c>
+      <c r="I58" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O58" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>514828</v>
+      </c>
+      <c r="B59" t="str">
+        <v>8759420556</v>
+      </c>
+      <c r="C59" t="str">
+        <v>1760666</v>
+      </c>
+      <c r="D59" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E59" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F59" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G59" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H59">
+        <v>58.56</v>
+      </c>
+      <c r="I59" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O59" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>514829</v>
+      </c>
+      <c r="B60" t="str">
+        <v>8759420557</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1760667</v>
+      </c>
+      <c r="D60" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E60" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F60" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G60" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H60">
+        <v>59.56</v>
+      </c>
+      <c r="I60" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O60" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>514830</v>
+      </c>
+      <c r="B61" t="str">
+        <v>8759420558</v>
+      </c>
+      <c r="C61" t="str">
+        <v>1760668</v>
+      </c>
+      <c r="D61" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E61" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F61" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G61" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H61">
+        <v>60.56</v>
+      </c>
+      <c r="I61" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O61" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>514831</v>
+      </c>
+      <c r="B62" t="str">
+        <v>8759420559</v>
+      </c>
+      <c r="C62" t="str">
+        <v>1760669</v>
+      </c>
+      <c r="D62" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E62" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F62" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G62" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H62">
+        <v>61.56</v>
+      </c>
+      <c r="I62" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O62" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>514833</v>
+      </c>
+      <c r="B63" t="str">
+        <v>8759420561</v>
+      </c>
+      <c r="C63" t="str">
+        <v>1760671</v>
+      </c>
+      <c r="D63" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E63" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F63" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G63" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H63">
+        <v>64.56</v>
+      </c>
+      <c r="I63" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O63" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>514834</v>
+      </c>
+      <c r="B64" t="str">
+        <v>8759420562</v>
+      </c>
+      <c r="C64" t="str">
+        <v>1760672</v>
+      </c>
+      <c r="D64" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E64" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F64" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G64" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H64">
+        <v>65.56</v>
+      </c>
+      <c r="I64" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O64" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>514835</v>
+      </c>
+      <c r="B65" t="str">
+        <v>8759420563</v>
+      </c>
+      <c r="C65" t="str">
+        <v>1760673</v>
+      </c>
+      <c r="D65" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E65" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F65" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G65" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H65">
+        <v>66.56</v>
+      </c>
+      <c r="I65" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O65" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>514836</v>
+      </c>
+      <c r="B66" t="str">
+        <v>8759420564</v>
+      </c>
+      <c r="C66" t="str">
+        <v>1760674</v>
+      </c>
+      <c r="D66" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E66" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F66" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G66" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H66">
+        <v>67.56</v>
+      </c>
+      <c r="I66" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O66" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>514837</v>
+      </c>
+      <c r="B67" t="str">
+        <v>8759420565</v>
+      </c>
+      <c r="C67" t="str">
+        <v>1760675</v>
+      </c>
+      <c r="D67" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E67" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F67" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G67" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H67">
+        <v>68.56</v>
+      </c>
+      <c r="I67" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O67" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>514838</v>
+      </c>
+      <c r="B68" t="str">
+        <v>8759420566</v>
+      </c>
+      <c r="C68" t="str">
+        <v>1760676</v>
+      </c>
+      <c r="D68" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E68" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F68" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G68" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H68">
+        <v>69.56</v>
+      </c>
+      <c r="I68" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O68" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>514839</v>
+      </c>
+      <c r="B69" t="str">
+        <v>8759420567</v>
+      </c>
+      <c r="C69" t="str">
+        <v>1760677</v>
+      </c>
+      <c r="D69" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E69" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F69" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G69" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H69">
+        <v>70.56</v>
+      </c>
+      <c r="I69" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O69" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>514840</v>
+      </c>
+      <c r="B70" t="str">
+        <v>8759420568</v>
+      </c>
+      <c r="C70" t="str">
+        <v>1760678</v>
+      </c>
+      <c r="D70" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E70" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F70" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G70" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H70">
+        <v>71.56</v>
+      </c>
+      <c r="I70" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O70" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>514841</v>
+      </c>
+      <c r="B71" t="str">
+        <v>8759420569</v>
+      </c>
+      <c r="C71" t="str">
+        <v>1760679</v>
+      </c>
+      <c r="D71" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E71" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F71" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G71" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H71">
+        <v>72.56</v>
+      </c>
+      <c r="I71" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O71" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>514843</v>
+      </c>
+      <c r="B72" t="str">
+        <v>8759420571</v>
+      </c>
+      <c r="C72" t="str">
+        <v>1760681</v>
+      </c>
+      <c r="D72" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E72" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F72" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G72" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H72">
+        <v>74.56</v>
+      </c>
+      <c r="I72" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O72" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>514844</v>
+      </c>
+      <c r="B73" t="str">
+        <v>8759420572</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1760682</v>
+      </c>
+      <c r="D73" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E73" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F73" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G73" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H73">
+        <v>75.56</v>
+      </c>
+      <c r="I73" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O73" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>514845</v>
+      </c>
+      <c r="B74" t="str">
+        <v>8759420573</v>
+      </c>
+      <c r="C74" t="str">
+        <v>1760683</v>
+      </c>
+      <c r="D74" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E74" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F74" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G74" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H74">
+        <v>76.56</v>
+      </c>
+      <c r="I74" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O74" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>514846</v>
+      </c>
+      <c r="B75" t="str">
+        <v>8759420574</v>
+      </c>
+      <c r="C75" t="str">
+        <v>1760684</v>
+      </c>
+      <c r="D75" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E75" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F75" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G75" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H75">
+        <v>77.56</v>
+      </c>
+      <c r="I75" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O75" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>514847</v>
+      </c>
+      <c r="B76" t="str">
+        <v>8759420575</v>
+      </c>
+      <c r="C76" t="str">
+        <v>1760685</v>
+      </c>
+      <c r="D76" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E76" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F76" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G76" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H76">
+        <v>78.56</v>
+      </c>
+      <c r="I76" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O76" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>514848</v>
+      </c>
+      <c r="B77" t="str">
+        <v>8759420576</v>
+      </c>
+      <c r="C77" t="str">
+        <v>1760686</v>
+      </c>
+      <c r="D77" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E77" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F77" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G77" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H77">
+        <v>79.56</v>
+      </c>
+      <c r="I77" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O77" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>514849</v>
+      </c>
+      <c r="B78" t="str">
+        <v>8759420577</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1760687</v>
+      </c>
+      <c r="D78" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E78" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F78" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G78" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H78">
+        <v>80.56</v>
+      </c>
+      <c r="I78" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O78" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>514850</v>
+      </c>
+      <c r="B79" t="str">
+        <v>8759420578</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1760688</v>
+      </c>
+      <c r="D79" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E79" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F79" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G79" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H79">
+        <v>81.56</v>
+      </c>
+      <c r="I79" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O79" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>514851</v>
+      </c>
+      <c r="B80" t="str">
+        <v>8759420579</v>
+      </c>
+      <c r="C80" t="str">
+        <v>1760689</v>
+      </c>
+      <c r="D80" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E80" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F80" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G80" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H80">
+        <v>82.56</v>
+      </c>
+      <c r="I80" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O80" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>514853</v>
+      </c>
+      <c r="B81" t="str">
+        <v>8759420581</v>
+      </c>
+      <c r="C81" t="str">
+        <v>1760691</v>
+      </c>
+      <c r="D81" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E81" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F81" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G81" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H81">
+        <v>84.56</v>
+      </c>
+      <c r="I81" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O81" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>514854</v>
+      </c>
+      <c r="B82" t="str">
+        <v>8759420582</v>
+      </c>
+      <c r="C82" t="str">
+        <v>1760692</v>
+      </c>
+      <c r="D82" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E82" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F82" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G82" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H82">
+        <v>85.56</v>
+      </c>
+      <c r="I82" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O82" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>514855</v>
+      </c>
+      <c r="B83" t="str">
+        <v>8759420583</v>
+      </c>
+      <c r="C83" t="str">
+        <v>1760693</v>
+      </c>
+      <c r="D83" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E83" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F83" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G83" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H83">
+        <v>86.56</v>
+      </c>
+      <c r="I83" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O83" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>514856</v>
+      </c>
+      <c r="B84" t="str">
+        <v>8759420584</v>
+      </c>
+      <c r="C84" t="str">
+        <v>1760694</v>
+      </c>
+      <c r="D84" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E84" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F84" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G84" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H84">
+        <v>87.56</v>
+      </c>
+      <c r="I84" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O84" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>514857</v>
+      </c>
+      <c r="B85" t="str">
+        <v>8759420585</v>
+      </c>
+      <c r="C85" t="str">
+        <v>1760695</v>
+      </c>
+      <c r="D85" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E85" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F85" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G85" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H85">
+        <v>88.56</v>
+      </c>
+      <c r="I85" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O85" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>514858</v>
+      </c>
+      <c r="B86" t="str">
+        <v>8759420586</v>
+      </c>
+      <c r="C86" t="str">
+        <v>1760696</v>
+      </c>
+      <c r="D86" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E86" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F86" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G86" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H86">
+        <v>89.56</v>
+      </c>
+      <c r="I86" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O86" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>514859</v>
+      </c>
+      <c r="B87" t="str">
+        <v>8759420587</v>
+      </c>
+      <c r="C87" t="str">
+        <v>1760697</v>
+      </c>
+      <c r="D87" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E87" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F87" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G87" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H87">
+        <v>90.56</v>
+      </c>
+      <c r="I87" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O87" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>514860</v>
+      </c>
+      <c r="B88" t="str">
+        <v>8759420588</v>
+      </c>
+      <c r="C88" t="str">
+        <v>1760698</v>
+      </c>
+      <c r="D88" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E88" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F88" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G88" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H88">
+        <v>91.56</v>
+      </c>
+      <c r="I88" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O88" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>514861</v>
+      </c>
+      <c r="B89" t="str">
+        <v>8759420589</v>
+      </c>
+      <c r="C89" t="str">
+        <v>1760699</v>
+      </c>
+      <c r="D89" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E89" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F89" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G89" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H89">
+        <v>92.56</v>
+      </c>
+      <c r="I89" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O89" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B90" t="str">
+        <v>8759420590</v>
+      </c>
+      <c r="C90" t="str">
+        <v>1760700</v>
+      </c>
+      <c r="D90" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E90" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F90" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G90" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H90">
+        <v>93.56</v>
+      </c>
+      <c r="I90" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O90" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>514863</v>
+      </c>
+      <c r="B91" t="str">
+        <v>8759420591</v>
+      </c>
+      <c r="C91" t="str">
+        <v>1760701</v>
+      </c>
+      <c r="D91" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E91" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F91" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G91" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H91">
+        <v>94.56</v>
+      </c>
+      <c r="I91" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O91" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>514864</v>
+      </c>
+      <c r="B92" t="str">
+        <v>8759420592</v>
+      </c>
+      <c r="C92" t="str">
+        <v>1760702</v>
+      </c>
+      <c r="D92" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E92" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F92" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G92" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H92">
+        <v>95.56</v>
+      </c>
+      <c r="I92" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O92" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>514865</v>
+      </c>
+      <c r="B93" t="str">
+        <v>8759420593</v>
+      </c>
+      <c r="C93" t="str">
+        <v>1760703</v>
+      </c>
+      <c r="D93" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E93" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F93" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G93" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H93">
+        <v>96.56</v>
+      </c>
+      <c r="I93" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O93" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>514866</v>
+      </c>
+      <c r="B94" t="str">
+        <v>8759420594</v>
+      </c>
+      <c r="C94" t="str">
+        <v>1760704</v>
+      </c>
+      <c r="D94" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E94" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F94" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G94" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H94">
+        <v>97.56</v>
+      </c>
+      <c r="I94" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O94" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>514867</v>
+      </c>
+      <c r="B95" t="str">
+        <v>8759420595</v>
+      </c>
+      <c r="C95" t="str">
+        <v>1760705</v>
+      </c>
+      <c r="D95" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E95" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F95" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G95" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H95">
+        <v>98.56</v>
+      </c>
+      <c r="I95" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O95" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>514868</v>
+      </c>
+      <c r="B96" t="str">
+        <v>8759420596</v>
+      </c>
+      <c r="C96" t="str">
+        <v>1760706</v>
+      </c>
+      <c r="D96" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E96" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F96" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G96" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H96">
+        <v>99.56</v>
+      </c>
+      <c r="I96" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O96" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>514869</v>
+      </c>
+      <c r="B97" t="str">
+        <v>8759420597</v>
+      </c>
+      <c r="C97" t="str">
+        <v>1760707</v>
+      </c>
+      <c r="D97" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E97" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F97" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G97" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H97">
+        <v>100.56</v>
+      </c>
+      <c r="I97" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O97" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>514870</v>
+      </c>
+      <c r="B98" t="str">
+        <v>8759420598</v>
+      </c>
+      <c r="C98" t="str">
+        <v>1760708</v>
+      </c>
+      <c r="D98" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E98" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F98" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G98" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H98">
+        <v>101.56</v>
+      </c>
+      <c r="I98" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O98" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>514871</v>
+      </c>
+      <c r="B99" t="str">
+        <v>8759420599</v>
+      </c>
+      <c r="C99" t="str">
+        <v>1760709</v>
+      </c>
+      <c r="D99" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E99" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F99" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G99" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H99">
+        <v>102.56</v>
+      </c>
+      <c r="I99" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O99" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>514872</v>
+      </c>
+      <c r="B100" t="str">
+        <v>8759420600</v>
+      </c>
+      <c r="C100" t="str">
+        <v>1760710</v>
+      </c>
+      <c r="D100" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E100" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F100" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G100" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H100">
+        <v>103.56</v>
+      </c>
+      <c r="I100" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O100" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>514873</v>
+      </c>
+      <c r="B101" t="str">
+        <v>8759420601</v>
+      </c>
+      <c r="C101" t="str">
+        <v>1760711</v>
+      </c>
+      <c r="D101" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E101" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F101" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G101" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H101">
+        <v>104.56</v>
+      </c>
+      <c r="I101" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O101" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>514874</v>
+      </c>
+      <c r="B102" t="str">
+        <v>8759420602</v>
+      </c>
+      <c r="C102" t="str">
+        <v>1760712</v>
+      </c>
+      <c r="D102" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E102" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F102" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G102" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H102">
+        <v>105.56</v>
+      </c>
+      <c r="I102" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O102" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>514875</v>
+      </c>
+      <c r="B103" t="str">
+        <v>8759420603</v>
+      </c>
+      <c r="C103" t="str">
+        <v>1760713</v>
+      </c>
+      <c r="D103" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E103" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F103" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G103" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H103">
+        <v>106.56</v>
+      </c>
+      <c r="I103" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O103" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>514876</v>
+      </c>
+      <c r="B104" t="str">
+        <v>8759420604</v>
+      </c>
+      <c r="C104" t="str">
+        <v>1760714</v>
+      </c>
+      <c r="D104" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E104" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F104" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G104" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H104">
+        <v>107.56</v>
+      </c>
+      <c r="I104" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O104" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>514877</v>
+      </c>
+      <c r="B105" t="str">
+        <v>8759420605</v>
+      </c>
+      <c r="C105" t="str">
+        <v>1760715</v>
+      </c>
+      <c r="D105" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E105" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F105" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G105" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H105">
+        <v>108.56</v>
+      </c>
+      <c r="I105" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="O105" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>516674</v>
+      </c>
+      <c r="B106" t="str">
+        <v>875688772</v>
+      </c>
+      <c r="C106" t="str">
+        <v>176651</v>
+      </c>
+      <c r="D106" t="str">
+        <v>01/05/2025</v>
+      </c>
+      <c r="E106" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F106" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G106" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H106">
+        <v>200</v>
+      </c>
+      <c r="I106" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="J106" t="str">
+        <v>PEDRO</v>
+      </c>
+      <c r="K106" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="L106" t="str">
+        <v>12345678910</v>
+      </c>
+      <c r="M106" t="str">
+        <v>02/05/2025</v>
+      </c>
+      <c r="N106" t="str">
+        <v>14:00</v>
+      </c>
+      <c r="O106" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>516674</v>
+      </c>
+      <c r="B107" t="str">
+        <v>875688771</v>
+      </c>
+      <c r="C107" t="str">
+        <v>176650</v>
+      </c>
+      <c r="D107" t="str">
+        <v>01/05/2025</v>
+      </c>
+      <c r="E107" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F107" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G107" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H107">
+        <v>150</v>
+      </c>
+      <c r="I107" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="J107" t="str">
+        <v>PEDRO</v>
+      </c>
+      <c r="K107" t="str">
+        <v>FIXA</v>
+      </c>
+      <c r="L107" t="str">
+        <v>12345678910</v>
+      </c>
+      <c r="M107" t="str">
+        <v>02/05/2025</v>
+      </c>
+      <c r="N107" t="str">
+        <v>14:00</v>
+      </c>
+      <c r="O107" t="str">
+        <v>Expedido</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O107"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/lista.xlsx
+++ b/lista.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,71 +451,162 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>123456</v>
+        <v>614747</v>
       </c>
       <c r="B2" t="str">
-        <v>8759433358</v>
+        <v>8769490518</v>
       </c>
       <c r="C2" t="str">
-        <v>4943990857</v>
+        <v>1880765</v>
       </c>
       <c r="D2" t="str">
-        <v>04/04/2025</v>
+        <v>13/05/2025</v>
       </c>
       <c r="E2" t="str">
-        <v>SALVADOR</v>
+        <v>FORTALEZA</v>
       </c>
       <c r="F2" t="str">
-        <v>EPS</v>
+        <v>RAPIDO PARANÁ</v>
       </c>
       <c r="G2" t="str">
         <v>RODOVIÁRIO</v>
       </c>
       <c r="H2">
-        <v>228.26</v>
+        <v>159.26</v>
       </c>
       <c r="I2" t="str">
-        <v>FIXA</v>
+        <v>OSP</v>
+      </c>
+      <c r="J2" t="str">
+        <v>EDUARDO P</v>
+      </c>
+      <c r="K2" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L2" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M2" t="str">
+        <v>15/05/2025</v>
+      </c>
+      <c r="N2" t="str">
+        <v>22:00</v>
       </c>
       <c r="O2" t="str">
-        <v>Pendente</v>
+        <v>Expedido</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>50525</v>
+        <v>614748</v>
       </c>
       <c r="B3" t="str">
-        <v>8787878787</v>
+        <v>8769490519</v>
       </c>
       <c r="C3" t="str">
-        <v>2121211</v>
+        <v>1880766</v>
       </c>
       <c r="D3" t="str">
-        <v>05/05/2025</v>
+        <v>13/05/2025</v>
       </c>
       <c r="E3" t="str">
-        <v>RECIFE</v>
+        <v>ARACAJU</v>
       </c>
       <c r="F3" t="str">
-        <v>SANSUNG</v>
+        <v>EPS</v>
       </c>
       <c r="G3" t="str">
-        <v>TERRESTRE</v>
+        <v>RODOVIÁRIO</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>378.26</v>
       </c>
       <c r="I3" t="str">
-        <v>fixa</v>
+        <v>OSP</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
       </c>
       <c r="O3" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>614749</v>
+      </c>
+      <c r="B4" t="str">
+        <v>8769490520</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1880767</v>
+      </c>
+      <c r="D4" t="str">
+        <v>13/05/2025</v>
+      </c>
+      <c r="E4" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F4" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G4" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H4">
+        <v>242.26</v>
+      </c>
+      <c r="I4" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O4" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>614750</v>
+      </c>
+      <c r="B5" t="str">
+        <v>8769490521</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1880768</v>
+      </c>
+      <c r="D5" t="str">
+        <v>13/05/2025</v>
+      </c>
+      <c r="E5" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F5" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G5" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H5">
+        <v>377.26</v>
+      </c>
+      <c r="I5" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O5" t="str">
         <v>Pendente</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/lista.xlsx
+++ b/lista.xlsx
@@ -477,23 +477,8 @@
       <c r="I2" t="str">
         <v>OSP</v>
       </c>
-      <c r="J2" t="str">
-        <v>EDUARDO P</v>
-      </c>
-      <c r="K2" t="str">
-        <v>CAROBA</v>
-      </c>
-      <c r="L2" t="str">
-        <v>09276813403</v>
-      </c>
-      <c r="M2" t="str">
-        <v>15/05/2025</v>
-      </c>
-      <c r="N2" t="str">
-        <v>22:00</v>
-      </c>
       <c r="O2" t="str">
-        <v>Expedido</v>
+        <v>Pendente</v>
       </c>
     </row>
     <row r="3">
@@ -524,18 +509,6 @@
       <c r="I3" t="str">
         <v>OSP</v>
       </c>
-      <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <v/>
-      </c>
       <c r="O3" t="str">
         <v>Pendente</v>
       </c>
@@ -567,6 +540,18 @@
       </c>
       <c r="I4" t="str">
         <v>OSP</v>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
       </c>
       <c r="O4" t="str">
         <v>Pendente</v>

--- a/lista.xlsx
+++ b/lista.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O218"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,147 +451,8427 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>614747</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>8769490518</v>
+        <v>656514</v>
       </c>
       <c r="C2" t="str">
-        <v>1880765</v>
+        <v>1651</v>
       </c>
       <c r="D2" t="str">
-        <v>13/05/2025</v>
+        <v>16/05/2025</v>
       </c>
       <c r="E2" t="str">
-        <v>FORTALEZA</v>
+        <v>MACEIO</v>
       </c>
       <c r="F2" t="str">
-        <v>RAPIDO PARANÁ</v>
+        <v>CAROBA</v>
       </c>
       <c r="G2" t="str">
-        <v>RODOVIÁRIO</v>
+        <v>RODOVIARIO</v>
       </c>
       <c r="H2">
-        <v>159.26</v>
+        <v>20</v>
       </c>
       <c r="I2" t="str">
-        <v>OSP</v>
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J2" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K2" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L2" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M2" t="str">
+        <v>15/04/2022</v>
+      </c>
+      <c r="N2" t="str">
+        <v>13:42</v>
       </c>
       <c r="O2" t="str">
-        <v>Pendente</v>
+        <v>Expedido</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>614748</v>
+        <v>11111</v>
       </c>
       <c r="B3" t="str">
-        <v>8769490519</v>
+        <v>231564</v>
       </c>
       <c r="C3" t="str">
-        <v>1880766</v>
+        <v>888</v>
       </c>
       <c r="D3" t="str">
-        <v>13/05/2025</v>
+        <v>16/05/2025</v>
       </c>
       <c r="E3" t="str">
-        <v>ARACAJU</v>
+        <v>RECIFE</v>
       </c>
       <c r="F3" t="str">
-        <v>EPS</v>
+        <v>RECIFE</v>
       </c>
       <c r="G3" t="str">
-        <v>RODOVIÁRIO</v>
+        <v>RODOVIARIO</v>
       </c>
       <c r="H3">
-        <v>378.26</v>
+        <v>1</v>
       </c>
       <c r="I3" t="str">
-        <v>OSP</v>
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J3" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K3" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L3" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M3" t="str">
+        <v>15/04/2022</v>
+      </c>
+      <c r="N3" t="str">
+        <v>13:42</v>
       </c>
       <c r="O3" t="str">
-        <v>Pendente</v>
+        <v>Expedido</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>614749</v>
+        <v>514307</v>
       </c>
       <c r="B4" t="str">
-        <v>8769490520</v>
+        <v>8759433445</v>
       </c>
       <c r="C4" t="str">
-        <v>1880767</v>
+        <v>4944100162</v>
       </c>
       <c r="D4" t="str">
-        <v>13/05/2025</v>
+        <v>07/04/2025</v>
       </c>
       <c r="E4" t="str">
-        <v>SALVADOR</v>
+        <v>RECIFE</v>
       </c>
       <c r="F4" t="str">
-        <v>RAPIDO PARANÁ</v>
+        <v>EPS</v>
       </c>
       <c r="G4" t="str">
         <v>RODOVIÁRIO</v>
       </c>
       <c r="H4">
-        <v>242.26</v>
+        <v>243.26</v>
       </c>
       <c r="I4" t="str">
         <v>OSP</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>EDUARDO PEDRO</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>CAROBA</v>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>09276813403</v>
+      </c>
+      <c r="M4" t="str">
+        <v>18/05/2025</v>
       </c>
       <c r="N4" t="str">
-        <v/>
+        <v>09:30</v>
       </c>
       <c r="O4" t="str">
-        <v>Pendente</v>
+        <v>Expedido</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>514307</v>
+      </c>
+      <c r="B5" t="str">
+        <v>8759445546</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4944100454</v>
+      </c>
+      <c r="D5" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="E5" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F5" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G5" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H5">
+        <v>406.26</v>
+      </c>
+      <c r="I5" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J5" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K5" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L5" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M5" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N5" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>514307</v>
+      </c>
+      <c r="B6" t="str">
+        <v>8759433446</v>
+      </c>
+      <c r="C6" t="str">
+        <v>4944100165</v>
+      </c>
+      <c r="D6" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="E6" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F6" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G6" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H6">
+        <v>244.26</v>
+      </c>
+      <c r="I6" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J6" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K6" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L6" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M6" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N6" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>514307</v>
+      </c>
+      <c r="B7" t="str">
+        <v>8759445543</v>
+      </c>
+      <c r="C7" t="str">
+        <v>4944100325</v>
+      </c>
+      <c r="D7" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="E7" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F7" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G7" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H7">
+        <v>403.26</v>
+      </c>
+      <c r="I7" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J7" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K7" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L7" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M7" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N7" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O7" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>514307</v>
+      </c>
+      <c r="B8" t="str">
+        <v>8759433363</v>
+      </c>
+      <c r="C8" t="str">
+        <v>4944100063</v>
+      </c>
+      <c r="D8" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="E8" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F8" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G8" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H8">
+        <v>242.26</v>
+      </c>
+      <c r="I8" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J8" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K8" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L8" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M8" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N8" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O8" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>514307</v>
+      </c>
+      <c r="B9" t="str">
+        <v>8759445545</v>
+      </c>
+      <c r="C9" t="str">
+        <v>4944100330</v>
+      </c>
+      <c r="D9" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="E9" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F9" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G9" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H9">
+        <v>405.26</v>
+      </c>
+      <c r="I9" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J9" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K9" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L9" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M9" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N9" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O9" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>514307</v>
+      </c>
+      <c r="B10" t="str">
+        <v>8759436820</v>
+      </c>
+      <c r="C10" t="str">
+        <v>4944100321</v>
+      </c>
+      <c r="D10" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="E10" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F10" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G10" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H10">
+        <v>302.26</v>
+      </c>
+      <c r="I10" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J10" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K10" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L10" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M10" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N10" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O10" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>514307</v>
+      </c>
+      <c r="B11" t="str">
+        <v>8759433447</v>
+      </c>
+      <c r="C11" t="str">
+        <v>4944100166</v>
+      </c>
+      <c r="D11" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="E11" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F11" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G11" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H11">
+        <v>245.26</v>
+      </c>
+      <c r="I11" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J11" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K11" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L11" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M11" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N11" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O11" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>514307</v>
+      </c>
+      <c r="B12" t="str">
+        <v>8759445544</v>
+      </c>
+      <c r="C12" t="str">
+        <v>4944100326</v>
+      </c>
+      <c r="D12" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="E12" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F12" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G12" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H12">
+        <v>404.26</v>
+      </c>
+      <c r="I12" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J12" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K12" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L12" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M12" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N12" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O12" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>514307</v>
+      </c>
+      <c r="B13" t="str">
+        <v>8759433362</v>
+      </c>
+      <c r="C13" t="str">
+        <v>4944099830</v>
+      </c>
+      <c r="D13" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="E13" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F13" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G13" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H13">
+        <v>241.26</v>
+      </c>
+      <c r="I13" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J13" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K13" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L13" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M13" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N13" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O13" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>514307</v>
+      </c>
+      <c r="B14" t="str">
+        <v>8759436819</v>
+      </c>
+      <c r="C14" t="str">
+        <v>4944100169</v>
+      </c>
+      <c r="D14" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="E14" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F14" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G14" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H14">
+        <v>300.26</v>
+      </c>
+      <c r="I14" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J14" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K14" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L14" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M14" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N14" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O14" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>514564</v>
+      </c>
+      <c r="B15" t="str">
+        <v>8759464014</v>
+      </c>
+      <c r="C15" t="str">
+        <v>1759609</v>
+      </c>
+      <c r="D15" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E15" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F15" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G15" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H15">
+        <v>412.26</v>
+      </c>
+      <c r="I15" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O15" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>514564</v>
+      </c>
+      <c r="B16" t="str">
+        <v>8759464013</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1759610</v>
+      </c>
+      <c r="D16" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E16" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F16" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G16" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H16">
+        <v>407.26</v>
+      </c>
+      <c r="I16" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O16" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>514572</v>
+      </c>
+      <c r="B17" t="str">
+        <v>8759464015</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1759615</v>
+      </c>
+      <c r="D17" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E17" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F17" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G17" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H17">
+        <v>414.26</v>
+      </c>
+      <c r="I17" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O17" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>514594</v>
+      </c>
+      <c r="B18" t="str">
+        <v>8759420559</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1759659</v>
+      </c>
+      <c r="D18" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E18" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F18" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G18" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H18">
+        <v>207.26</v>
+      </c>
+      <c r="I18" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O18" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>514594</v>
+      </c>
+      <c r="B19" t="str">
+        <v>8759445489</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1759678</v>
+      </c>
+      <c r="D19" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E19" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F19" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G19" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H19">
+        <v>349.26</v>
+      </c>
+      <c r="I19" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O19" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>514594</v>
+      </c>
+      <c r="B20" t="str">
+        <v>8759445490</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1759672</v>
+      </c>
+      <c r="D20" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E20" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F20" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G20" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H20">
+        <v>350.26</v>
+      </c>
+      <c r="I20" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O20" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>514658</v>
+      </c>
+      <c r="B21" t="str">
+        <v>8759436484</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1759832</v>
+      </c>
+      <c r="D21" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E21" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F21" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G21" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H21">
+        <v>282.26</v>
+      </c>
+      <c r="I21" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O21" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B22" t="str">
+        <v>8759445506</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1759860</v>
+      </c>
+      <c r="D22" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E22" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F22" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G22" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H22">
+        <v>366.26</v>
+      </c>
+      <c r="I22" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O22" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B23" t="str">
+        <v>8759431335</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1759853</v>
+      </c>
+      <c r="D23" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E23" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F23" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G23" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H23">
+        <v>224.26</v>
+      </c>
+      <c r="I23" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O23" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B24" t="str">
+        <v>8759431334</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1759852</v>
+      </c>
+      <c r="D24" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E24" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F24" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G24" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H24">
+        <v>223.26</v>
+      </c>
+      <c r="I24" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O24" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B25" t="str">
+        <v>8759433827</v>
+      </c>
+      <c r="C25" t="str">
+        <v>1759856</v>
+      </c>
+      <c r="D25" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E25" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F25" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G25" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H25">
+        <v>262.26</v>
+      </c>
+      <c r="I25" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O25" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B26" t="str">
+        <v>8759445493</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1759863</v>
+      </c>
+      <c r="D26" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E26" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F26" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G26" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H26">
+        <v>353.26</v>
+      </c>
+      <c r="I26" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O26" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B27" t="str">
+        <v>8759445505</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1759859</v>
+      </c>
+      <c r="D27" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E27" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F27" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G27" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H27">
+        <v>365.26</v>
+      </c>
+      <c r="I27" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O27" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B28" t="str">
+        <v>8759445507</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1759862</v>
+      </c>
+      <c r="D28" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E28" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F28" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G28" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H28">
+        <v>367.26</v>
+      </c>
+      <c r="I28" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O28" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B29" t="str">
+        <v>8759420550</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1759847</v>
+      </c>
+      <c r="D29" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E29" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F29" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G29" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H29">
+        <v>198.26</v>
+      </c>
+      <c r="I29" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O29" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B30" t="str">
+        <v>8759420551</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1759850</v>
+      </c>
+      <c r="D30" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E30" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F30" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G30" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H30">
+        <v>199.26</v>
+      </c>
+      <c r="I30" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O30" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B31" t="str">
+        <v>8759420553</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1759849</v>
+      </c>
+      <c r="D31" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E31" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F31" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G31" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H31">
+        <v>201.26</v>
+      </c>
+      <c r="I31" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O31" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B32" t="str">
+        <v>8759420555</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1759848</v>
+      </c>
+      <c r="D32" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E32" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F32" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G32" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H32">
+        <v>203.26</v>
+      </c>
+      <c r="I32" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O32" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>514667</v>
+      </c>
+      <c r="B33" t="str">
+        <v>8759445534</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1759864</v>
+      </c>
+      <c r="D33" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E33" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F33" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G33" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H33">
+        <v>394.26</v>
+      </c>
+      <c r="I33" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O33" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>514703</v>
+      </c>
+      <c r="B34" t="str">
+        <v>8759420556</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1759958</v>
+      </c>
+      <c r="D34" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E34" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F34" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G34" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H34">
+        <v>204.26</v>
+      </c>
+      <c r="I34" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O34" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>514703</v>
+      </c>
+      <c r="B35" t="str">
+        <v>8759420552</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1759955</v>
+      </c>
+      <c r="D35" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E35" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F35" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G35" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H35">
+        <v>200.26</v>
+      </c>
+      <c r="I35" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O35" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>514703</v>
+      </c>
+      <c r="B36" t="str">
+        <v>8759420554</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1759956</v>
+      </c>
+      <c r="D36" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E36" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F36" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G36" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H36">
+        <v>202.26</v>
+      </c>
+      <c r="I36" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O36" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>514703</v>
+      </c>
+      <c r="B37" t="str">
+        <v>8759445491</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1759954</v>
+      </c>
+      <c r="D37" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E37" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F37" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G37" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H37">
+        <v>351.26</v>
+      </c>
+      <c r="I37" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O37" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>514707</v>
+      </c>
+      <c r="B38" t="str">
+        <v>8759420557</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1759974</v>
+      </c>
+      <c r="D38" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E38" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F38" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G38" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H38">
+        <v>205.26</v>
+      </c>
+      <c r="I38" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O38" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B39" t="str">
+        <v>8759445511</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1760005</v>
+      </c>
+      <c r="D39" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E39" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F39" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G39" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H39">
+        <v>371.26</v>
+      </c>
+      <c r="I39" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J39" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K39" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L39" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M39" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N39" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O39" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B40" t="str">
+        <v>8759420505</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1759999</v>
+      </c>
+      <c r="D40" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E40" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F40" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G40" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H40">
+        <v>159.26</v>
+      </c>
+      <c r="I40" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J40" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K40" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L40" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M40" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N40" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O40" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B41" t="str">
+        <v>8759420506</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1760000</v>
+      </c>
+      <c r="D41" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E41" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F41" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G41" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H41">
+        <v>160.26</v>
+      </c>
+      <c r="I41" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J41" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K41" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L41" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M41" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N41" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O41" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B42" t="str">
+        <v>8759431328</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1759991</v>
+      </c>
+      <c r="D42" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E42" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F42" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G42" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H42">
+        <v>217.26</v>
+      </c>
+      <c r="I42" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J42" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K42" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L42" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M42" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N42" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O42" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B43" t="str">
+        <v>8759445512</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1759992</v>
+      </c>
+      <c r="D43" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E43" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F43" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G43" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H43">
+        <v>372.26</v>
+      </c>
+      <c r="I43" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J43" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K43" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L43" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M43" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N43" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O43" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B44" t="str">
+        <v>8759420512</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1759990</v>
+      </c>
+      <c r="D44" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E44" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F44" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G44" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H44">
+        <v>163.26</v>
+      </c>
+      <c r="I44" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J44" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K44" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L44" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M44" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N44" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O44" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B45" t="str">
+        <v>8759420511</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1759988</v>
+      </c>
+      <c r="D45" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E45" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F45" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G45" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H45">
+        <v>162.26</v>
+      </c>
+      <c r="I45" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J45" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K45" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L45" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M45" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N45" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O45" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B46" t="str">
+        <v>8759420510</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1760001</v>
+      </c>
+      <c r="D46" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E46" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F46" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G46" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H46">
+        <v>161.26</v>
+      </c>
+      <c r="I46" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J46" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K46" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L46" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M46" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N46" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O46" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B47" t="str">
+        <v>8759445508</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1760002</v>
+      </c>
+      <c r="D47" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E47" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F47" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G47" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H47">
+        <v>368.26</v>
+      </c>
+      <c r="I47" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J47" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K47" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L47" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M47" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N47" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O47" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B48" t="str">
+        <v>8759445509</v>
+      </c>
+      <c r="C48" t="str">
+        <v>1760003</v>
+      </c>
+      <c r="D48" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E48" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F48" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G48" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H48">
+        <v>369.26</v>
+      </c>
+      <c r="I48" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J48" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K48" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L48" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M48" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N48" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O48" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B49" t="str">
+        <v>8759445510</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1760004</v>
+      </c>
+      <c r="D49" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E49" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F49" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G49" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H49">
+        <v>370.26</v>
+      </c>
+      <c r="I49" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J49" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K49" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L49" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M49" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N49" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O49" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>514708</v>
+      </c>
+      <c r="B50" t="str">
+        <v>8759445513</v>
+      </c>
+      <c r="C50" t="str">
+        <v>1759996</v>
+      </c>
+      <c r="D50" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E50" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F50" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G50" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H50">
+        <v>373.26</v>
+      </c>
+      <c r="I50" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J50" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K50" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L50" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M50" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N50" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O50" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>514711</v>
+      </c>
+      <c r="B51" t="str">
+        <v>8759445514</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1760012</v>
+      </c>
+      <c r="D51" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E51" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F51" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G51" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H51">
+        <v>374.26</v>
+      </c>
+      <c r="I51" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O51" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B52" t="str">
+        <v>8759445521</v>
+      </c>
+      <c r="C52" t="str">
+        <v>1760193</v>
+      </c>
+      <c r="D52" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E52" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F52" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G52" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H52">
+        <v>381.26</v>
+      </c>
+      <c r="I52" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J52" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K52" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L52" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M52" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N52" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O52" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B53" t="str">
+        <v>8759445516</v>
+      </c>
+      <c r="C53" t="str">
+        <v>1760102</v>
+      </c>
+      <c r="D53" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E53" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F53" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G53" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H53">
+        <v>376.26</v>
+      </c>
+      <c r="I53" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J53" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K53" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L53" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M53" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N53" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O53" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B54" t="str">
+        <v>8759445517</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1760103</v>
+      </c>
+      <c r="D54" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E54" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F54" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G54" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H54">
+        <v>377.26</v>
+      </c>
+      <c r="I54" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J54" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K54" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L54" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M54" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N54" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O54" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B55" t="str">
+        <v>8759431326</v>
+      </c>
+      <c r="C55" t="str">
+        <v>1760039</v>
+      </c>
+      <c r="D55" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E55" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F55" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G55" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H55">
+        <v>215.26</v>
+      </c>
+      <c r="I55" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J55" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K55" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L55" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M55" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N55" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O55" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B56" t="str">
+        <v>8759420515</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1760144</v>
+      </c>
+      <c r="D56" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E56" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F56" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G56" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H56">
+        <v>166.26</v>
+      </c>
+      <c r="I56" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J56" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K56" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L56" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M56" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N56" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O56" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B57" t="str">
+        <v>8759420513</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1760030</v>
+      </c>
+      <c r="D57" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E57" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F57" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G57" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H57">
+        <v>164.26</v>
+      </c>
+      <c r="I57" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J57" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K57" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L57" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M57" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N57" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O57" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B58" t="str">
+        <v>8759445519</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1760190</v>
+      </c>
+      <c r="D58" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E58" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F58" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G58" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H58">
+        <v>379.26</v>
+      </c>
+      <c r="I58" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J58" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K58" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L58" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M58" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N58" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O58" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B59" t="str">
+        <v>8759445520</v>
+      </c>
+      <c r="C59" t="str">
+        <v>1760192</v>
+      </c>
+      <c r="D59" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E59" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F59" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G59" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H59">
+        <v>380.26</v>
+      </c>
+      <c r="I59" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J59" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K59" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L59" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M59" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N59" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O59" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B60" t="str">
+        <v>8759445515</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1760188</v>
+      </c>
+      <c r="D60" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E60" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F60" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G60" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H60">
+        <v>375.26</v>
+      </c>
+      <c r="I60" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J60" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K60" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L60" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M60" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N60" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O60" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B61" t="str">
+        <v>8759431320</v>
+      </c>
+      <c r="C61" t="str">
+        <v>1760038</v>
+      </c>
+      <c r="D61" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E61" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F61" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G61" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H61">
+        <v>209.26</v>
+      </c>
+      <c r="I61" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J61" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K61" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L61" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M61" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N61" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O61" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B62" t="str">
+        <v>8759441067</v>
+      </c>
+      <c r="C62" t="str">
+        <v>1760292</v>
+      </c>
+      <c r="D62" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E62" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F62" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G62" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H62">
+        <v>341.26</v>
+      </c>
+      <c r="I62" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J62" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K62" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L62" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M62" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N62" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O62" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B63" t="str">
+        <v>8759433814</v>
+      </c>
+      <c r="C63" t="str">
+        <v>1760147</v>
+      </c>
+      <c r="D63" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E63" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F63" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G63" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H63">
+        <v>249.26</v>
+      </c>
+      <c r="I63" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J63" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K63" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L63" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M63" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N63" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O63" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>514753</v>
+      </c>
+      <c r="B64" t="str">
+        <v>8759433813</v>
+      </c>
+      <c r="C64" t="str">
+        <v>1760047</v>
+      </c>
+      <c r="D64" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E64" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F64" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G64" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H64">
+        <v>248.26</v>
+      </c>
+      <c r="I64" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J64" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K64" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L64" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M64" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N64" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O64" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B65" t="str">
+        <v>8759433815</v>
+      </c>
+      <c r="C65" t="str">
+        <v>1760048</v>
+      </c>
+      <c r="D65" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E65" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F65" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G65" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H65">
+        <v>250.26</v>
+      </c>
+      <c r="I65" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O65" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B66" t="str">
+        <v>8759445531</v>
+      </c>
+      <c r="C66" t="str">
+        <v>1760109</v>
+      </c>
+      <c r="D66" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E66" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F66" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G66" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H66">
+        <v>391.26</v>
+      </c>
+      <c r="I66" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O66" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B67" t="str">
+        <v>8759431327</v>
+      </c>
+      <c r="C67" t="str">
+        <v>1760041</v>
+      </c>
+      <c r="D67" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E67" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F67" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G67" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H67">
+        <v>216.26</v>
+      </c>
+      <c r="I67" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O67" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B68" t="str">
+        <v>8759420519</v>
+      </c>
+      <c r="C68" t="str">
+        <v>1760034</v>
+      </c>
+      <c r="D68" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E68" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F68" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G68" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H68">
+        <v>169.26</v>
+      </c>
+      <c r="I68" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O68" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B69" t="str">
+        <v>8759420520</v>
+      </c>
+      <c r="C69" t="str">
+        <v>1760035</v>
+      </c>
+      <c r="D69" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E69" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F69" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G69" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H69">
+        <v>170.26</v>
+      </c>
+      <c r="I69" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O69" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B70" t="str">
+        <v>8759431336</v>
+      </c>
+      <c r="C70" t="str">
+        <v>1760044</v>
+      </c>
+      <c r="D70" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E70" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F70" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G70" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H70">
+        <v>225.26</v>
+      </c>
+      <c r="I70" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O70" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B71" t="str">
+        <v>8759431337</v>
+      </c>
+      <c r="C71" t="str">
+        <v>1760045</v>
+      </c>
+      <c r="D71" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E71" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F71" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G71" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H71">
+        <v>226.26</v>
+      </c>
+      <c r="I71" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O71" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B72" t="str">
+        <v>8759445529</v>
+      </c>
+      <c r="C72" t="str">
+        <v>1760107</v>
+      </c>
+      <c r="D72" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E72" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F72" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G72" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H72">
+        <v>389.26</v>
+      </c>
+      <c r="I72" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O72" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B73" t="str">
+        <v>8759431343</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1760046</v>
+      </c>
+      <c r="D73" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E73" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F73" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G73" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H73">
+        <v>232.26</v>
+      </c>
+      <c r="I73" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O73" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B74" t="str">
+        <v>8759431329</v>
+      </c>
+      <c r="C74" t="str">
+        <v>1760043</v>
+      </c>
+      <c r="D74" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E74" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F74" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G74" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H74">
+        <v>218.26</v>
+      </c>
+      <c r="I74" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O74" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B75" t="str">
+        <v>8759445530</v>
+      </c>
+      <c r="C75" t="str">
+        <v>1760108</v>
+      </c>
+      <c r="D75" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E75" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F75" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G75" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H75">
+        <v>390.26</v>
+      </c>
+      <c r="I75" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O75" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B76" t="str">
+        <v>8759437980</v>
+      </c>
+      <c r="C76" t="str">
+        <v>1760199</v>
+      </c>
+      <c r="D76" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E76" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F76" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G76" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H76">
+        <v>305.26</v>
+      </c>
+      <c r="I76" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O76" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B77" t="str">
+        <v>8759420516</v>
+      </c>
+      <c r="C77" t="str">
+        <v>1760033</v>
+      </c>
+      <c r="D77" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="E77" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F77" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G77" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H77">
+        <v>167.26</v>
+      </c>
+      <c r="I77" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O77" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B78" t="str">
+        <v>8759445524</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1760106</v>
+      </c>
+      <c r="D78" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E78" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F78" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G78" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H78">
+        <v>384.26</v>
+      </c>
+      <c r="I78" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O78" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B79" t="str">
+        <v>8759445523</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1760105</v>
+      </c>
+      <c r="D79" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E79" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F79" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G79" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H79">
+        <v>383.26</v>
+      </c>
+      <c r="I79" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O79" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>514775</v>
+      </c>
+      <c r="B80" t="str">
+        <v>8759445522</v>
+      </c>
+      <c r="C80" t="str">
+        <v>1760104</v>
+      </c>
+      <c r="D80" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E80" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F80" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G80" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H80">
+        <v>382.26</v>
+      </c>
+      <c r="I80" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O80" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>514784</v>
+      </c>
+      <c r="B81" t="str">
+        <v>8759420518</v>
+      </c>
+      <c r="C81" t="str">
+        <v>1760765</v>
+      </c>
+      <c r="D81" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E81" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F81" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G81" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H81">
+        <v>168.26</v>
+      </c>
+      <c r="I81" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O81" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>514784</v>
+      </c>
+      <c r="B82" t="str">
+        <v>8759445528</v>
+      </c>
+      <c r="C82" t="str">
+        <v>1760623</v>
+      </c>
+      <c r="D82" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E82" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F82" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G82" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H82">
+        <v>388.26</v>
+      </c>
+      <c r="I82" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O82" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>514784</v>
+      </c>
+      <c r="B83" t="str">
+        <v>8759445527</v>
+      </c>
+      <c r="C83" t="str">
+        <v>1760622</v>
+      </c>
+      <c r="D83" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E83" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F83" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G83" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H83">
+        <v>387.26</v>
+      </c>
+      <c r="I83" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O83" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>514784</v>
+      </c>
+      <c r="B84" t="str">
+        <v>8759445526</v>
+      </c>
+      <c r="C84" t="str">
+        <v>1760621</v>
+      </c>
+      <c r="D84" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E84" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F84" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G84" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H84">
+        <v>386.26</v>
+      </c>
+      <c r="I84" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O84" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>514784</v>
+      </c>
+      <c r="B85" t="str">
+        <v>8759433816</v>
+      </c>
+      <c r="C85" t="str">
+        <v>1760619</v>
+      </c>
+      <c r="D85" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E85" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F85" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G85" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H85">
+        <v>251.26</v>
+      </c>
+      <c r="I85" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O85" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>514786</v>
+      </c>
+      <c r="B86" t="str">
+        <v>8759445518</v>
+      </c>
+      <c r="C86" t="str">
+        <v>1760625</v>
+      </c>
+      <c r="D86" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E86" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F86" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G86" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H86">
+        <v>378.26</v>
+      </c>
+      <c r="I86" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J86" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K86" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L86" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M86" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N86" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O86" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>514786</v>
+      </c>
+      <c r="B87" t="str">
+        <v>8759420514</v>
+      </c>
+      <c r="C87" t="str">
+        <v>1760624</v>
+      </c>
+      <c r="D87" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E87" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F87" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G87" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H87">
+        <v>165.26</v>
+      </c>
+      <c r="I87" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J87" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K87" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L87" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M87" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N87" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O87" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>514787</v>
+      </c>
+      <c r="B88" t="str">
+        <v>8759445525</v>
+      </c>
+      <c r="C88" t="str">
+        <v>1760626</v>
+      </c>
+      <c r="D88" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E88" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F88" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G88" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H88">
+        <v>385.26</v>
+      </c>
+      <c r="I88" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O88" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B89" t="str">
+        <v>8759431342</v>
+      </c>
+      <c r="C89" t="str">
+        <v>1760638</v>
+      </c>
+      <c r="D89" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E89" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F89" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G89" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H89">
+        <v>231.26</v>
+      </c>
+      <c r="I89" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J89" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K89" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L89" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M89" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N89" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O89" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B90" t="str">
+        <v>8759431344</v>
+      </c>
+      <c r="C90" t="str">
+        <v>1760639</v>
+      </c>
+      <c r="D90" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E90" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F90" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G90" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H90">
+        <v>233.26</v>
+      </c>
+      <c r="I90" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J90" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K90" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L90" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M90" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N90" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O90" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B91" t="str">
+        <v>8759433818</v>
+      </c>
+      <c r="C91" t="str">
+        <v>1760642</v>
+      </c>
+      <c r="D91" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E91" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F91" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G91" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H91">
+        <v>253.26</v>
+      </c>
+      <c r="I91" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J91" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K91" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L91" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M91" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N91" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O91" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B92" t="str">
+        <v>8759433817</v>
+      </c>
+      <c r="C92" t="str">
+        <v>1760641</v>
+      </c>
+      <c r="D92" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E92" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F92" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G92" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H92">
+        <v>252.26</v>
+      </c>
+      <c r="I92" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J92" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K92" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L92" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M92" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N92" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O92" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B93" t="str">
+        <v>8759420531</v>
+      </c>
+      <c r="C93" t="str">
+        <v>1760633</v>
+      </c>
+      <c r="D93" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E93" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F93" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G93" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H93">
+        <v>179.26</v>
+      </c>
+      <c r="I93" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J93" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K93" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L93" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M93" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N93" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O93" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B94" t="str">
+        <v>8759445484</v>
+      </c>
+      <c r="C94" t="str">
+        <v>1760646</v>
+      </c>
+      <c r="D94" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E94" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F94" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G94" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H94">
+        <v>344.26</v>
+      </c>
+      <c r="I94" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J94" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K94" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L94" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M94" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N94" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O94" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B95" t="str">
+        <v>8759445487</v>
+      </c>
+      <c r="C95" t="str">
+        <v>1760650</v>
+      </c>
+      <c r="D95" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E95" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F95" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G95" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H95">
+        <v>347.26</v>
+      </c>
+      <c r="I95" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J95" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K95" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L95" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M95" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N95" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O95" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B96" t="str">
+        <v>8759445488</v>
+      </c>
+      <c r="C96" t="str">
+        <v>1760651</v>
+      </c>
+      <c r="D96" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E96" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F96" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G96" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H96">
+        <v>348.26</v>
+      </c>
+      <c r="I96" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J96" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K96" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L96" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M96" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N96" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O96" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B97" t="str">
+        <v>8759420522</v>
+      </c>
+      <c r="C97" t="str">
+        <v>1760628</v>
+      </c>
+      <c r="D97" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E97" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F97" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G97" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H97">
+        <v>172.26</v>
+      </c>
+      <c r="I97" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J97" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K97" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L97" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M97" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N97" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O97" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B98" t="str">
+        <v>8759431330</v>
+      </c>
+      <c r="C98" t="str">
+        <v>1760634</v>
+      </c>
+      <c r="D98" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E98" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F98" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G98" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H98">
+        <v>219.26</v>
+      </c>
+      <c r="I98" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J98" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K98" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L98" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M98" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N98" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O98" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B99" t="str">
+        <v>8759431338</v>
+      </c>
+      <c r="C99" t="str">
+        <v>1760637</v>
+      </c>
+      <c r="D99" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E99" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F99" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G99" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H99">
+        <v>227.26</v>
+      </c>
+      <c r="I99" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J99" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K99" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L99" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M99" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N99" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O99" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B100" t="str">
+        <v>8759445532</v>
+      </c>
+      <c r="C100" t="str">
+        <v>1760652</v>
+      </c>
+      <c r="D100" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E100" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F100" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G100" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H100">
+        <v>392.26</v>
+      </c>
+      <c r="I100" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J100" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K100" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L100" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M100" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N100" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O100" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B101" t="str">
+        <v>8759445533</v>
+      </c>
+      <c r="C101" t="str">
+        <v>1760653</v>
+      </c>
+      <c r="D101" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E101" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F101" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G101" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H101">
+        <v>393.26</v>
+      </c>
+      <c r="I101" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J101" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K101" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L101" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M101" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N101" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O101" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B102" t="str">
+        <v>8759420524</v>
+      </c>
+      <c r="C102" t="str">
+        <v>1760631</v>
+      </c>
+      <c r="D102" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E102" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F102" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G102" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H102">
+        <v>174.26</v>
+      </c>
+      <c r="I102" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J102" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K102" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L102" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M102" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N102" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O102" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B103" t="str">
+        <v>8759420525</v>
+      </c>
+      <c r="C103" t="str">
+        <v>1760632</v>
+      </c>
+      <c r="D103" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E103" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F103" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G103" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H103">
+        <v>175.26</v>
+      </c>
+      <c r="I103" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J103" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K103" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L103" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M103" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N103" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O103" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B104" t="str">
+        <v>8759420521</v>
+      </c>
+      <c r="C104" t="str">
+        <v>1760627</v>
+      </c>
+      <c r="D104" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E104" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F104" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G104" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H104">
+        <v>171.26</v>
+      </c>
+      <c r="I104" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J104" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K104" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L104" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M104" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N104" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O104" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B105" t="str">
+        <v>8759441066</v>
+      </c>
+      <c r="C105" t="str">
+        <v>1760643</v>
+      </c>
+      <c r="D105" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E105" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F105" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G105" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H105">
+        <v>340.26</v>
+      </c>
+      <c r="I105" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J105" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K105" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L105" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M105" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N105" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O105" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B106" t="str">
+        <v>8759445483</v>
+      </c>
+      <c r="C106" t="str">
+        <v>1760645</v>
+      </c>
+      <c r="D106" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E106" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F106" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G106" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H106">
+        <v>343.26</v>
+      </c>
+      <c r="I106" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J106" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K106" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L106" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M106" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N106" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O106" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B107" t="str">
+        <v>8759445486</v>
+      </c>
+      <c r="C107" t="str">
+        <v>1760649</v>
+      </c>
+      <c r="D107" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E107" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F107" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G107" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H107">
+        <v>346.26</v>
+      </c>
+      <c r="I107" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J107" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K107" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L107" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M107" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N107" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O107" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B108" t="str">
+        <v>8759445485</v>
+      </c>
+      <c r="C108" t="str">
+        <v>1760648</v>
+      </c>
+      <c r="D108" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E108" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F108" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G108" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H108">
+        <v>345.26</v>
+      </c>
+      <c r="I108" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J108" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K108" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L108" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M108" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N108" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O108" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>514791</v>
+      </c>
+      <c r="B109" t="str">
+        <v>8759420523</v>
+      </c>
+      <c r="C109" t="str">
+        <v>1760629</v>
+      </c>
+      <c r="D109" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E109" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F109" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G109" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H109">
+        <v>173.26</v>
+      </c>
+      <c r="I109" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J109" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K109" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L109" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M109" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N109" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O109" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>514795</v>
+      </c>
+      <c r="B110" t="str">
+        <v>8759436487</v>
+      </c>
+      <c r="C110" t="str">
+        <v>1760656</v>
+      </c>
+      <c r="D110" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E110" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F110" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G110" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H110">
+        <v>285.26</v>
+      </c>
+      <c r="I110" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O110" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>514795</v>
+      </c>
+      <c r="B111" t="str">
+        <v>8759431321</v>
+      </c>
+      <c r="C111" t="str">
+        <v>1760654</v>
+      </c>
+      <c r="D111" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E111" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F111" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G111" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H111">
+        <v>210.26</v>
+      </c>
+      <c r="I111" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O111" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>514795</v>
+      </c>
+      <c r="B112" t="str">
+        <v>8759436482</v>
+      </c>
+      <c r="C112" t="str">
+        <v>1760655</v>
+      </c>
+      <c r="D112" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E112" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F112" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G112" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H112">
+        <v>280.26</v>
+      </c>
+      <c r="I112" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O112" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>514795</v>
+      </c>
+      <c r="B113" t="str">
+        <v>8759436488</v>
+      </c>
+      <c r="C113" t="str">
+        <v>1760657</v>
+      </c>
+      <c r="D113" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E113" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F113" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G113" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H113">
+        <v>286.26</v>
+      </c>
+      <c r="I113" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O113" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>514798</v>
+      </c>
+      <c r="B114" t="str">
+        <v>8759433819</v>
+      </c>
+      <c r="C114" t="str">
+        <v>1760659</v>
+      </c>
+      <c r="D114" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E114" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F114" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G114" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H114">
+        <v>254.26</v>
+      </c>
+      <c r="I114" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O114" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>514798</v>
+      </c>
+      <c r="B115" t="str">
+        <v>8759436483</v>
+      </c>
+      <c r="C115" t="str">
+        <v>1760662</v>
+      </c>
+      <c r="D115" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E115" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F115" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G115" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H115">
+        <v>281.26</v>
+      </c>
+      <c r="I115" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O115" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>514819</v>
+      </c>
+      <c r="B116" t="str">
+        <v>8759420535</v>
+      </c>
+      <c r="C116" t="str">
+        <v>1760666</v>
+      </c>
+      <c r="D116" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E116" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F116" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G116" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H116">
+        <v>183.26</v>
+      </c>
+      <c r="I116" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O116" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>514819</v>
+      </c>
+      <c r="B117" t="str">
+        <v>8759420532</v>
+      </c>
+      <c r="C117" t="str">
+        <v>1760663</v>
+      </c>
+      <c r="D117" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E117" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F117" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G117" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H117">
+        <v>180.26</v>
+      </c>
+      <c r="I117" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O117" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>514819</v>
+      </c>
+      <c r="B118" t="str">
+        <v>8759436485</v>
+      </c>
+      <c r="C118" t="str">
+        <v>1760668</v>
+      </c>
+      <c r="D118" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E118" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F118" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G118" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H118">
+        <v>283.26</v>
+      </c>
+      <c r="I118" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O118" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>514819</v>
+      </c>
+      <c r="B119" t="str">
+        <v>8759436479</v>
+      </c>
+      <c r="C119" t="str">
+        <v>1760667</v>
+      </c>
+      <c r="D119" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E119" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F119" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G119" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H119">
+        <v>277.26</v>
+      </c>
+      <c r="I119" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O119" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>514819</v>
+      </c>
+      <c r="B120" t="str">
+        <v>8759420533</v>
+      </c>
+      <c r="C120" t="str">
+        <v>1760664</v>
+      </c>
+      <c r="D120" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E120" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F120" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G120" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H120">
+        <v>181.26</v>
+      </c>
+      <c r="I120" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O120" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>514825</v>
+      </c>
+      <c r="B121" t="str">
+        <v>8759431323</v>
+      </c>
+      <c r="C121" t="str">
+        <v>1760671</v>
+      </c>
+      <c r="D121" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E121" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F121" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G121" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H121">
+        <v>212.26</v>
+      </c>
+      <c r="I121" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O121" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>514825</v>
+      </c>
+      <c r="B122" t="str">
+        <v>8759431319</v>
+      </c>
+      <c r="C122" t="str">
+        <v>1760669</v>
+      </c>
+      <c r="D122" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E122" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F122" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G122" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H122">
+        <v>208.26</v>
+      </c>
+      <c r="I122" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O122" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>514825</v>
+      </c>
+      <c r="B123" t="str">
+        <v>8759431322</v>
+      </c>
+      <c r="C123" t="str">
+        <v>1760670</v>
+      </c>
+      <c r="D123" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E123" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F123" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G123" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H123">
+        <v>211.26</v>
+      </c>
+      <c r="I123" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O123" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>514846</v>
+      </c>
+      <c r="B124" t="str">
+        <v>8759445498</v>
+      </c>
+      <c r="C124" t="str">
+        <v>1760701</v>
+      </c>
+      <c r="D124" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E124" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F124" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G124" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H124">
+        <v>358.26</v>
+      </c>
+      <c r="I124" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O124" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>514846</v>
+      </c>
+      <c r="B125" t="str">
+        <v>8759431324</v>
+      </c>
+      <c r="C125" t="str">
+        <v>1760697</v>
+      </c>
+      <c r="D125" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E125" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F125" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G125" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H125">
+        <v>213.26</v>
+      </c>
+      <c r="I125" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O125" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>514846</v>
+      </c>
+      <c r="B126" t="str">
+        <v>8759433823</v>
+      </c>
+      <c r="C126" t="str">
+        <v>1760699</v>
+      </c>
+      <c r="D126" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E126" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F126" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G126" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H126">
+        <v>258.26</v>
+      </c>
+      <c r="I126" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O126" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>514846</v>
+      </c>
+      <c r="B127" t="str">
+        <v>8759431332</v>
+      </c>
+      <c r="C127" t="str">
+        <v>1760698</v>
+      </c>
+      <c r="D127" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E127" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F127" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G127" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H127">
+        <v>221.26</v>
+      </c>
+      <c r="I127" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O127" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>514846</v>
+      </c>
+      <c r="B128" t="str">
+        <v>8759420539</v>
+      </c>
+      <c r="C128" t="str">
+        <v>1760696</v>
+      </c>
+      <c r="D128" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E128" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F128" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G128" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H128">
+        <v>187.26</v>
+      </c>
+      <c r="I128" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O128" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>514846</v>
+      </c>
+      <c r="B129" t="str">
+        <v>8759445492</v>
+      </c>
+      <c r="C129" t="str">
+        <v>1760700</v>
+      </c>
+      <c r="D129" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E129" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F129" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G129" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H129">
+        <v>352.26</v>
+      </c>
+      <c r="I129" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O129" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>514846</v>
+      </c>
+      <c r="B130" t="str">
+        <v>8759420536</v>
+      </c>
+      <c r="C130" t="str">
+        <v>1760695</v>
+      </c>
+      <c r="D130" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E130" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F130" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G130" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H130">
+        <v>184.26</v>
+      </c>
+      <c r="I130" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O130" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>514846</v>
+      </c>
+      <c r="B131" t="str">
+        <v>8759445499</v>
+      </c>
+      <c r="C131" t="str">
+        <v>1760702</v>
+      </c>
+      <c r="D131" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E131" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F131" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G131" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H131">
+        <v>359.26</v>
+      </c>
+      <c r="I131" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O131" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B132" t="str">
+        <v>8759445494</v>
+      </c>
+      <c r="C132" t="str">
+        <v>1760715</v>
+      </c>
+      <c r="D132" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E132" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F132" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G132" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H132">
+        <v>354.26</v>
+      </c>
+      <c r="I132" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J132" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K132" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L132" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M132" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N132" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O132" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B133" t="str">
+        <v>8759420534</v>
+      </c>
+      <c r="C133" t="str">
+        <v>1760703</v>
+      </c>
+      <c r="D133" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E133" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F133" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G133" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H133">
+        <v>182.26</v>
+      </c>
+      <c r="I133" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J133" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K133" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L133" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M133" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N133" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O133" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B134" t="str">
+        <v>8759445495</v>
+      </c>
+      <c r="C134" t="str">
+        <v>1760716</v>
+      </c>
+      <c r="D134" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E134" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F134" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G134" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H134">
+        <v>355.26</v>
+      </c>
+      <c r="I134" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J134" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K134" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L134" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M134" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N134" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O134" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B135" t="str">
+        <v>8759420537</v>
+      </c>
+      <c r="C135" t="str">
+        <v>1760704</v>
+      </c>
+      <c r="D135" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E135" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F135" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G135" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H135">
+        <v>185.26</v>
+      </c>
+      <c r="I135" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J135" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K135" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L135" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M135" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N135" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O135" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B136" t="str">
+        <v>8759433822</v>
+      </c>
+      <c r="C136" t="str">
+        <v>1760711</v>
+      </c>
+      <c r="D136" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E136" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F136" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G136" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H136">
+        <v>257.26</v>
+      </c>
+      <c r="I136" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J136" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K136" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L136" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M136" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N136" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O136" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B137" t="str">
+        <v>8759433820</v>
+      </c>
+      <c r="C137" t="str">
+        <v>1760710</v>
+      </c>
+      <c r="D137" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E137" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F137" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G137" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H137">
+        <v>255.26</v>
+      </c>
+      <c r="I137" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J137" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K137" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L137" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M137" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N137" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O137" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B138" t="str">
+        <v>8759445497</v>
+      </c>
+      <c r="C138" t="str">
+        <v>1760719</v>
+      </c>
+      <c r="D138" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E138" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F138" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G138" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H138">
+        <v>357.26</v>
+      </c>
+      <c r="I138" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J138" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K138" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L138" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M138" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N138" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O138" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B139" t="str">
+        <v>8759436476</v>
+      </c>
+      <c r="C139" t="str">
+        <v>1760712</v>
+      </c>
+      <c r="D139" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E139" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F139" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G139" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H139">
+        <v>274.26</v>
+      </c>
+      <c r="I139" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J139" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K139" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L139" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M139" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N139" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O139" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B140" t="str">
+        <v>8759436480</v>
+      </c>
+      <c r="C140" t="str">
+        <v>1760714</v>
+      </c>
+      <c r="D140" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E140" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F140" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G140" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H140">
+        <v>278.26</v>
+      </c>
+      <c r="I140" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J140" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K140" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L140" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M140" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N140" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O140" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B141" t="str">
+        <v>8759420538</v>
+      </c>
+      <c r="C141" t="str">
+        <v>1760705</v>
+      </c>
+      <c r="D141" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E141" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F141" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G141" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H141">
+        <v>186.26</v>
+      </c>
+      <c r="I141" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J141" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K141" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L141" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M141" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N141" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O141" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B142" t="str">
+        <v>8759431325</v>
+      </c>
+      <c r="C142" t="str">
+        <v>1760707</v>
+      </c>
+      <c r="D142" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E142" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F142" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G142" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H142">
+        <v>214.26</v>
+      </c>
+      <c r="I142" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J142" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K142" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L142" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M142" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N142" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O142" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B143" t="str">
+        <v>8759420542</v>
+      </c>
+      <c r="C143" t="str">
+        <v>1760706</v>
+      </c>
+      <c r="D143" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E143" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F143" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G143" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H143">
+        <v>190.26</v>
+      </c>
+      <c r="I143" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J143" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K143" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L143" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M143" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N143" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O143" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B144" t="str">
+        <v>8759431331</v>
+      </c>
+      <c r="C144" t="str">
+        <v>1760708</v>
+      </c>
+      <c r="D144" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E144" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F144" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G144" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H144">
+        <v>220.26</v>
+      </c>
+      <c r="I144" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J144" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K144" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L144" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M144" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N144" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O144" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>514862</v>
+      </c>
+      <c r="B145" t="str">
+        <v>8759445496</v>
+      </c>
+      <c r="C145" t="str">
+        <v>1760717</v>
+      </c>
+      <c r="D145" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E145" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F145" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G145" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H145">
+        <v>356.26</v>
+      </c>
+      <c r="I145" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J145" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K145" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L145" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M145" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N145" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O145" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>514871</v>
+      </c>
+      <c r="B146" t="str">
+        <v>8759431340</v>
+      </c>
+      <c r="C146" t="str">
+        <v>1760722</v>
+      </c>
+      <c r="D146" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E146" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F146" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G146" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H146">
+        <v>229.26</v>
+      </c>
+      <c r="I146" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O146" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>514871</v>
+      </c>
+      <c r="B147" t="str">
+        <v>8759433828</v>
+      </c>
+      <c r="C147" t="str">
+        <v>1760724</v>
+      </c>
+      <c r="D147" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E147" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F147" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G147" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H147">
+        <v>263.26</v>
+      </c>
+      <c r="I147" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O147" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>514871</v>
+      </c>
+      <c r="B148" t="str">
+        <v>8759445500</v>
+      </c>
+      <c r="C148" t="str">
+        <v>1760725</v>
+      </c>
+      <c r="D148" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E148" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F148" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G148" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H148">
+        <v>360.26</v>
+      </c>
+      <c r="I148" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O148" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>514871</v>
+      </c>
+      <c r="B149" t="str">
+        <v>8759445501</v>
+      </c>
+      <c r="C149" t="str">
+        <v>1760726</v>
+      </c>
+      <c r="D149" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E149" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F149" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G149" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H149">
+        <v>361.26</v>
+      </c>
+      <c r="I149" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O149" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>514871</v>
+      </c>
+      <c r="B150" t="str">
+        <v>8759420558</v>
+      </c>
+      <c r="C150" t="str">
+        <v>1760721</v>
+      </c>
+      <c r="D150" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E150" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F150" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G150" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H150">
+        <v>206.26</v>
+      </c>
+      <c r="I150" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O150" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>514871</v>
+      </c>
+      <c r="B151" t="str">
+        <v>8759431345</v>
+      </c>
+      <c r="C151" t="str">
+        <v>1760723</v>
+      </c>
+      <c r="D151" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E151" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F151" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G151" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H151">
+        <v>234.26</v>
+      </c>
+      <c r="I151" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O151" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>514880</v>
+      </c>
+      <c r="B152" t="str">
+        <v>8759420526</v>
+      </c>
+      <c r="C152" t="str">
+        <v>1760728</v>
+      </c>
+      <c r="D152" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E152" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F152" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G152" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H152">
+        <v>176.26</v>
+      </c>
+      <c r="I152" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O152" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>514886</v>
+      </c>
+      <c r="B153" t="str">
+        <v>8759420527</v>
+      </c>
+      <c r="C153" t="str">
+        <v>1760729</v>
+      </c>
+      <c r="D153" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E153" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F153" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G153" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H153">
+        <v>177.26</v>
+      </c>
+      <c r="I153" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O153" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>514892</v>
+      </c>
+      <c r="B154" t="str">
+        <v>8759436477</v>
+      </c>
+      <c r="C154" t="str">
+        <v>1760732</v>
+      </c>
+      <c r="D154" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E154" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F154" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G154" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H154">
+        <v>275.26</v>
+      </c>
+      <c r="I154" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O154" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>514892</v>
+      </c>
+      <c r="B155" t="str">
+        <v>8759436474</v>
+      </c>
+      <c r="C155" t="str">
+        <v>1760730</v>
+      </c>
+      <c r="D155" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E155" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F155" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G155" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H155">
+        <v>272.26</v>
+      </c>
+      <c r="I155" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O155" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>514902</v>
+      </c>
+      <c r="B156" t="str">
+        <v>8759420540</v>
+      </c>
+      <c r="C156" t="str">
+        <v>1760461</v>
+      </c>
+      <c r="D156" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E156" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F156" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G156" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H156">
+        <v>188.26</v>
+      </c>
+      <c r="I156" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O156" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>514908</v>
+      </c>
+      <c r="B157" t="str">
+        <v>8759445502</v>
+      </c>
+      <c r="C157" t="str">
+        <v>1760466</v>
+      </c>
+      <c r="D157" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E157" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F157" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G157" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H157">
+        <v>362.26</v>
+      </c>
+      <c r="I157" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O157" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>514908</v>
+      </c>
+      <c r="B158" t="str">
+        <v>8759420528</v>
+      </c>
+      <c r="C158" t="str">
+        <v>1760462</v>
+      </c>
+      <c r="D158" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E158" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F158" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G158" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H158">
+        <v>178.26</v>
+      </c>
+      <c r="I158" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O158" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B159" t="str">
+        <v>8759420543</v>
+      </c>
+      <c r="C159" t="str">
+        <v>1760734</v>
+      </c>
+      <c r="D159" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E159" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F159" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G159" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H159">
+        <v>191.26</v>
+      </c>
+      <c r="I159" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J159" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K159" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L159" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M159" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N159" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O159" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B160" t="str">
+        <v>8759420544</v>
+      </c>
+      <c r="C160" t="str">
+        <v>1760735</v>
+      </c>
+      <c r="D160" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E160" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F160" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G160" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H160">
+        <v>192.26</v>
+      </c>
+      <c r="I160" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J160" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K160" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L160" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M160" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N160" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O160" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B161" t="str">
+        <v>8759431346</v>
+      </c>
+      <c r="C161" t="str">
+        <v>1760742</v>
+      </c>
+      <c r="D161" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E161" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F161" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G161" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H161">
+        <v>235.26</v>
+      </c>
+      <c r="I161" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J161" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K161" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L161" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M161" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N161" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O161" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B162" t="str">
+        <v>8759431341</v>
+      </c>
+      <c r="C162" t="str">
+        <v>1760741</v>
+      </c>
+      <c r="D162" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E162" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F162" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G162" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H162">
+        <v>230.26</v>
+      </c>
+      <c r="I162" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J162" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K162" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L162" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M162" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N162" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O162" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B163" t="str">
+        <v>8759433826</v>
+      </c>
+      <c r="C163" t="str">
+        <v>1760746</v>
+      </c>
+      <c r="D163" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E163" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F163" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G163" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H163">
+        <v>261.26</v>
+      </c>
+      <c r="I163" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J163" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K163" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L163" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M163" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N163" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O163" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B164" t="str">
+        <v>8759431333</v>
+      </c>
+      <c r="C164" t="str">
+        <v>1760739</v>
+      </c>
+      <c r="D164" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E164" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F164" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G164" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H164">
+        <v>222.26</v>
+      </c>
+      <c r="I164" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J164" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K164" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L164" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M164" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N164" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O164" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B165" t="str">
+        <v>8759433824</v>
+      </c>
+      <c r="C165" t="str">
+        <v>1760744</v>
+      </c>
+      <c r="D165" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E165" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F165" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G165" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H165">
+        <v>259.26</v>
+      </c>
+      <c r="I165" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J165" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K165" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L165" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M165" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N165" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O165" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B166" t="str">
+        <v>8759420541</v>
+      </c>
+      <c r="C166" t="str">
+        <v>1760733</v>
+      </c>
+      <c r="D166" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E166" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F166" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G166" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H166">
+        <v>189.26</v>
+      </c>
+      <c r="I166" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J166" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K166" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L166" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M166" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N166" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O166" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B167" t="str">
+        <v>8759445503</v>
+      </c>
+      <c r="C167" t="str">
+        <v>1760747</v>
+      </c>
+      <c r="D167" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E167" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F167" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G167" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H167">
+        <v>363.26</v>
+      </c>
+      <c r="I167" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J167" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K167" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L167" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M167" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N167" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O167" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B168" t="str">
+        <v>8759445504</v>
+      </c>
+      <c r="C168" t="str">
+        <v>1760748</v>
+      </c>
+      <c r="D168" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E168" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F168" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G168" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H168">
+        <v>364.26</v>
+      </c>
+      <c r="I168" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J168" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K168" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L168" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M168" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N168" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O168" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B169" t="str">
+        <v>8759431339</v>
+      </c>
+      <c r="C169" t="str">
+        <v>1760740</v>
+      </c>
+      <c r="D169" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E169" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F169" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G169" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H169">
+        <v>228.26</v>
+      </c>
+      <c r="I169" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J169" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K169" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L169" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M169" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N169" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O169" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B170" t="str">
+        <v>8759431347</v>
+      </c>
+      <c r="C170" t="str">
+        <v>1760743</v>
+      </c>
+      <c r="D170" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E170" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F170" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G170" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H170">
+        <v>236.26</v>
+      </c>
+      <c r="I170" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J170" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K170" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L170" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M170" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N170" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O170" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>514920</v>
+      </c>
+      <c r="B171" t="str">
+        <v>8759433825</v>
+      </c>
+      <c r="C171" t="str">
+        <v>1760745</v>
+      </c>
+      <c r="D171" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E171" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F171" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="G171" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H171">
+        <v>260.26</v>
+      </c>
+      <c r="I171" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J171" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K171" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L171" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M171" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N171" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O171" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>514930</v>
+      </c>
+      <c r="B172" t="str">
+        <v>8759436478</v>
+      </c>
+      <c r="C172" t="str">
+        <v>1760752</v>
+      </c>
+      <c r="D172" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E172" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F172" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G172" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H172">
+        <v>276.26</v>
+      </c>
+      <c r="I172" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O172" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>514930</v>
+      </c>
+      <c r="B173" t="str">
+        <v>8759436471</v>
+      </c>
+      <c r="C173" t="str">
+        <v>1760751</v>
+      </c>
+      <c r="D173" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E173" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F173" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G173" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H173">
+        <v>270.26</v>
+      </c>
+      <c r="I173" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O173" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>514930</v>
+      </c>
+      <c r="B174" t="str">
+        <v>8759420546</v>
+      </c>
+      <c r="C174" t="str">
+        <v>1760749</v>
+      </c>
+      <c r="D174" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E174" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F174" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G174" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H174">
+        <v>194.26</v>
+      </c>
+      <c r="I174" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O174" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>514930</v>
+      </c>
+      <c r="B175" t="str">
+        <v>8759420548</v>
+      </c>
+      <c r="C175" t="str">
+        <v>1760750</v>
+      </c>
+      <c r="D175" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E175" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F175" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G175" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H175">
+        <v>196.26</v>
+      </c>
+      <c r="I175" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O175" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>514938</v>
+      </c>
+      <c r="B176" t="str">
+        <v>8759436481</v>
+      </c>
+      <c r="C176" t="str">
+        <v>1760753</v>
+      </c>
+      <c r="D176" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E176" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F176" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G176" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H176">
+        <v>279.26</v>
+      </c>
+      <c r="I176" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O176" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>514938</v>
+      </c>
+      <c r="B177" t="str">
+        <v>8759436486</v>
+      </c>
+      <c r="C177" t="str">
+        <v>1760754</v>
+      </c>
+      <c r="D177" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E177" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F177" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G177" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H177">
+        <v>284.26</v>
+      </c>
+      <c r="I177" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O177" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>514943</v>
+      </c>
+      <c r="B178" t="str">
+        <v>8759420545</v>
+      </c>
+      <c r="C178" t="str">
+        <v>1760755</v>
+      </c>
+      <c r="D178" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E178" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F178" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G178" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H178">
+        <v>193.26</v>
+      </c>
+      <c r="I178" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O178" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>514943</v>
+      </c>
+      <c r="B179" t="str">
+        <v>8759436475</v>
+      </c>
+      <c r="C179" t="str">
+        <v>1760756</v>
+      </c>
+      <c r="D179" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E179" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F179" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G179" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H179">
+        <v>273.26</v>
+      </c>
+      <c r="I179" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O179" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>514945</v>
+      </c>
+      <c r="B180" t="str">
+        <v>8759436472</v>
+      </c>
+      <c r="C180" t="str">
+        <v>1760759</v>
+      </c>
+      <c r="D180" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E180" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F180" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G180" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H180">
+        <v>271.26</v>
+      </c>
+      <c r="I180" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O180" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>514945</v>
+      </c>
+      <c r="B181" t="str">
+        <v>8759420547</v>
+      </c>
+      <c r="C181" t="str">
+        <v>1760757</v>
+      </c>
+      <c r="D181" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E181" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F181" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G181" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H181">
+        <v>195.26</v>
+      </c>
+      <c r="I181" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O181" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>514945</v>
+      </c>
+      <c r="B182" t="str">
+        <v>8759436469</v>
+      </c>
+      <c r="C182" t="str">
+        <v>1760758</v>
+      </c>
+      <c r="D182" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E182" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F182" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G182" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H182">
+        <v>265.26</v>
+      </c>
+      <c r="I182" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O182" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>514947</v>
+      </c>
+      <c r="B183" t="str">
+        <v>8759420549</v>
+      </c>
+      <c r="C183" t="str">
+        <v>1760760</v>
+      </c>
+      <c r="D183" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E183" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F183" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G183" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H183">
+        <v>197.26</v>
+      </c>
+      <c r="I183" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O183" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>514954</v>
+      </c>
+      <c r="B184" t="str">
+        <v>8759436470</v>
+      </c>
+      <c r="C184" t="str">
+        <v>1760761</v>
+      </c>
+      <c r="D184" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E184" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F184" t="str">
+        <v>RAPIDO LATINA</v>
+      </c>
+      <c r="G184" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="H184">
+        <v>266.26</v>
+      </c>
+      <c r="I184" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O184" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>515005</v>
+      </c>
+      <c r="B185" t="str">
+        <v>8759534047</v>
+      </c>
+      <c r="C185" t="str">
+        <v>1760916</v>
+      </c>
+      <c r="D185" t="str">
+        <v>10/04/2025</v>
+      </c>
+      <c r="E185" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F185" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G185" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H185">
+        <v>415.26</v>
+      </c>
+      <c r="I185" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O185" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>515011</v>
+      </c>
+      <c r="B186" t="str">
+        <v>8759534048</v>
+      </c>
+      <c r="C186" t="str">
+        <v>1760917</v>
+      </c>
+      <c r="D186" t="str">
+        <v>10/04/2025</v>
+      </c>
+      <c r="E186" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F186" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G186" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H186">
+        <v>416.26</v>
+      </c>
+      <c r="I186" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O186" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>515011</v>
+      </c>
+      <c r="B187" t="str">
+        <v>8759569246</v>
+      </c>
+      <c r="C187" t="str">
+        <v>1760966</v>
+      </c>
+      <c r="D187" t="str">
+        <v>10/04/2025</v>
+      </c>
+      <c r="E187" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F187" t="str">
+        <v>INTERESTADUAL</v>
+      </c>
+      <c r="G187" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H187">
+        <v>417.26</v>
+      </c>
+      <c r="I187" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O187" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>614747</v>
+      </c>
+      <c r="B188" t="str">
+        <v>8769490518</v>
+      </c>
+      <c r="C188" t="str">
+        <v>1880765</v>
+      </c>
+      <c r="D188" t="str">
+        <v>13/05/2025</v>
+      </c>
+      <c r="E188" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F188" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G188" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H188">
+        <v>159.26</v>
+      </c>
+      <c r="I188" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J188" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K188" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L188" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M188" t="str">
+        <v>16/05/2025</v>
+      </c>
+      <c r="N188" t="str">
+        <v>20:51</v>
+      </c>
+      <c r="O188" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>614748</v>
+      </c>
+      <c r="B189" t="str">
+        <v>8769490519</v>
+      </c>
+      <c r="C189" t="str">
+        <v>1880766</v>
+      </c>
+      <c r="D189" t="str">
+        <v>13/05/2025</v>
+      </c>
+      <c r="E189" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F189" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G189" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H189">
+        <v>378.26</v>
+      </c>
+      <c r="I189" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O189" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>614749</v>
+      </c>
+      <c r="B190" t="str">
+        <v>8769490520</v>
+      </c>
+      <c r="C190" t="str">
+        <v>1880767</v>
+      </c>
+      <c r="D190" t="str">
+        <v>13/05/2025</v>
+      </c>
+      <c r="E190" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F190" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="G190" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H190">
+        <v>242.26</v>
+      </c>
+      <c r="I190" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J190" t="str">
+        <v/>
+      </c>
+      <c r="K190" t="str">
+        <v/>
+      </c>
+      <c r="L190" t="str">
+        <v/>
+      </c>
+      <c r="N190" t="str">
+        <v/>
+      </c>
+      <c r="O190" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
         <v>614750</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B191" t="str">
         <v>8769490521</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C191" t="str">
         <v>1880768</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D191" t="str">
         <v>13/05/2025</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E191" t="str">
         <v>ARACAJU</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F191" t="str">
         <v>EPS</v>
       </c>
-      <c r="G5" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H5">
+      <c r="G191" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H191">
         <v>377.26</v>
       </c>
-      <c r="I5" t="str">
-        <v>OSP</v>
-      </c>
-      <c r="O5" t="str">
-        <v>Pendente</v>
+      <c r="I191" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O191" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>619461</v>
+      </c>
+      <c r="B192" t="str">
+        <v>5561</v>
+      </c>
+      <c r="C192" t="str">
+        <v>16565</v>
+      </c>
+      <c r="D192" t="str">
+        <v>16/05/2025</v>
+      </c>
+      <c r="E192" t="str">
+        <v>NATAL</v>
+      </c>
+      <c r="F192" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G192" t="str">
+        <v>RODOVIARIO</v>
+      </c>
+      <c r="H192">
+        <v>16</v>
+      </c>
+      <c r="I192" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J192" t="str">
+        <v>JOSE BRUNO</v>
+      </c>
+      <c r="K192" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L192" t="str">
+        <v>06397347400</v>
+      </c>
+      <c r="M192" t="str">
+        <v>16/05/2025</v>
+      </c>
+      <c r="N192" t="str">
+        <v>11:49</v>
+      </c>
+      <c r="O192" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>619463</v>
+      </c>
+      <c r="B193" t="str">
+        <v>4453</v>
+      </c>
+      <c r="C193" t="str">
+        <v>6565</v>
+      </c>
+      <c r="D193" t="str">
+        <v>16/05/2025</v>
+      </c>
+      <c r="E193" t="str">
+        <v>JOÃO PESSOA</v>
+      </c>
+      <c r="F193" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G193" t="str">
+        <v>RODOVIARIO</v>
+      </c>
+      <c r="H193">
+        <v>17</v>
+      </c>
+      <c r="I193" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J193" t="str">
+        <v>JOSE BRUNO</v>
+      </c>
+      <c r="K193" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L193" t="str">
+        <v>06397347400</v>
+      </c>
+      <c r="M193" t="str">
+        <v>16/05/2025</v>
+      </c>
+      <c r="N193" t="str">
+        <v>11:49</v>
+      </c>
+      <c r="O193" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>61946411</v>
+      </c>
+      <c r="B194" t="str">
+        <v>659431</v>
+      </c>
+      <c r="C194" t="str">
+        <v>165165</v>
+      </c>
+      <c r="D194" t="str">
+        <v>16/05/2025</v>
+      </c>
+      <c r="E194" t="str">
+        <v>PERNAMBUCO</v>
+      </c>
+      <c r="F194" t="str">
+        <v>TELEF</v>
+      </c>
+      <c r="G194" t="str">
+        <v>RODOVIARIO</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J194" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K194" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L194" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M194" t="str">
+        <v>16/05/2025</v>
+      </c>
+      <c r="N194" t="str">
+        <v>20:47</v>
+      </c>
+      <c r="O194" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>619465</v>
+      </c>
+      <c r="B195" t="str">
+        <v>6465153</v>
+      </c>
+      <c r="C195" t="str">
+        <v>15616</v>
+      </c>
+      <c r="D195" t="str">
+        <v>16/05/2025</v>
+      </c>
+      <c r="E195" t="str">
+        <v>ALAGOAS</v>
+      </c>
+      <c r="F195" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G195" t="str">
+        <v>RODOVIARIO</v>
+      </c>
+      <c r="H195">
+        <v>19</v>
+      </c>
+      <c r="I195" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J195" t="str">
+        <v/>
+      </c>
+      <c r="K195" t="str">
+        <v/>
+      </c>
+      <c r="L195" t="str">
+        <v/>
+      </c>
+      <c r="N195" t="str">
+        <v/>
+      </c>
+      <c r="O195" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>777</v>
+      </c>
+      <c r="B196" t="str">
+        <v>7777</v>
+      </c>
+      <c r="C196" t="str">
+        <v>77777</v>
+      </c>
+      <c r="D196" t="str">
+        <v>16/05/2025</v>
+      </c>
+      <c r="E196" t="str">
+        <v>PERNAMBUCO</v>
+      </c>
+      <c r="F196" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G196" t="str">
+        <v>RODOVIARIO</v>
+      </c>
+      <c r="H196">
+        <v>33</v>
+      </c>
+      <c r="I196" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J196" t="str">
+        <v/>
+      </c>
+      <c r="K196" t="str">
+        <v/>
+      </c>
+      <c r="L196" t="str">
+        <v/>
+      </c>
+      <c r="N196" t="str">
+        <v/>
+      </c>
+      <c r="O196" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B197" t="str">
+        <v>8759436816</v>
+      </c>
+      <c r="C197" t="str">
+        <v>4944280446</v>
+      </c>
+      <c r="D197" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="E197" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F197" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G197" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H197">
+        <v>294.26</v>
+      </c>
+      <c r="I197" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O197" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B198" t="str">
+        <v>8759433358</v>
+      </c>
+      <c r="C198" t="str">
+        <v>4943990857</v>
+      </c>
+      <c r="D198" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E198" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F198" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G198" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H198">
+        <v>237.26</v>
+      </c>
+      <c r="I198" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O198" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B199" t="str">
+        <v>8759436814</v>
+      </c>
+      <c r="C199" t="str">
+        <v>4944010162</v>
+      </c>
+      <c r="D199" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E199" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F199" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G199" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H199">
+        <v>288.26</v>
+      </c>
+      <c r="I199" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O199" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B200" t="str">
+        <v>8759436815</v>
+      </c>
+      <c r="C200" t="str">
+        <v>4944010164</v>
+      </c>
+      <c r="D200" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E200" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F200" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G200" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H200">
+        <v>289.26</v>
+      </c>
+      <c r="I200" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O200" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B201" t="str">
+        <v>8759445538</v>
+      </c>
+      <c r="C201" t="str">
+        <v>4944010299</v>
+      </c>
+      <c r="D201" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E201" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F201" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G201" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H201">
+        <v>398.26</v>
+      </c>
+      <c r="I201" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O201" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B202" t="str">
+        <v>8759445539</v>
+      </c>
+      <c r="C202" t="str">
+        <v>4943991451</v>
+      </c>
+      <c r="D202" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E202" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F202" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G202" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H202">
+        <v>399.26</v>
+      </c>
+      <c r="I202" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O202" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B203" t="str">
+        <v>8759445540</v>
+      </c>
+      <c r="C203" t="str">
+        <v>4943991560</v>
+      </c>
+      <c r="D203" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E203" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F203" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G203" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H203">
+        <v>400.26</v>
+      </c>
+      <c r="I203" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O203" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B204" t="str">
+        <v>8759445541</v>
+      </c>
+      <c r="C204" t="str">
+        <v>4943991782</v>
+      </c>
+      <c r="D204" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E204" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F204" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G204" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H204">
+        <v>401.26</v>
+      </c>
+      <c r="I204" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O204" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B205" t="str">
+        <v>8759445542</v>
+      </c>
+      <c r="C205" t="str">
+        <v>4944010446</v>
+      </c>
+      <c r="D205" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E205" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F205" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G205" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H205">
+        <v>402.26</v>
+      </c>
+      <c r="I205" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O205" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B206" t="str">
+        <v>8759433359</v>
+      </c>
+      <c r="C206" t="str">
+        <v>4944009235</v>
+      </c>
+      <c r="D206" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E206" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F206" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G206" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H206">
+        <v>238.26</v>
+      </c>
+      <c r="I206" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O206" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B207" t="str">
+        <v>8759433360</v>
+      </c>
+      <c r="C207" t="str">
+        <v>4944009238</v>
+      </c>
+      <c r="D207" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E207" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F207" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G207" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H207">
+        <v>239.26</v>
+      </c>
+      <c r="I207" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O207" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B208" t="str">
+        <v>8759436813</v>
+      </c>
+      <c r="C208" t="str">
+        <v>4943990986</v>
+      </c>
+      <c r="D208" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E208" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F208" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G208" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H208">
+        <v>287.26</v>
+      </c>
+      <c r="I208" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J208" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K208" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L208" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M208" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N208" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O208" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B209" t="str">
+        <v>8759433361</v>
+      </c>
+      <c r="C209" t="str">
+        <v>4943990896</v>
+      </c>
+      <c r="D209" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E209" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F209" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G209" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H209">
+        <v>240.26</v>
+      </c>
+      <c r="I209" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O209" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B210" t="str">
+        <v>8759433448</v>
+      </c>
+      <c r="C210" t="str">
+        <v>4944009240</v>
+      </c>
+      <c r="D210" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E210" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F210" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G210" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H210">
+        <v>246.26</v>
+      </c>
+      <c r="I210" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O210" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B211" t="str">
+        <v>8759433449</v>
+      </c>
+      <c r="C211" t="str">
+        <v>4944009504</v>
+      </c>
+      <c r="D211" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E211" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F211" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G211" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H211">
+        <v>247.26</v>
+      </c>
+      <c r="I211" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O211" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B212" t="str">
+        <v>8759436468</v>
+      </c>
+      <c r="C212" t="str">
+        <v>4944009909</v>
+      </c>
+      <c r="D212" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E212" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F212" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G212" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H212">
+        <v>264.26</v>
+      </c>
+      <c r="I212" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O212" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B213" t="str">
+        <v>8759441068</v>
+      </c>
+      <c r="C213" t="str">
+        <v>4944098322</v>
+      </c>
+      <c r="D213" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E213" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F213" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G213" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H213">
+        <v>342.26</v>
+      </c>
+      <c r="I213" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O213" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B214" t="str">
+        <v>8759436818</v>
+      </c>
+      <c r="C214" t="str">
+        <v>4944010292</v>
+      </c>
+      <c r="D214" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E214" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F214" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G214" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H214">
+        <v>299.26</v>
+      </c>
+      <c r="I214" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O214" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B215" t="str">
+        <v>8759436817</v>
+      </c>
+      <c r="C215" t="str">
+        <v>4943991047</v>
+      </c>
+      <c r="D215" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E215" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="F215" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G215" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H215">
+        <v>296.26</v>
+      </c>
+      <c r="I215" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O215" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B216" t="str">
+        <v>8759445535</v>
+      </c>
+      <c r="C216" t="str">
+        <v>4943991230</v>
+      </c>
+      <c r="D216" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E216" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F216" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G216" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H216">
+        <v>395.26</v>
+      </c>
+      <c r="I216" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J216" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K216" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L216" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M216" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N216" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O216" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B217" t="str">
+        <v>8759445536</v>
+      </c>
+      <c r="C217" t="str">
+        <v>4943991366</v>
+      </c>
+      <c r="D217" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E217" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F217" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G217" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H217">
+        <v>396.26</v>
+      </c>
+      <c r="I217" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J217" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K217" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L217" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M217" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N217" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O217" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B218" t="str">
+        <v>8759445537</v>
+      </c>
+      <c r="C218" t="str">
+        <v>4944010295</v>
+      </c>
+      <c r="D218" t="str">
+        <v>04/04/2025</v>
+      </c>
+      <c r="E218" t="str">
+        <v>MAUA</v>
+      </c>
+      <c r="F218" t="str">
+        <v>ESTADUAL</v>
+      </c>
+      <c r="G218" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H218">
+        <v>397.26</v>
+      </c>
+      <c r="I218" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J218" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="K218" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L218" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="M218" t="str">
+        <v>18/05/2025</v>
+      </c>
+      <c r="N218" t="str">
+        <v>09:30</v>
+      </c>
+      <c r="O218" t="str">
+        <v>Expedido</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O218"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/lista.xlsx
+++ b/lista.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,19 +451,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>520648</v>
+        <v>520674</v>
       </c>
       <c r="B2" t="str">
-        <v>8760324059</v>
+        <v>8760324065</v>
       </c>
       <c r="C2" t="str">
-        <v>1782101</v>
+        <v>1782123</v>
       </c>
       <c r="D2" t="str">
         <v>20/05/2025</v>
       </c>
       <c r="E2" t="str">
-        <v>SALVADOR</v>
+        <v>NATAL</v>
       </c>
       <c r="F2" t="str">
         <v>SAMSUNG</v>
@@ -472,25 +472,25 @@
         <v>RODOVIÁRIO</v>
       </c>
       <c r="H2">
-        <v>100.76</v>
+        <v>123.76</v>
       </c>
       <c r="I2" t="str">
         <v>osp</v>
       </c>
       <c r="J2" t="str">
-        <v>CARLOS SILVA</v>
+        <v>FABIO SILVA</v>
       </c>
       <c r="K2" t="str">
-        <v>CAROBA</v>
+        <v>RAPIDO PARANA</v>
       </c>
       <c r="L2" t="str">
-        <v>25705221045</v>
+        <v>00669019011</v>
       </c>
       <c r="M2" t="str">
         <v>23/05/2025</v>
       </c>
       <c r="N2" t="str">
-        <v>11:38</v>
+        <v>15:52</v>
       </c>
       <c r="O2" t="str">
         <v>Expedido</v>
@@ -498,19 +498,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>520648</v>
+        <v>520674</v>
       </c>
       <c r="B3" t="str">
-        <v>8761324062</v>
+        <v>8760324066</v>
       </c>
       <c r="C3" t="str">
-        <v>1782104</v>
+        <v>1782127</v>
       </c>
       <c r="D3" t="str">
         <v>20/05/2025</v>
       </c>
       <c r="E3" t="str">
-        <v>SALVADOR</v>
+        <v>NATAL</v>
       </c>
       <c r="F3" t="str">
         <v>SAMSUNG</v>
@@ -519,351 +519,33 @@
         <v>RODOVIÁRIO</v>
       </c>
       <c r="H3">
-        <v>103.76</v>
+        <v>136.76</v>
       </c>
       <c r="I3" t="str">
         <v>osp</v>
       </c>
+      <c r="J3" t="str">
+        <v>FABIO SILVA</v>
+      </c>
+      <c r="K3" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="L3" t="str">
+        <v>00669019011</v>
+      </c>
+      <c r="M3" t="str">
+        <v>23/05/2025</v>
+      </c>
+      <c r="N3" t="str">
+        <v>15:52</v>
+      </c>
       <c r="O3" t="str">
-        <v>Pendente</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>520654</v>
-      </c>
-      <c r="B4" t="str">
-        <v>8760324063</v>
-      </c>
-      <c r="C4" t="str">
-        <v>1782104</v>
-      </c>
-      <c r="D4" t="str">
-        <v>20/05/2025</v>
-      </c>
-      <c r="E4" t="str">
-        <v>FEIRA DE SANTANA</v>
-      </c>
-      <c r="F4" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G4" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H4">
-        <v>116.76</v>
-      </c>
-      <c r="I4" t="str">
-        <v>osp</v>
-      </c>
-      <c r="O4" t="str">
-        <v>Pendente</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>520660</v>
-      </c>
-      <c r="B5" t="str">
-        <v>8760333571</v>
-      </c>
-      <c r="C5" t="str">
-        <v>1782111</v>
-      </c>
-      <c r="D5" t="str">
-        <v>20/05/2025</v>
-      </c>
-      <c r="E5" t="str">
-        <v>SALVADOR</v>
-      </c>
-      <c r="F5" t="str">
-        <v>RAPIDO PARANA</v>
-      </c>
-      <c r="G5" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H5">
-        <v>148.76</v>
-      </c>
-      <c r="I5" t="str">
-        <v>osp</v>
-      </c>
-      <c r="O5" t="str">
-        <v>Pendente</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>520670</v>
-      </c>
-      <c r="B6" t="str">
-        <v>8760324064</v>
-      </c>
-      <c r="C6" t="str">
-        <v>4946342986</v>
-      </c>
-      <c r="D6" t="str">
-        <v>20/05/2025</v>
-      </c>
-      <c r="E6" t="str">
-        <v>CARUARU</v>
-      </c>
-      <c r="F6" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G6" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H6">
-        <v>118.76</v>
-      </c>
-      <c r="I6" t="str">
-        <v>osp</v>
-      </c>
-      <c r="O6" t="str">
-        <v>Pendente</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>520674</v>
-      </c>
-      <c r="B7" t="str">
-        <v>8760324065</v>
-      </c>
-      <c r="C7" t="str">
-        <v>1782123</v>
-      </c>
-      <c r="D7" t="str">
-        <v>20/05/2025</v>
-      </c>
-      <c r="E7" t="str">
-        <v>NATAL</v>
-      </c>
-      <c r="F7" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G7" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H7">
-        <v>123.76</v>
-      </c>
-      <c r="I7" t="str">
-        <v>osp</v>
-      </c>
-      <c r="J7" t="str">
-        <v>FABIO SILVA</v>
-      </c>
-      <c r="K7" t="str">
-        <v>RAPIDO PARANA</v>
-      </c>
-      <c r="L7" t="str">
-        <v>00669019011</v>
-      </c>
-      <c r="M7" t="str">
-        <v>23/05/2025</v>
-      </c>
-      <c r="N7" t="str">
-        <v>15:52</v>
-      </c>
-      <c r="O7" t="str">
         <v>Expedido</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>520674</v>
-      </c>
-      <c r="B8" t="str">
-        <v>8760324066</v>
-      </c>
-      <c r="C8" t="str">
-        <v>1782127</v>
-      </c>
-      <c r="D8" t="str">
-        <v>20/05/2025</v>
-      </c>
-      <c r="E8" t="str">
-        <v>NATAL</v>
-      </c>
-      <c r="F8" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G8" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H8">
-        <v>136.76</v>
-      </c>
-      <c r="I8" t="str">
-        <v>osp</v>
-      </c>
-      <c r="J8" t="str">
-        <v>FABIO SILVA</v>
-      </c>
-      <c r="K8" t="str">
-        <v>RAPIDO PARANA</v>
-      </c>
-      <c r="L8" t="str">
-        <v>00669019011</v>
-      </c>
-      <c r="M8" t="str">
-        <v>23/05/2025</v>
-      </c>
-      <c r="N8" t="str">
-        <v>15:52</v>
-      </c>
-      <c r="O8" t="str">
-        <v>Expedido</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>520677</v>
-      </c>
-      <c r="B9" t="str">
-        <v>8760324061</v>
-      </c>
-      <c r="C9" t="str">
-        <v>1782120</v>
-      </c>
-      <c r="D9" t="str">
-        <v>20/05/2025</v>
-      </c>
-      <c r="E9" t="str">
-        <v>TERESINA</v>
-      </c>
-      <c r="F9" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G9" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H9">
-        <v>106.76</v>
-      </c>
-      <c r="I9" t="str">
-        <v>osp</v>
-      </c>
-      <c r="J9" t="str">
-        <v>FABIO SILVA</v>
-      </c>
-      <c r="K9" t="str">
-        <v>RAPIDO PARANA</v>
-      </c>
-      <c r="L9" t="str">
-        <v>00669019011</v>
-      </c>
-      <c r="M9" t="str">
-        <v>23/05/2025</v>
-      </c>
-      <c r="N9" t="str">
-        <v>11:41</v>
-      </c>
-      <c r="O9" t="str">
-        <v>Expedido</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>530648</v>
-      </c>
-      <c r="B10" t="str">
-        <v>8761324059</v>
-      </c>
-      <c r="C10" t="str">
-        <v>1782101</v>
-      </c>
-      <c r="D10" t="str">
-        <v>20/05/2025</v>
-      </c>
-      <c r="E10" t="str">
-        <v>SALVADOR</v>
-      </c>
-      <c r="F10" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G10" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H10">
-        <v>100.76</v>
-      </c>
-      <c r="I10" t="str">
-        <v>osp</v>
-      </c>
-      <c r="O10" t="str">
-        <v>Pendente</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>530649</v>
-      </c>
-      <c r="B11" t="str">
-        <v>8761324060</v>
-      </c>
-      <c r="C11" t="str">
-        <v>1782102</v>
-      </c>
-      <c r="D11" t="str">
-        <v>20/05/2025</v>
-      </c>
-      <c r="E11" t="str">
-        <v>SALVADOR</v>
-      </c>
-      <c r="F11" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G11" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H11">
-        <v>101.76</v>
-      </c>
-      <c r="I11" t="str">
-        <v>osp</v>
-      </c>
-      <c r="O11" t="str">
-        <v>Pendente</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>530650</v>
-      </c>
-      <c r="B12" t="str">
-        <v>8761324061</v>
-      </c>
-      <c r="C12" t="str">
-        <v>1782103</v>
-      </c>
-      <c r="D12" t="str">
-        <v>20/05/2025</v>
-      </c>
-      <c r="E12" t="str">
-        <v>SALVADOR</v>
-      </c>
-      <c r="F12" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G12" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H12">
-        <v>102.76</v>
-      </c>
-      <c r="I12" t="str">
-        <v>osp</v>
-      </c>
-      <c r="O12" t="str">
-        <v>Em romaneio</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/lista.xlsx
+++ b/lista.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,19 +451,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>520674</v>
+        <v>1004</v>
       </c>
       <c r="B2" t="str">
-        <v>8760324065</v>
+        <v>8745141900</v>
       </c>
       <c r="C2" t="str">
-        <v>1782123</v>
+        <v>12</v>
       </c>
       <c r="D2" t="str">
-        <v>20/05/2025</v>
+        <v>26/05/2025</v>
       </c>
       <c r="E2" t="str">
-        <v>NATAL</v>
+        <v>R2-FORTALEZA</v>
       </c>
       <c r="F2" t="str">
         <v>SAMSUNG</v>
@@ -472,25 +472,25 @@
         <v>RODOVIÁRIO</v>
       </c>
       <c r="H2">
-        <v>123.76</v>
+        <v>5000</v>
       </c>
       <c r="I2" t="str">
-        <v>osp</v>
+        <v>REDE EXTERNA</v>
       </c>
       <c r="J2" t="str">
-        <v>FABIO SILVA</v>
+        <v xml:space="preserve">EDUARDO PEDRO </v>
       </c>
       <c r="K2" t="str">
-        <v>RAPIDO PARANA</v>
+        <v>CAROBA</v>
       </c>
       <c r="L2" t="str">
-        <v>00669019011</v>
+        <v>09276813403</v>
       </c>
       <c r="M2" t="str">
-        <v>23/05/2025</v>
+        <v>28/05/2025</v>
       </c>
       <c r="N2" t="str">
-        <v>15:52</v>
+        <v>16:51</v>
       </c>
       <c r="O2" t="str">
         <v>Expedido</v>
@@ -498,54 +498,3715 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>520674</v>
+        <v>147810</v>
       </c>
       <c r="B3" t="str">
-        <v>8760324066</v>
+        <v>6884530</v>
       </c>
       <c r="C3" t="str">
-        <v>1782127</v>
+        <v>852457</v>
       </c>
       <c r="D3" t="str">
-        <v>20/05/2025</v>
+        <v>26/05/2025</v>
       </c>
       <c r="E3" t="str">
+        <v>BAHIA</v>
+      </c>
+      <c r="F3" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G3" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J3" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K3" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L3" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M3" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N3" t="str">
+        <v>11:35</v>
+      </c>
+      <c r="O3" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>147810</v>
+      </c>
+      <c r="B4" t="str">
+        <v>6884534</v>
+      </c>
+      <c r="C4" t="str">
+        <v>852461</v>
+      </c>
+      <c r="D4" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E4" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F4" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G4" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J4" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K4" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L4" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M4" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N4" t="str">
+        <v>11:35</v>
+      </c>
+      <c r="O4" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>147810</v>
+      </c>
+      <c r="B5" t="str">
+        <v>6884532</v>
+      </c>
+      <c r="C5" t="str">
+        <v>852459</v>
+      </c>
+      <c r="D5" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E5" t="str">
+        <v>CARUARU</v>
+      </c>
+      <c r="F5" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G5" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="O5" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>147810</v>
+      </c>
+      <c r="B6" t="str">
+        <v>6884533</v>
+      </c>
+      <c r="C6" t="str">
+        <v>852460</v>
+      </c>
+      <c r="D6" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E6" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F6" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G6" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J6" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K6" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L6" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M6" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N6" t="str">
+        <v>11:35</v>
+      </c>
+      <c r="O6" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>147810</v>
+      </c>
+      <c r="B7" t="str">
+        <v>6884535</v>
+      </c>
+      <c r="C7" t="str">
+        <v>852462</v>
+      </c>
+      <c r="D7" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E7" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F7" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G7" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J7" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K7" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L7" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M7" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N7" t="str">
+        <v>11:35</v>
+      </c>
+      <c r="O7" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>147810</v>
+      </c>
+      <c r="B8" t="str">
+        <v>6884531</v>
+      </c>
+      <c r="C8" t="str">
+        <v>852458</v>
+      </c>
+      <c r="D8" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E8" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F8" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G8" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J8" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K8" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L8" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M8" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N8" t="str">
+        <v>11:35</v>
+      </c>
+      <c r="O8" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B9" t="str">
+        <v>6884541</v>
+      </c>
+      <c r="C9" t="str">
+        <v>852470</v>
+      </c>
+      <c r="D9" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E9" t="str">
+        <v>BAHIA</v>
+      </c>
+      <c r="F9" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G9" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J9" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K9" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L9" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M9" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N9" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O9" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B10" t="str">
+        <v>6884545</v>
+      </c>
+      <c r="C10" t="str">
+        <v>852474</v>
+      </c>
+      <c r="D10" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E10" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F10" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G10" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J10" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K10" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L10" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M10" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N10" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O10" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B11" t="str">
+        <v>6884536</v>
+      </c>
+      <c r="C11" t="str">
+        <v>852465</v>
+      </c>
+      <c r="D11" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E11" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F11" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G11" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J11" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K11" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L11" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M11" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N11" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O11" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B12" t="str">
+        <v>6884537</v>
+      </c>
+      <c r="C12" t="str">
+        <v>852466</v>
+      </c>
+      <c r="D12" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E12" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F12" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G12" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J12" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K12" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L12" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M12" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N12" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O12" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B13" t="str">
+        <v>6884538</v>
+      </c>
+      <c r="C13" t="str">
+        <v>852467</v>
+      </c>
+      <c r="D13" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E13" t="str">
         <v>NATAL</v>
       </c>
-      <c r="F3" t="str">
-        <v>SAMSUNG</v>
-      </c>
-      <c r="G3" t="str">
-        <v>RODOVIÁRIO</v>
-      </c>
-      <c r="H3">
-        <v>136.76</v>
-      </c>
-      <c r="I3" t="str">
-        <v>osp</v>
-      </c>
-      <c r="J3" t="str">
-        <v>FABIO SILVA</v>
-      </c>
-      <c r="K3" t="str">
-        <v>RAPIDO PARANA</v>
-      </c>
-      <c r="L3" t="str">
-        <v>00669019011</v>
-      </c>
-      <c r="M3" t="str">
-        <v>23/05/2025</v>
-      </c>
-      <c r="N3" t="str">
-        <v>15:52</v>
-      </c>
-      <c r="O3" t="str">
+      <c r="F13" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G13" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J13" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K13" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L13" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M13" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N13" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O13" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B14" t="str">
+        <v>6884539</v>
+      </c>
+      <c r="C14" t="str">
+        <v>852468</v>
+      </c>
+      <c r="D14" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E14" t="str">
+        <v>JOÃO PESSOA</v>
+      </c>
+      <c r="F14" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G14" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J14" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K14" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L14" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M14" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N14" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O14" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B15" t="str">
+        <v>6884546</v>
+      </c>
+      <c r="C15" t="str">
+        <v>852475</v>
+      </c>
+      <c r="D15" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E15" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F15" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G15" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J15" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K15" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L15" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M15" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N15" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O15" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B16" t="str">
+        <v>6884544</v>
+      </c>
+      <c r="C16" t="str">
+        <v>852473</v>
+      </c>
+      <c r="D16" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E16" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F16" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G16" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J16" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K16" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L16" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M16" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N16" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O16" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B17" t="str">
+        <v>6884543</v>
+      </c>
+      <c r="C17" t="str">
+        <v>852472</v>
+      </c>
+      <c r="D17" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E17" t="str">
+        <v>CARUARU</v>
+      </c>
+      <c r="F17" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G17" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J17" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K17" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L17" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M17" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N17" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O17" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B18" t="str">
+        <v>6884542</v>
+      </c>
+      <c r="C18" t="str">
+        <v>852471</v>
+      </c>
+      <c r="D18" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E18" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="F18" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G18" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J18" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K18" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L18" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M18" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N18" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O18" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>147813</v>
+      </c>
+      <c r="B19" t="str">
+        <v>6884540</v>
+      </c>
+      <c r="C19" t="str">
+        <v>852469</v>
+      </c>
+      <c r="D19" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E19" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F19" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G19" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J19" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K19" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L19" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M19" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N19" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O19" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>14785</v>
+      </c>
+      <c r="B20" t="str">
+        <v>6884525</v>
+      </c>
+      <c r="C20" t="str">
+        <v>852452</v>
+      </c>
+      <c r="D20" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E20" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="F20" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G20" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J20" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K20" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L20" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M20" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N20" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O20" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>14786</v>
+      </c>
+      <c r="B21" t="str">
+        <v>6884526</v>
+      </c>
+      <c r="C21" t="str">
+        <v>852453</v>
+      </c>
+      <c r="D21" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E21" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F21" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G21" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J21" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K21" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L21" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M21" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N21" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O21" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>14787</v>
+      </c>
+      <c r="B22" t="str">
+        <v>6884527</v>
+      </c>
+      <c r="C22" t="str">
+        <v>852454</v>
+      </c>
+      <c r="D22" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E22" t="str">
+        <v>NATAL</v>
+      </c>
+      <c r="F22" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G22" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="O22" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>14788</v>
+      </c>
+      <c r="B23" t="str">
+        <v>6884528</v>
+      </c>
+      <c r="C23" t="str">
+        <v>852455</v>
+      </c>
+      <c r="D23" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E23" t="str">
+        <v>JOÃO PESSOA</v>
+      </c>
+      <c r="F23" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G23" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J23" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K23" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L23" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M23" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N23" t="str">
+        <v>13:17</v>
+      </c>
+      <c r="O23" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>14789</v>
+      </c>
+      <c r="B24" t="str">
+        <v>6884529</v>
+      </c>
+      <c r="C24" t="str">
+        <v>852456</v>
+      </c>
+      <c r="D24" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E24" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="F24" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="G24" t="str">
+        <v>AEREO</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="J24" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K24" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L24" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M24" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N24" t="str">
+        <v>11:35</v>
+      </c>
+      <c r="O24" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>540649</v>
+      </c>
+      <c r="B25" t="str">
+        <v>8771324060</v>
+      </c>
+      <c r="C25" t="str">
+        <v>1882102</v>
+      </c>
+      <c r="D25" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E25" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F25" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G25" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H25">
+        <v>377.26</v>
+      </c>
+      <c r="I25" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O25" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>540650</v>
+      </c>
+      <c r="B26" t="str">
+        <v>8771324061</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1882103</v>
+      </c>
+      <c r="D26" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E26" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F26" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G26" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H26">
+        <v>377.26</v>
+      </c>
+      <c r="I26" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O26" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>540651</v>
+      </c>
+      <c r="B27" t="str">
+        <v>8771324062</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1882104</v>
+      </c>
+      <c r="D27" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E27" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F27" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G27" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H27">
+        <v>377.26</v>
+      </c>
+      <c r="I27" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J27" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K27" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L27" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M27" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N27" t="str">
+        <v>19:26</v>
+      </c>
+      <c r="O27" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>540652</v>
+      </c>
+      <c r="B28" t="str">
+        <v>8771324063</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1882105</v>
+      </c>
+      <c r="D28" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E28" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F28" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G28" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H28">
+        <v>377.26</v>
+      </c>
+      <c r="I28" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O28" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>540653</v>
+      </c>
+      <c r="B29" t="str">
+        <v>8771324066</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1882108</v>
+      </c>
+      <c r="D29" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E29" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F29" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G29" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H29">
+        <v>377.26</v>
+      </c>
+      <c r="I29" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J29" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K29" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L29" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M29" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N29" t="str">
+        <v>19:26</v>
+      </c>
+      <c r="O29" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>540653</v>
+      </c>
+      <c r="B30" t="str">
+        <v>8771324065</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1882107</v>
+      </c>
+      <c r="D30" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E30" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F30" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G30" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H30">
+        <v>377.26</v>
+      </c>
+      <c r="I30" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J30" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K30" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L30" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M30" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N30" t="str">
+        <v>19:26</v>
+      </c>
+      <c r="O30" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>540653</v>
+      </c>
+      <c r="B31" t="str">
+        <v>8771324067</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1882109</v>
+      </c>
+      <c r="D31" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E31" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F31" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G31" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H31">
+        <v>377.26</v>
+      </c>
+      <c r="I31" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J31" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K31" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L31" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M31" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N31" t="str">
+        <v>19:26</v>
+      </c>
+      <c r="O31" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>540654</v>
+      </c>
+      <c r="B32" t="str">
+        <v>8771324071</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1882113</v>
+      </c>
+      <c r="D32" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E32" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F32" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G32" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H32">
+        <v>377.26</v>
+      </c>
+      <c r="I32" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J32" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K32" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L32" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M32" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N32" t="str">
+        <v>09:28</v>
+      </c>
+      <c r="O32" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>540654</v>
+      </c>
+      <c r="B33" t="str">
+        <v>8771324069</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1882111</v>
+      </c>
+      <c r="D33" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E33" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F33" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G33" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H33">
+        <v>377.26</v>
+      </c>
+      <c r="I33" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J33" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K33" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L33" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M33" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N33" t="str">
+        <v>09:28</v>
+      </c>
+      <c r="O33" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>540654</v>
+      </c>
+      <c r="B34" t="str">
+        <v>8771324070</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1882112</v>
+      </c>
+      <c r="D34" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E34" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F34" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G34" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H34">
+        <v>377.26</v>
+      </c>
+      <c r="I34" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O34" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>550649</v>
+      </c>
+      <c r="B35" t="str">
+        <v>8781324066</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1892108</v>
+      </c>
+      <c r="D35" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E35" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F35" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G35" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H35">
+        <v>383.26</v>
+      </c>
+      <c r="I35" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J35" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K35" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L35" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M35" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N35" t="str">
+        <v>09:35</v>
+      </c>
+      <c r="O35" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>550649</v>
+      </c>
+      <c r="B36" t="str">
+        <v>8781324065</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1892107</v>
+      </c>
+      <c r="D36" t="str">
+        <v>25/05/2025</v>
+      </c>
+      <c r="E36" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F36" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G36" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H36">
+        <v>382.26</v>
+      </c>
+      <c r="I36" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J36" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K36" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L36" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M36" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N36" t="str">
+        <v>09:35</v>
+      </c>
+      <c r="O36" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>550649</v>
+      </c>
+      <c r="B37" t="str">
+        <v>8781324064</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1892106</v>
+      </c>
+      <c r="D37" t="str">
+        <v>24/05/2025</v>
+      </c>
+      <c r="E37" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F37" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G37" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H37">
+        <v>381.26</v>
+      </c>
+      <c r="I37" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J37" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K37" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L37" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M37" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N37" t="str">
+        <v>09:35</v>
+      </c>
+      <c r="O37" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>550656</v>
+      </c>
+      <c r="B38" t="str">
+        <v>8781324067</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1892109</v>
+      </c>
+      <c r="D38" t="str">
+        <v>27/05/2025</v>
+      </c>
+      <c r="E38" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F38" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G38" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H38">
+        <v>384.26</v>
+      </c>
+      <c r="I38" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J38" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K38" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L38" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M38" t="str">
+        <v>27/05/2025</v>
+      </c>
+      <c r="N38" t="str">
+        <v>13:37</v>
+      </c>
+      <c r="O38" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>550870</v>
+      </c>
+      <c r="B39" t="str">
+        <v>8782324186</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1893228</v>
+      </c>
+      <c r="D39" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E39" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F39" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G39" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H39">
+        <v>503.26</v>
+      </c>
+      <c r="I39" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O39" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>550871</v>
+      </c>
+      <c r="B40" t="str">
+        <v>8782324187</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1893229</v>
+      </c>
+      <c r="D40" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E40" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F40" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G40" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H40">
+        <v>503.26</v>
+      </c>
+      <c r="I40" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O40" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>550872</v>
+      </c>
+      <c r="B41" t="str">
+        <v>8782324188</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1893230</v>
+      </c>
+      <c r="D41" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E41" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F41" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G41" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H41">
+        <v>503.26</v>
+      </c>
+      <c r="I41" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O41" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>550873</v>
+      </c>
+      <c r="B42" t="str">
+        <v>8782324189</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1893231</v>
+      </c>
+      <c r="D42" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E42" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F42" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G42" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H42">
+        <v>503.26</v>
+      </c>
+      <c r="I42" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O42" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>550874</v>
+      </c>
+      <c r="B43" t="str">
+        <v>8782324190</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1893232</v>
+      </c>
+      <c r="D43" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E43" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F43" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G43" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H43">
+        <v>503.26</v>
+      </c>
+      <c r="I43" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O43" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>560656</v>
+      </c>
+      <c r="B44" t="str">
+        <v>8782324069</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1893111</v>
+      </c>
+      <c r="D44" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E44" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F44" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G44" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H44">
+        <v>384.26</v>
+      </c>
+      <c r="I44" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J44" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K44" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L44" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M44" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N44" t="str">
+        <v>16:28</v>
+      </c>
+      <c r="O44" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>560656</v>
+      </c>
+      <c r="B45" t="str">
+        <v>8782324071</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1893113</v>
+      </c>
+      <c r="D45" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E45" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F45" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G45" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H45">
+        <v>384.26</v>
+      </c>
+      <c r="I45" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J45" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K45" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L45" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M45" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N45" t="str">
+        <v>16:28</v>
+      </c>
+      <c r="O45" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>560656</v>
+      </c>
+      <c r="B46" t="str">
+        <v>8782324068</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1893110</v>
+      </c>
+      <c r="D46" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E46" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F46" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G46" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H46">
+        <v>384.26</v>
+      </c>
+      <c r="I46" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J46" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K46" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L46" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M46" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N46" t="str">
+        <v>16:28</v>
+      </c>
+      <c r="O46" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>560656</v>
+      </c>
+      <c r="B47" t="str">
+        <v>8782324070</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1893112</v>
+      </c>
+      <c r="D47" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E47" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F47" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G47" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H47">
+        <v>384.26</v>
+      </c>
+      <c r="I47" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J47" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K47" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L47" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M47" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N47" t="str">
+        <v>16:28</v>
+      </c>
+      <c r="O47" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>560656</v>
+      </c>
+      <c r="B48" t="str">
+        <v>8782324067</v>
+      </c>
+      <c r="C48" t="str">
+        <v>1893109</v>
+      </c>
+      <c r="D48" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E48" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F48" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G48" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H48">
+        <v>384.26</v>
+      </c>
+      <c r="I48" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J48" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K48" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L48" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M48" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N48" t="str">
+        <v>16:28</v>
+      </c>
+      <c r="O48" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>560661</v>
+      </c>
+      <c r="B49" t="str">
+        <v>8782324072</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1893114</v>
+      </c>
+      <c r="D49" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E49" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F49" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G49" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H49">
+        <v>384.26</v>
+      </c>
+      <c r="I49" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J49" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K49" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L49" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M49" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N49" t="str">
+        <v>16:28</v>
+      </c>
+      <c r="O49" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>560662</v>
+      </c>
+      <c r="B50" t="str">
+        <v>8782324073</v>
+      </c>
+      <c r="C50" t="str">
+        <v>1893115</v>
+      </c>
+      <c r="D50" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E50" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F50" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G50" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H50">
+        <v>384.26</v>
+      </c>
+      <c r="I50" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O50" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>560663</v>
+      </c>
+      <c r="B51" t="str">
+        <v>8782324078</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1893120</v>
+      </c>
+      <c r="D51" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E51" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F51" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G51" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H51">
+        <v>384.26</v>
+      </c>
+      <c r="I51" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J51" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K51" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L51" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M51" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N51" t="str">
+        <v>17:01</v>
+      </c>
+      <c r="O51" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>560663</v>
+      </c>
+      <c r="B52" t="str">
+        <v>8782324079</v>
+      </c>
+      <c r="C52" t="str">
+        <v>1893121</v>
+      </c>
+      <c r="D52" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E52" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F52" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G52" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H52">
+        <v>384.26</v>
+      </c>
+      <c r="I52" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J52" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K52" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L52" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M52" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N52" t="str">
+        <v>17:01</v>
+      </c>
+      <c r="O52" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>560663</v>
+      </c>
+      <c r="B53" t="str">
+        <v>8782324080</v>
+      </c>
+      <c r="C53" t="str">
+        <v>1893122</v>
+      </c>
+      <c r="D53" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E53" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F53" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G53" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H53">
+        <v>384.26</v>
+      </c>
+      <c r="I53" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J53" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K53" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L53" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M53" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N53" t="str">
+        <v>17:01</v>
+      </c>
+      <c r="O53" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>560663</v>
+      </c>
+      <c r="B54" t="str">
+        <v>8782324075</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1893117</v>
+      </c>
+      <c r="D54" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E54" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F54" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G54" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H54">
+        <v>384.26</v>
+      </c>
+      <c r="I54" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J54" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K54" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L54" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M54" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N54" t="str">
+        <v>17:01</v>
+      </c>
+      <c r="O54" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>560663</v>
+      </c>
+      <c r="B55" t="str">
+        <v>8782324074</v>
+      </c>
+      <c r="C55" t="str">
+        <v>1893116</v>
+      </c>
+      <c r="D55" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E55" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F55" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G55" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H55">
+        <v>384.26</v>
+      </c>
+      <c r="I55" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J55" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K55" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L55" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M55" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N55" t="str">
+        <v>17:01</v>
+      </c>
+      <c r="O55" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>560663</v>
+      </c>
+      <c r="B56" t="str">
+        <v>8782324077</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1893119</v>
+      </c>
+      <c r="D56" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E56" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F56" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G56" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H56">
+        <v>384.26</v>
+      </c>
+      <c r="I56" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J56" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K56" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L56" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M56" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N56" t="str">
+        <v>17:01</v>
+      </c>
+      <c r="O56" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>560663</v>
+      </c>
+      <c r="B57" t="str">
+        <v>8782324076</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1893118</v>
+      </c>
+      <c r="D57" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E57" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F57" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G57" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H57">
+        <v>384.26</v>
+      </c>
+      <c r="I57" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J57" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K57" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L57" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M57" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N57" t="str">
+        <v>17:01</v>
+      </c>
+      <c r="O57" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>560663</v>
+      </c>
+      <c r="B58" t="str">
+        <v>8782324081</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1893123</v>
+      </c>
+      <c r="D58" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E58" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F58" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G58" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H58">
+        <v>384.26</v>
+      </c>
+      <c r="I58" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J58" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K58" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L58" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M58" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N58" t="str">
+        <v>17:01</v>
+      </c>
+      <c r="O58" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>560671</v>
+      </c>
+      <c r="B59" t="str">
+        <v>8782324082</v>
+      </c>
+      <c r="C59" t="str">
+        <v>1893124</v>
+      </c>
+      <c r="D59" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E59" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F59" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G59" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H59">
+        <v>384.26</v>
+      </c>
+      <c r="I59" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O59" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>560679</v>
+      </c>
+      <c r="B60" t="str">
+        <v>8782324083</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1893125</v>
+      </c>
+      <c r="D60" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E60" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F60" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G60" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H60">
+        <v>384.26</v>
+      </c>
+      <c r="I60" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J60" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K60" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L60" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M60" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N60" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="O60" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>560679</v>
+      </c>
+      <c r="B61" t="str">
+        <v>8782324087</v>
+      </c>
+      <c r="C61" t="str">
+        <v>1893129</v>
+      </c>
+      <c r="D61" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E61" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F61" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G61" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H61">
+        <v>384.26</v>
+      </c>
+      <c r="I61" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J61" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K61" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L61" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M61" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N61" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="O61" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>560679</v>
+      </c>
+      <c r="B62" t="str">
+        <v>8782324088</v>
+      </c>
+      <c r="C62" t="str">
+        <v>1893130</v>
+      </c>
+      <c r="D62" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E62" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F62" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G62" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H62">
+        <v>384.26</v>
+      </c>
+      <c r="I62" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J62" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K62" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L62" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M62" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N62" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="O62" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>560679</v>
+      </c>
+      <c r="B63" t="str">
+        <v>8782324089</v>
+      </c>
+      <c r="C63" t="str">
+        <v>1893131</v>
+      </c>
+      <c r="D63" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E63" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F63" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G63" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H63">
+        <v>384.26</v>
+      </c>
+      <c r="I63" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J63" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K63" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L63" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M63" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N63" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="O63" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>560679</v>
+      </c>
+      <c r="B64" t="str">
+        <v>8782324084</v>
+      </c>
+      <c r="C64" t="str">
+        <v>1893126</v>
+      </c>
+      <c r="D64" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E64" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F64" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G64" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H64">
+        <v>384.26</v>
+      </c>
+      <c r="I64" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J64" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K64" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L64" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M64" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N64" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="O64" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>560679</v>
+      </c>
+      <c r="B65" t="str">
+        <v>8782324085</v>
+      </c>
+      <c r="C65" t="str">
+        <v>1893127</v>
+      </c>
+      <c r="D65" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E65" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F65" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G65" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H65">
+        <v>384.26</v>
+      </c>
+      <c r="I65" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J65" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K65" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L65" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M65" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N65" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="O65" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>560679</v>
+      </c>
+      <c r="B66" t="str">
+        <v>8782324086</v>
+      </c>
+      <c r="C66" t="str">
+        <v>1893128</v>
+      </c>
+      <c r="D66" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E66" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F66" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G66" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H66">
+        <v>384.26</v>
+      </c>
+      <c r="I66" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J66" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K66" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L66" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M66" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N66" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="O66" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>560679</v>
+      </c>
+      <c r="B67" t="str">
+        <v>8782324090</v>
+      </c>
+      <c r="C67" t="str">
+        <v>1893132</v>
+      </c>
+      <c r="D67" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E67" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F67" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G67" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H67">
+        <v>384.26</v>
+      </c>
+      <c r="I67" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J67" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K67" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L67" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M67" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N67" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="O67" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>560680</v>
+      </c>
+      <c r="B68" t="str">
+        <v>8782324091</v>
+      </c>
+      <c r="C68" t="str">
+        <v>1893133</v>
+      </c>
+      <c r="D68" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E68" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F68" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G68" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H68">
+        <v>384.26</v>
+      </c>
+      <c r="I68" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O68" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>560681</v>
+      </c>
+      <c r="B69" t="str">
+        <v>8782324092</v>
+      </c>
+      <c r="C69" t="str">
+        <v>1893134</v>
+      </c>
+      <c r="D69" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E69" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F69" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G69" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H69">
+        <v>384.26</v>
+      </c>
+      <c r="I69" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O69" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>560689</v>
+      </c>
+      <c r="B70" t="str">
+        <v>8782324098</v>
+      </c>
+      <c r="C70" t="str">
+        <v>1893140</v>
+      </c>
+      <c r="D70" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E70" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F70" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G70" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H70">
+        <v>384.26</v>
+      </c>
+      <c r="I70" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J70" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K70" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L70" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M70" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N70" t="str">
+        <v>19:37</v>
+      </c>
+      <c r="O70" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>560689</v>
+      </c>
+      <c r="B71" t="str">
+        <v>8782324097</v>
+      </c>
+      <c r="C71" t="str">
+        <v>1893139</v>
+      </c>
+      <c r="D71" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E71" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F71" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G71" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H71">
+        <v>384.26</v>
+      </c>
+      <c r="I71" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J71" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K71" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L71" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M71" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N71" t="str">
+        <v>19:37</v>
+      </c>
+      <c r="O71" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>560689</v>
+      </c>
+      <c r="B72" t="str">
+        <v>8782324096</v>
+      </c>
+      <c r="C72" t="str">
+        <v>1893138</v>
+      </c>
+      <c r="D72" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E72" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F72" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G72" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H72">
+        <v>384.26</v>
+      </c>
+      <c r="I72" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J72" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K72" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L72" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M72" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N72" t="str">
+        <v>19:37</v>
+      </c>
+      <c r="O72" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>560689</v>
+      </c>
+      <c r="B73" t="str">
+        <v>8782324099</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1893141</v>
+      </c>
+      <c r="D73" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E73" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F73" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G73" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H73">
+        <v>384.26</v>
+      </c>
+      <c r="I73" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J73" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K73" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L73" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M73" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N73" t="str">
+        <v>19:37</v>
+      </c>
+      <c r="O73" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>560689</v>
+      </c>
+      <c r="B74" t="str">
+        <v>8782324100</v>
+      </c>
+      <c r="C74" t="str">
+        <v>1893142</v>
+      </c>
+      <c r="D74" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E74" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F74" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G74" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H74">
+        <v>384.26</v>
+      </c>
+      <c r="I74" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J74" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K74" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L74" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M74" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N74" t="str">
+        <v>19:37</v>
+      </c>
+      <c r="O74" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>560689</v>
+      </c>
+      <c r="B75" t="str">
+        <v>8782324095</v>
+      </c>
+      <c r="C75" t="str">
+        <v>1893137</v>
+      </c>
+      <c r="D75" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E75" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F75" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G75" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H75">
+        <v>384.26</v>
+      </c>
+      <c r="I75" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J75" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K75" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L75" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M75" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N75" t="str">
+        <v>19:37</v>
+      </c>
+      <c r="O75" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>560689</v>
+      </c>
+      <c r="B76" t="str">
+        <v>8782324094</v>
+      </c>
+      <c r="C76" t="str">
+        <v>1893136</v>
+      </c>
+      <c r="D76" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E76" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F76" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G76" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H76">
+        <v>384.26</v>
+      </c>
+      <c r="I76" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J76" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K76" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L76" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M76" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N76" t="str">
+        <v>19:37</v>
+      </c>
+      <c r="O76" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>560689</v>
+      </c>
+      <c r="B77" t="str">
+        <v>8782324093</v>
+      </c>
+      <c r="C77" t="str">
+        <v>1893135</v>
+      </c>
+      <c r="D77" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E77" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F77" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G77" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H77">
+        <v>384.26</v>
+      </c>
+      <c r="I77" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J77" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K77" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L77" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M77" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N77" t="str">
+        <v>19:37</v>
+      </c>
+      <c r="O77" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>560690</v>
+      </c>
+      <c r="B78" t="str">
+        <v>8782324101</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1893143</v>
+      </c>
+      <c r="D78" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E78" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F78" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G78" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H78">
+        <v>384.26</v>
+      </c>
+      <c r="I78" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J78" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K78" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L78" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M78" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N78" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="O78" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>560691</v>
+      </c>
+      <c r="B79" t="str">
+        <v>8782324102</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1893144</v>
+      </c>
+      <c r="D79" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E79" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F79" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G79" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H79">
+        <v>384.26</v>
+      </c>
+      <c r="I79" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J79" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K79" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L79" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M79" t="str">
+        <v>27/05/2025</v>
+      </c>
+      <c r="N79" t="str">
+        <v>13:37</v>
+      </c>
+      <c r="O79" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>560698</v>
+      </c>
+      <c r="B80" t="str">
+        <v>8782324104</v>
+      </c>
+      <c r="C80" t="str">
+        <v>1893146</v>
+      </c>
+      <c r="D80" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E80" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F80" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G80" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H80">
+        <v>384.26</v>
+      </c>
+      <c r="I80" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J80" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K80" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L80" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M80" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N80" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="O80" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>560698</v>
+      </c>
+      <c r="B81" t="str">
+        <v>8782324106</v>
+      </c>
+      <c r="C81" t="str">
+        <v>1893148</v>
+      </c>
+      <c r="D81" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E81" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F81" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G81" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H81">
+        <v>384.26</v>
+      </c>
+      <c r="I81" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J81" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K81" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L81" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M81" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N81" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="O81" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>560698</v>
+      </c>
+      <c r="B82" t="str">
+        <v>8782324103</v>
+      </c>
+      <c r="C82" t="str">
+        <v>1893145</v>
+      </c>
+      <c r="D82" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E82" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F82" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G82" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H82">
+        <v>384.26</v>
+      </c>
+      <c r="I82" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J82" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K82" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L82" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M82" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N82" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="O82" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>560698</v>
+      </c>
+      <c r="B83" t="str">
+        <v>8782324105</v>
+      </c>
+      <c r="C83" t="str">
+        <v>1893147</v>
+      </c>
+      <c r="D83" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E83" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F83" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G83" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H83">
+        <v>384.26</v>
+      </c>
+      <c r="I83" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="O83" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>560698</v>
+      </c>
+      <c r="B84" t="str">
+        <v>8782324107</v>
+      </c>
+      <c r="C84" t="str">
+        <v>1893149</v>
+      </c>
+      <c r="D84" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E84" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F84" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G84" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H84">
+        <v>384.26</v>
+      </c>
+      <c r="I84" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J84" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K84" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L84" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M84" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N84" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="O84" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>560698</v>
+      </c>
+      <c r="B85" t="str">
+        <v>8782324109</v>
+      </c>
+      <c r="C85" t="str">
+        <v>1893151</v>
+      </c>
+      <c r="D85" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E85" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F85" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G85" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H85">
+        <v>384.26</v>
+      </c>
+      <c r="I85" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J85" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K85" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L85" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M85" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N85" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="O85" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>560698</v>
+      </c>
+      <c r="B86" t="str">
+        <v>8782324108</v>
+      </c>
+      <c r="C86" t="str">
+        <v>1893150</v>
+      </c>
+      <c r="D86" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="E86" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="F86" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="G86" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="H86">
+        <v>384.26</v>
+      </c>
+      <c r="I86" t="str">
+        <v>OSP</v>
+      </c>
+      <c r="J86" t="str">
+        <v>CARLOS SILVA</v>
+      </c>
+      <c r="K86" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="L86" t="str">
+        <v>25705221045</v>
+      </c>
+      <c r="M86" t="str">
+        <v>26/05/2025</v>
+      </c>
+      <c r="N86" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="O86" t="str">
         <v>Expedido</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O86"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/lista.xlsx
+++ b/lista.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,45 +436,187 @@
       <c r="K1" t="str">
         <v>Categoria</v>
       </c>
+      <c r="L1" t="str">
+        <v>Nome</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Transporte</v>
+      </c>
+      <c r="N1" t="str">
+        <v>CPF</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Data Expedição</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Hora Expedição</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Status</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>517623</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>87532512145</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>175885</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>31/05/2025</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>R2 RECIFE</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>RECIFE</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>PE</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>ASDASD</v>
       </c>
       <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v/>
+        <v>ASDASD</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="L2" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="M2" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N2" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="O2" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="P2" t="str">
+        <v>10:40</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>517624</v>
+      </c>
+      <c r="B3" t="str">
+        <v>87532512146</v>
+      </c>
+      <c r="C3" t="str">
+        <v>175886</v>
+      </c>
+      <c r="D3" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E3" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F3" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G3" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H3" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I3" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="str">
+        <v>FERRAMENTAL</v>
+      </c>
+      <c r="L3" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="M3" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N3" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="O3" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="P3" t="str">
+        <v>10:40</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>517625</v>
+      </c>
+      <c r="B4" t="str">
+        <v>87532512147</v>
+      </c>
+      <c r="C4" t="str">
+        <v>175887</v>
+      </c>
+      <c r="D4" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E4" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F4" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G4" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H4" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I4" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L4" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="M4" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N4" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="O4" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="P4" t="str">
+        <v>10:40</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>Expedido</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/lista.xlsx
+++ b/lista.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,9 +614,6286 @@
         <v>Expedido</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>527623</v>
+      </c>
+      <c r="B5" t="str">
+        <v>87533512145</v>
+      </c>
+      <c r="C5" t="str">
+        <v>175985</v>
+      </c>
+      <c r="D5" t="str">
+        <v>29/05/2025</v>
+      </c>
+      <c r="E5" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F5" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G5" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H5" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I5" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="L5" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="M5" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N5" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="O5" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="P5" t="str">
+        <v>11:21</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>527624</v>
+      </c>
+      <c r="B6" t="str">
+        <v>87533512146</v>
+      </c>
+      <c r="C6" t="str">
+        <v>175986</v>
+      </c>
+      <c r="D6" t="str">
+        <v>29/05/2025</v>
+      </c>
+      <c r="E6" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F6" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G6" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H6" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I6" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
+        <v>FERRAMENTAL</v>
+      </c>
+      <c r="L6" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="M6" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N6" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="O6" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="P6" t="str">
+        <v>11:21</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>527625</v>
+      </c>
+      <c r="B7" t="str">
+        <v>87533512147</v>
+      </c>
+      <c r="C7" t="str">
+        <v>175987</v>
+      </c>
+      <c r="D7" t="str">
+        <v>29/05/2025</v>
+      </c>
+      <c r="E7" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F7" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G7" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H7" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I7" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L7" t="str">
+        <v>EDUARDO PEDRO</v>
+      </c>
+      <c r="M7" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N7" t="str">
+        <v>09276813403</v>
+      </c>
+      <c r="O7" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="P7" t="str">
+        <v>11:21</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>528623</v>
+      </c>
+      <c r="B8" t="str">
+        <v>87534512145</v>
+      </c>
+      <c r="C8" t="str">
+        <v>176985</v>
+      </c>
+      <c r="D8" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E8" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F8" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G8" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H8" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I8" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>528623</v>
+      </c>
+      <c r="B9" t="str">
+        <v>87534512148</v>
+      </c>
+      <c r="C9" t="str">
+        <v>176988</v>
+      </c>
+      <c r="D9" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E9" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F9" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G9" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H9" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I9" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>528623</v>
+      </c>
+      <c r="B10" t="str">
+        <v>87534512149</v>
+      </c>
+      <c r="C10" t="str">
+        <v>176989</v>
+      </c>
+      <c r="D10" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E10" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F10" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G10" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H10" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I10" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>528623</v>
+      </c>
+      <c r="B11" t="str">
+        <v>87534512146</v>
+      </c>
+      <c r="C11" t="str">
+        <v>176986</v>
+      </c>
+      <c r="D11" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E11" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F11" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G11" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H11" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I11" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="str">
+        <v>FERRAMENTAL</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>528623</v>
+      </c>
+      <c r="B12" t="str">
+        <v>87534512147</v>
+      </c>
+      <c r="C12" t="str">
+        <v>176987</v>
+      </c>
+      <c r="D12" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E12" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F12" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G12" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H12" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I12" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>529623</v>
+      </c>
+      <c r="B13" t="str">
+        <v>87544512145</v>
+      </c>
+      <c r="C13" t="str">
+        <v>177985</v>
+      </c>
+      <c r="D13" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E13" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F13" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G13" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H13" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I13" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>529624</v>
+      </c>
+      <c r="B14" t="str">
+        <v>87544512146</v>
+      </c>
+      <c r="C14" t="str">
+        <v>177986</v>
+      </c>
+      <c r="D14" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E14" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F14" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G14" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H14" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I14" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="str">
+        <v>FERRAMENTAL</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>529625</v>
+      </c>
+      <c r="B15" t="str">
+        <v>87544512147</v>
+      </c>
+      <c r="C15" t="str">
+        <v>177987</v>
+      </c>
+      <c r="D15" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E15" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F15" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G15" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H15" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I15" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>529626</v>
+      </c>
+      <c r="B16" t="str">
+        <v>87544512148</v>
+      </c>
+      <c r="C16" t="str">
+        <v>177988</v>
+      </c>
+      <c r="D16" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E16" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F16" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G16" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H16" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I16" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>529627</v>
+      </c>
+      <c r="B17" t="str">
+        <v>87544512149</v>
+      </c>
+      <c r="C17" t="str">
+        <v>177989</v>
+      </c>
+      <c r="D17" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E17" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F17" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G17" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H17" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I17" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>529628</v>
+      </c>
+      <c r="B18" t="str">
+        <v>87544512150</v>
+      </c>
+      <c r="C18" t="str">
+        <v>177990</v>
+      </c>
+      <c r="D18" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E18" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F18" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G18" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H18" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I18" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>529629</v>
+      </c>
+      <c r="B19" t="str">
+        <v>87544512151</v>
+      </c>
+      <c r="C19" t="str">
+        <v>177991</v>
+      </c>
+      <c r="D19" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E19" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F19" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G19" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H19" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I19" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B20" t="str">
+        <v>87544512183</v>
+      </c>
+      <c r="C20" t="str">
+        <v>178023</v>
+      </c>
+      <c r="D20" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E20" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F20" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G20" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H20" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I20" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B21" t="str">
+        <v>87544512184</v>
+      </c>
+      <c r="C21" t="str">
+        <v>178024</v>
+      </c>
+      <c r="D21" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E21" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F21" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G21" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H21" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I21" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B22" t="str">
+        <v>87544512185</v>
+      </c>
+      <c r="C22" t="str">
+        <v>178025</v>
+      </c>
+      <c r="D22" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E22" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F22" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G22" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H22" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I22" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B23" t="str">
+        <v>87544512186</v>
+      </c>
+      <c r="C23" t="str">
+        <v>178026</v>
+      </c>
+      <c r="D23" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E23" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F23" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G23" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H23" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I23" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B24" t="str">
+        <v>87544512187</v>
+      </c>
+      <c r="C24" t="str">
+        <v>178027</v>
+      </c>
+      <c r="D24" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E24" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F24" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G24" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H24" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I24" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B25" t="str">
+        <v>87544512188</v>
+      </c>
+      <c r="C25" t="str">
+        <v>178028</v>
+      </c>
+      <c r="D25" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E25" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F25" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G25" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H25" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I25" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B26" t="str">
+        <v>87544512189</v>
+      </c>
+      <c r="C26" t="str">
+        <v>178029</v>
+      </c>
+      <c r="D26" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E26" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F26" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G26" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H26" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I26" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B27" t="str">
+        <v>87544512190</v>
+      </c>
+      <c r="C27" t="str">
+        <v>178030</v>
+      </c>
+      <c r="D27" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E27" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F27" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G27" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H27" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I27" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B28" t="str">
+        <v>87544512191</v>
+      </c>
+      <c r="C28" t="str">
+        <v>178031</v>
+      </c>
+      <c r="D28" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E28" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F28" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G28" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H28" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I28" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B29" t="str">
+        <v>87544512192</v>
+      </c>
+      <c r="C29" t="str">
+        <v>178032</v>
+      </c>
+      <c r="D29" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E29" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F29" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G29" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H29" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I29" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B30" t="str">
+        <v>87544512193</v>
+      </c>
+      <c r="C30" t="str">
+        <v>178033</v>
+      </c>
+      <c r="D30" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E30" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F30" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G30" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H30" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I30" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B31" t="str">
+        <v>87544512194</v>
+      </c>
+      <c r="C31" t="str">
+        <v>178034</v>
+      </c>
+      <c r="D31" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E31" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F31" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G31" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H31" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I31" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B32" t="str">
+        <v>87544512195</v>
+      </c>
+      <c r="C32" t="str">
+        <v>178035</v>
+      </c>
+      <c r="D32" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E32" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F32" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G32" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H32" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I32" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B33" t="str">
+        <v>87544512196</v>
+      </c>
+      <c r="C33" t="str">
+        <v>178036</v>
+      </c>
+      <c r="D33" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E33" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F33" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G33" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H33" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I33" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B34" t="str">
+        <v>87544512197</v>
+      </c>
+      <c r="C34" t="str">
+        <v>178037</v>
+      </c>
+      <c r="D34" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E34" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F34" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G34" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H34" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I34" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B35" t="str">
+        <v>87544512198</v>
+      </c>
+      <c r="C35" t="str">
+        <v>178038</v>
+      </c>
+      <c r="D35" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E35" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F35" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G35" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H35" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I35" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B36" t="str">
+        <v>87544512199</v>
+      </c>
+      <c r="C36" t="str">
+        <v>178039</v>
+      </c>
+      <c r="D36" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E36" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F36" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G36" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H36" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I36" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B37" t="str">
+        <v>87544512200</v>
+      </c>
+      <c r="C37" t="str">
+        <v>178040</v>
+      </c>
+      <c r="D37" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E37" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F37" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G37" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H37" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I37" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B38" t="str">
+        <v>87544512201</v>
+      </c>
+      <c r="C38" t="str">
+        <v>178041</v>
+      </c>
+      <c r="D38" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E38" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F38" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G38" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H38" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I38" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B39" t="str">
+        <v>87544512202</v>
+      </c>
+      <c r="C39" t="str">
+        <v>178042</v>
+      </c>
+      <c r="D39" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E39" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F39" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G39" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H39" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I39" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B40" t="str">
+        <v>87544512203</v>
+      </c>
+      <c r="C40" t="str">
+        <v>178043</v>
+      </c>
+      <c r="D40" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E40" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F40" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G40" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H40" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I40" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B41" t="str">
+        <v>87544512204</v>
+      </c>
+      <c r="C41" t="str">
+        <v>178044</v>
+      </c>
+      <c r="D41" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E41" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F41" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G41" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H41" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I41" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B42" t="str">
+        <v>87544512205</v>
+      </c>
+      <c r="C42" t="str">
+        <v>178045</v>
+      </c>
+      <c r="D42" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E42" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F42" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G42" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H42" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I42" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B43" t="str">
+        <v>87544512206</v>
+      </c>
+      <c r="C43" t="str">
+        <v>178046</v>
+      </c>
+      <c r="D43" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E43" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F43" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G43" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H43" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I43" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B44" t="str">
+        <v>87544512207</v>
+      </c>
+      <c r="C44" t="str">
+        <v>178047</v>
+      </c>
+      <c r="D44" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E44" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F44" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G44" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H44" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I44" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B45" t="str">
+        <v>87544512208</v>
+      </c>
+      <c r="C45" t="str">
+        <v>178048</v>
+      </c>
+      <c r="D45" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E45" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F45" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G45" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H45" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I45" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B46" t="str">
+        <v>87544512209</v>
+      </c>
+      <c r="C46" t="str">
+        <v>178049</v>
+      </c>
+      <c r="D46" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E46" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F46" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G46" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H46" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I46" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B47" t="str">
+        <v>87544512210</v>
+      </c>
+      <c r="C47" t="str">
+        <v>178050</v>
+      </c>
+      <c r="D47" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E47" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F47" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G47" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H47" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I47" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B48" t="str">
+        <v>87544512211</v>
+      </c>
+      <c r="C48" t="str">
+        <v>178051</v>
+      </c>
+      <c r="D48" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E48" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F48" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G48" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H48" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I48" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B49" t="str">
+        <v>87544512212</v>
+      </c>
+      <c r="C49" t="str">
+        <v>178052</v>
+      </c>
+      <c r="D49" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E49" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F49" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G49" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H49" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I49" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B50" t="str">
+        <v>87544512213</v>
+      </c>
+      <c r="C50" t="str">
+        <v>178053</v>
+      </c>
+      <c r="D50" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E50" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F50" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G50" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H50" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I50" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B51" t="str">
+        <v>87544512214</v>
+      </c>
+      <c r="C51" t="str">
+        <v>178054</v>
+      </c>
+      <c r="D51" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E51" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F51" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G51" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H51" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I51" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B52" t="str">
+        <v>87544512215</v>
+      </c>
+      <c r="C52" t="str">
+        <v>178055</v>
+      </c>
+      <c r="D52" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E52" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F52" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G52" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H52" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I52" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B53" t="str">
+        <v>87544512216</v>
+      </c>
+      <c r="C53" t="str">
+        <v>178056</v>
+      </c>
+      <c r="D53" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E53" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F53" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G53" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H53" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I53" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B54" t="str">
+        <v>87544512217</v>
+      </c>
+      <c r="C54" t="str">
+        <v>178057</v>
+      </c>
+      <c r="D54" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E54" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F54" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G54" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H54" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I54" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B55" t="str">
+        <v>87544512218</v>
+      </c>
+      <c r="C55" t="str">
+        <v>178058</v>
+      </c>
+      <c r="D55" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E55" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F55" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G55" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H55" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I55" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B56" t="str">
+        <v>87544512219</v>
+      </c>
+      <c r="C56" t="str">
+        <v>178059</v>
+      </c>
+      <c r="D56" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E56" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F56" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G56" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H56" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I56" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B57" t="str">
+        <v>87544512220</v>
+      </c>
+      <c r="C57" t="str">
+        <v>178060</v>
+      </c>
+      <c r="D57" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E57" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F57" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G57" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H57" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I57" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B58" t="str">
+        <v>87544512221</v>
+      </c>
+      <c r="C58" t="str">
+        <v>178061</v>
+      </c>
+      <c r="D58" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E58" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F58" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G58" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H58" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I58" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B59" t="str">
+        <v>87544512222</v>
+      </c>
+      <c r="C59" t="str">
+        <v>178062</v>
+      </c>
+      <c r="D59" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E59" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F59" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G59" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H59" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I59" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B60" t="str">
+        <v>87544512223</v>
+      </c>
+      <c r="C60" t="str">
+        <v>178063</v>
+      </c>
+      <c r="D60" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E60" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F60" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G60" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H60" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I60" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B61" t="str">
+        <v>87544512224</v>
+      </c>
+      <c r="C61" t="str">
+        <v>178064</v>
+      </c>
+      <c r="D61" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E61" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F61" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G61" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H61" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I61" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B62" t="str">
+        <v>87544512225</v>
+      </c>
+      <c r="C62" t="str">
+        <v>178065</v>
+      </c>
+      <c r="D62" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E62" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F62" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G62" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H62" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I62" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B63" t="str">
+        <v>87544512226</v>
+      </c>
+      <c r="C63" t="str">
+        <v>178066</v>
+      </c>
+      <c r="D63" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E63" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F63" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G63" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H63" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I63" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B64" t="str">
+        <v>87544512227</v>
+      </c>
+      <c r="C64" t="str">
+        <v>178067</v>
+      </c>
+      <c r="D64" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E64" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F64" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G64" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H64" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I64" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B65" t="str">
+        <v>87544512228</v>
+      </c>
+      <c r="C65" t="str">
+        <v>178068</v>
+      </c>
+      <c r="D65" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E65" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F65" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G65" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H65" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I65" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B66" t="str">
+        <v>87544512229</v>
+      </c>
+      <c r="C66" t="str">
+        <v>178069</v>
+      </c>
+      <c r="D66" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E66" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F66" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G66" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H66" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I66" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B67" t="str">
+        <v>87544512230</v>
+      </c>
+      <c r="C67" t="str">
+        <v>178070</v>
+      </c>
+      <c r="D67" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E67" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F67" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G67" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H67" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I67" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B68" t="str">
+        <v>87544512231</v>
+      </c>
+      <c r="C68" t="str">
+        <v>178071</v>
+      </c>
+      <c r="D68" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E68" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F68" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G68" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H68" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I68" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B69" t="str">
+        <v>87544512232</v>
+      </c>
+      <c r="C69" t="str">
+        <v>178072</v>
+      </c>
+      <c r="D69" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E69" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F69" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G69" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H69" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I69" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B70" t="str">
+        <v>87544512233</v>
+      </c>
+      <c r="C70" t="str">
+        <v>178073</v>
+      </c>
+      <c r="D70" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E70" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F70" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G70" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H70" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I70" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B71" t="str">
+        <v>87544512234</v>
+      </c>
+      <c r="C71" t="str">
+        <v>178074</v>
+      </c>
+      <c r="D71" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E71" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F71" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G71" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H71" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I71" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B72" t="str">
+        <v>87544512235</v>
+      </c>
+      <c r="C72" t="str">
+        <v>178075</v>
+      </c>
+      <c r="D72" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E72" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F72" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G72" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H72" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I72" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B73" t="str">
+        <v>87544512236</v>
+      </c>
+      <c r="C73" t="str">
+        <v>178076</v>
+      </c>
+      <c r="D73" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E73" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F73" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G73" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H73" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I73" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B74" t="str">
+        <v>87544512237</v>
+      </c>
+      <c r="C74" t="str">
+        <v>178077</v>
+      </c>
+      <c r="D74" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E74" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F74" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G74" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H74" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I74" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B75" t="str">
+        <v>87544512238</v>
+      </c>
+      <c r="C75" t="str">
+        <v>178078</v>
+      </c>
+      <c r="D75" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E75" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F75" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G75" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H75" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I75" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q75" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B76" t="str">
+        <v>87544512239</v>
+      </c>
+      <c r="C76" t="str">
+        <v>178079</v>
+      </c>
+      <c r="D76" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E76" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F76" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G76" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H76" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I76" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q76" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B77" t="str">
+        <v>87544512240</v>
+      </c>
+      <c r="C77" t="str">
+        <v>178080</v>
+      </c>
+      <c r="D77" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E77" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F77" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G77" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H77" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I77" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B78" t="str">
+        <v>87544512241</v>
+      </c>
+      <c r="C78" t="str">
+        <v>178081</v>
+      </c>
+      <c r="D78" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E78" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F78" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G78" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H78" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I78" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B79" t="str">
+        <v>87544512242</v>
+      </c>
+      <c r="C79" t="str">
+        <v>178082</v>
+      </c>
+      <c r="D79" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E79" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F79" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G79" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H79" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I79" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q79" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B80" t="str">
+        <v>87544512243</v>
+      </c>
+      <c r="C80" t="str">
+        <v>178083</v>
+      </c>
+      <c r="D80" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E80" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F80" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G80" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H80" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I80" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q80" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B81" t="str">
+        <v>87544512244</v>
+      </c>
+      <c r="C81" t="str">
+        <v>178084</v>
+      </c>
+      <c r="D81" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E81" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F81" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G81" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H81" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I81" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q81" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B82" t="str">
+        <v>87544512245</v>
+      </c>
+      <c r="C82" t="str">
+        <v>178085</v>
+      </c>
+      <c r="D82" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E82" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F82" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G82" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H82" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I82" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q82" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B83" t="str">
+        <v>87544512246</v>
+      </c>
+      <c r="C83" t="str">
+        <v>178086</v>
+      </c>
+      <c r="D83" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E83" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F83" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G83" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H83" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I83" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B84" t="str">
+        <v>87544512247</v>
+      </c>
+      <c r="C84" t="str">
+        <v>178087</v>
+      </c>
+      <c r="D84" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E84" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F84" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G84" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H84" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I84" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B85" t="str">
+        <v>87544512248</v>
+      </c>
+      <c r="C85" t="str">
+        <v>178088</v>
+      </c>
+      <c r="D85" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E85" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F85" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G85" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H85" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I85" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B86" t="str">
+        <v>87544512249</v>
+      </c>
+      <c r="C86" t="str">
+        <v>178089</v>
+      </c>
+      <c r="D86" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E86" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F86" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G86" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H86" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I86" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B87" t="str">
+        <v>87544512250</v>
+      </c>
+      <c r="C87" t="str">
+        <v>178090</v>
+      </c>
+      <c r="D87" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E87" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F87" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G87" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H87" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I87" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B88" t="str">
+        <v>87544512251</v>
+      </c>
+      <c r="C88" t="str">
+        <v>178091</v>
+      </c>
+      <c r="D88" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E88" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F88" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G88" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H88" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I88" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B89" t="str">
+        <v>87544512252</v>
+      </c>
+      <c r="C89" t="str">
+        <v>178092</v>
+      </c>
+      <c r="D89" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E89" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F89" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G89" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H89" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I89" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B90" t="str">
+        <v>87544512253</v>
+      </c>
+      <c r="C90" t="str">
+        <v>178093</v>
+      </c>
+      <c r="D90" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E90" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F90" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G90" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H90" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I90" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B91" t="str">
+        <v>87544512254</v>
+      </c>
+      <c r="C91" t="str">
+        <v>178094</v>
+      </c>
+      <c r="D91" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E91" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F91" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G91" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H91" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I91" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B92" t="str">
+        <v>87544512255</v>
+      </c>
+      <c r="C92" t="str">
+        <v>178095</v>
+      </c>
+      <c r="D92" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E92" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F92" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G92" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H92" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I92" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B93" t="str">
+        <v>87544512256</v>
+      </c>
+      <c r="C93" t="str">
+        <v>178096</v>
+      </c>
+      <c r="D93" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E93" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F93" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G93" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H93" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I93" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q93" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B94" t="str">
+        <v>87544512257</v>
+      </c>
+      <c r="C94" t="str">
+        <v>178097</v>
+      </c>
+      <c r="D94" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E94" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F94" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G94" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H94" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I94" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q94" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B95" t="str">
+        <v>87544512258</v>
+      </c>
+      <c r="C95" t="str">
+        <v>178098</v>
+      </c>
+      <c r="D95" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E95" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F95" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G95" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H95" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I95" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q95" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B96" t="str">
+        <v>87544512259</v>
+      </c>
+      <c r="C96" t="str">
+        <v>178099</v>
+      </c>
+      <c r="D96" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E96" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F96" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G96" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H96" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I96" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q96" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B97" t="str">
+        <v>87544512260</v>
+      </c>
+      <c r="C97" t="str">
+        <v>178100</v>
+      </c>
+      <c r="D97" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E97" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F97" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G97" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H97" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I97" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q97" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B98" t="str">
+        <v>87544512261</v>
+      </c>
+      <c r="C98" t="str">
+        <v>178101</v>
+      </c>
+      <c r="D98" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E98" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F98" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G98" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H98" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I98" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q98" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B99" t="str">
+        <v>87544512262</v>
+      </c>
+      <c r="C99" t="str">
+        <v>178102</v>
+      </c>
+      <c r="D99" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E99" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F99" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G99" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H99" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I99" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q99" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B100" t="str">
+        <v>87544512263</v>
+      </c>
+      <c r="C100" t="str">
+        <v>178103</v>
+      </c>
+      <c r="D100" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E100" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F100" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G100" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H100" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I100" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q100" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B101" t="str">
+        <v>87544512264</v>
+      </c>
+      <c r="C101" t="str">
+        <v>178104</v>
+      </c>
+      <c r="D101" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E101" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F101" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G101" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H101" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I101" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q101" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B102" t="str">
+        <v>87544512265</v>
+      </c>
+      <c r="C102" t="str">
+        <v>178105</v>
+      </c>
+      <c r="D102" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E102" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F102" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G102" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H102" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I102" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q102" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B103" t="str">
+        <v>87544512266</v>
+      </c>
+      <c r="C103" t="str">
+        <v>178106</v>
+      </c>
+      <c r="D103" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E103" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F103" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G103" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H103" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I103" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q103" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B104" t="str">
+        <v>87544512267</v>
+      </c>
+      <c r="C104" t="str">
+        <v>178107</v>
+      </c>
+      <c r="D104" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E104" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F104" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G104" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H104" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I104" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q104" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B105" t="str">
+        <v>87544512276</v>
+      </c>
+      <c r="C105" t="str">
+        <v>178116</v>
+      </c>
+      <c r="D105" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E105" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F105" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G105" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H105" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I105" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q105" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B106" t="str">
+        <v>87544512277</v>
+      </c>
+      <c r="C106" t="str">
+        <v>178117</v>
+      </c>
+      <c r="D106" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E106" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F106" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G106" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H106" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I106" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q106" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B107" t="str">
+        <v>87544512278</v>
+      </c>
+      <c r="C107" t="str">
+        <v>178118</v>
+      </c>
+      <c r="D107" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E107" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F107" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G107" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H107" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I107" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q107" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B108" t="str">
+        <v>87544512279</v>
+      </c>
+      <c r="C108" t="str">
+        <v>178119</v>
+      </c>
+      <c r="D108" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E108" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F108" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G108" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H108" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I108" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q108" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B109" t="str">
+        <v>87544512280</v>
+      </c>
+      <c r="C109" t="str">
+        <v>178120</v>
+      </c>
+      <c r="D109" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E109" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F109" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G109" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H109" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I109" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q109" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B110" t="str">
+        <v>87544512281</v>
+      </c>
+      <c r="C110" t="str">
+        <v>178121</v>
+      </c>
+      <c r="D110" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E110" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F110" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G110" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H110" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I110" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q110" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B111" t="str">
+        <v>87544512282</v>
+      </c>
+      <c r="C111" t="str">
+        <v>178122</v>
+      </c>
+      <c r="D111" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E111" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F111" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G111" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H111" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I111" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q111" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B112" t="str">
+        <v>87544512283</v>
+      </c>
+      <c r="C112" t="str">
+        <v>178123</v>
+      </c>
+      <c r="D112" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E112" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F112" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G112" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H112" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I112" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q112" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B113" t="str">
+        <v>87544512284</v>
+      </c>
+      <c r="C113" t="str">
+        <v>178124</v>
+      </c>
+      <c r="D113" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E113" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F113" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G113" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H113" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I113" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q113" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B114" t="str">
+        <v>87544512285</v>
+      </c>
+      <c r="C114" t="str">
+        <v>178125</v>
+      </c>
+      <c r="D114" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E114" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F114" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G114" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H114" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I114" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q114" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B115" t="str">
+        <v>87544512286</v>
+      </c>
+      <c r="C115" t="str">
+        <v>178126</v>
+      </c>
+      <c r="D115" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E115" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F115" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G115" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H115" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I115" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q115" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B116" t="str">
+        <v>87544512287</v>
+      </c>
+      <c r="C116" t="str">
+        <v>178127</v>
+      </c>
+      <c r="D116" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E116" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F116" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G116" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H116" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I116" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q116" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B117" t="str">
+        <v>87544512288</v>
+      </c>
+      <c r="C117" t="str">
+        <v>178128</v>
+      </c>
+      <c r="D117" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E117" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F117" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G117" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H117" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I117" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q117" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B118" t="str">
+        <v>87544512289</v>
+      </c>
+      <c r="C118" t="str">
+        <v>178129</v>
+      </c>
+      <c r="D118" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E118" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F118" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G118" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H118" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I118" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q118" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B119" t="str">
+        <v>87544512290</v>
+      </c>
+      <c r="C119" t="str">
+        <v>178130</v>
+      </c>
+      <c r="D119" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E119" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F119" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G119" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H119" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I119" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q119" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B120" t="str">
+        <v>87544512291</v>
+      </c>
+      <c r="C120" t="str">
+        <v>178131</v>
+      </c>
+      <c r="D120" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E120" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F120" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G120" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H120" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I120" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q120" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B121" t="str">
+        <v>87544512292</v>
+      </c>
+      <c r="C121" t="str">
+        <v>178132</v>
+      </c>
+      <c r="D121" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E121" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F121" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G121" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H121" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I121" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q121" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B122" t="str">
+        <v>87544512293</v>
+      </c>
+      <c r="C122" t="str">
+        <v>178133</v>
+      </c>
+      <c r="D122" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E122" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F122" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G122" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H122" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I122" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q122" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B123" t="str">
+        <v>87544512294</v>
+      </c>
+      <c r="C123" t="str">
+        <v>178134</v>
+      </c>
+      <c r="D123" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E123" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F123" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G123" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H123" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I123" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q123" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B124" t="str">
+        <v>87544512295</v>
+      </c>
+      <c r="C124" t="str">
+        <v>178135</v>
+      </c>
+      <c r="D124" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E124" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F124" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G124" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H124" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I124" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q124" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B125" t="str">
+        <v>87544512296</v>
+      </c>
+      <c r="C125" t="str">
+        <v>178136</v>
+      </c>
+      <c r="D125" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E125" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F125" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G125" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H125" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I125" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q125" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B126" t="str">
+        <v>87544512297</v>
+      </c>
+      <c r="C126" t="str">
+        <v>178137</v>
+      </c>
+      <c r="D126" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E126" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F126" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G126" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H126" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I126" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q126" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B127" t="str">
+        <v>87544512298</v>
+      </c>
+      <c r="C127" t="str">
+        <v>178138</v>
+      </c>
+      <c r="D127" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E127" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F127" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G127" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H127" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I127" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q127" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B128" t="str">
+        <v>87544512299</v>
+      </c>
+      <c r="C128" t="str">
+        <v>178139</v>
+      </c>
+      <c r="D128" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E128" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F128" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G128" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H128" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I128" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q128" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B129" t="str">
+        <v>87544512300</v>
+      </c>
+      <c r="C129" t="str">
+        <v>178140</v>
+      </c>
+      <c r="D129" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E129" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F129" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G129" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H129" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I129" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q129" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B130" t="str">
+        <v>87544512159</v>
+      </c>
+      <c r="C130" t="str">
+        <v>177999</v>
+      </c>
+      <c r="D130" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E130" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F130" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G130" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H130" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I130" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q130" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B131" t="str">
+        <v>87544512160</v>
+      </c>
+      <c r="C131" t="str">
+        <v>178000</v>
+      </c>
+      <c r="D131" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E131" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F131" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G131" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H131" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I131" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q131" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B132" t="str">
+        <v>87544512161</v>
+      </c>
+      <c r="C132" t="str">
+        <v>178001</v>
+      </c>
+      <c r="D132" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E132" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F132" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G132" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H132" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I132" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q132" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B133" t="str">
+        <v>87544512162</v>
+      </c>
+      <c r="C133" t="str">
+        <v>178002</v>
+      </c>
+      <c r="D133" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E133" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F133" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G133" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H133" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I133" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q133" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B134" t="str">
+        <v>87544512163</v>
+      </c>
+      <c r="C134" t="str">
+        <v>178003</v>
+      </c>
+      <c r="D134" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E134" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F134" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G134" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H134" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I134" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q134" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B135" t="str">
+        <v>87544512164</v>
+      </c>
+      <c r="C135" t="str">
+        <v>178004</v>
+      </c>
+      <c r="D135" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E135" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F135" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G135" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H135" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I135" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q135" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B136" t="str">
+        <v>87544512165</v>
+      </c>
+      <c r="C136" t="str">
+        <v>178005</v>
+      </c>
+      <c r="D136" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E136" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F136" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G136" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H136" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I136" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q136" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B137" t="str">
+        <v>87544512166</v>
+      </c>
+      <c r="C137" t="str">
+        <v>178006</v>
+      </c>
+      <c r="D137" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E137" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F137" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G137" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H137" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I137" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q137" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B138" t="str">
+        <v>87544512167</v>
+      </c>
+      <c r="C138" t="str">
+        <v>178007</v>
+      </c>
+      <c r="D138" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E138" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F138" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G138" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H138" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I138" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q138" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B139" t="str">
+        <v>87544512168</v>
+      </c>
+      <c r="C139" t="str">
+        <v>178008</v>
+      </c>
+      <c r="D139" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E139" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F139" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G139" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H139" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I139" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q139" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B140" t="str">
+        <v>87544512169</v>
+      </c>
+      <c r="C140" t="str">
+        <v>178009</v>
+      </c>
+      <c r="D140" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E140" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F140" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G140" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H140" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I140" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q140" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B141" t="str">
+        <v>87544512170</v>
+      </c>
+      <c r="C141" t="str">
+        <v>178010</v>
+      </c>
+      <c r="D141" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E141" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F141" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G141" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H141" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I141" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q141" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B142" t="str">
+        <v>87544512171</v>
+      </c>
+      <c r="C142" t="str">
+        <v>178011</v>
+      </c>
+      <c r="D142" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E142" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F142" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G142" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H142" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I142" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q142" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B143" t="str">
+        <v>87544512172</v>
+      </c>
+      <c r="C143" t="str">
+        <v>178012</v>
+      </c>
+      <c r="D143" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E143" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F143" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G143" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H143" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I143" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q143" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B144" t="str">
+        <v>87544512268</v>
+      </c>
+      <c r="C144" t="str">
+        <v>178108</v>
+      </c>
+      <c r="D144" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E144" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F144" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G144" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H144" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I144" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q144" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B145" t="str">
+        <v>87544512269</v>
+      </c>
+      <c r="C145" t="str">
+        <v>178109</v>
+      </c>
+      <c r="D145" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E145" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F145" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G145" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H145" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I145" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q145" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B146" t="str">
+        <v>87544512270</v>
+      </c>
+      <c r="C146" t="str">
+        <v>178110</v>
+      </c>
+      <c r="D146" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E146" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F146" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G146" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H146" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I146" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q146" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B147" t="str">
+        <v>87544512271</v>
+      </c>
+      <c r="C147" t="str">
+        <v>178111</v>
+      </c>
+      <c r="D147" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E147" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F147" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G147" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H147" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I147" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q147" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B148" t="str">
+        <v>87544512272</v>
+      </c>
+      <c r="C148" t="str">
+        <v>178112</v>
+      </c>
+      <c r="D148" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E148" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F148" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G148" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H148" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I148" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q148" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B149" t="str">
+        <v>87544512273</v>
+      </c>
+      <c r="C149" t="str">
+        <v>178113</v>
+      </c>
+      <c r="D149" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E149" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F149" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G149" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H149" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I149" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q149" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B150" t="str">
+        <v>87544512274</v>
+      </c>
+      <c r="C150" t="str">
+        <v>178114</v>
+      </c>
+      <c r="D150" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E150" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F150" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G150" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H150" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I150" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q150" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B151" t="str">
+        <v>87544512275</v>
+      </c>
+      <c r="C151" t="str">
+        <v>178115</v>
+      </c>
+      <c r="D151" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E151" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F151" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G151" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H151" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I151" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q151" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B152" t="str">
+        <v>87544512152</v>
+      </c>
+      <c r="C152" t="str">
+        <v>177992</v>
+      </c>
+      <c r="D152" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E152" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F152" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G152" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H152" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I152" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q152" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B153" t="str">
+        <v>87544512153</v>
+      </c>
+      <c r="C153" t="str">
+        <v>177993</v>
+      </c>
+      <c r="D153" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E153" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F153" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G153" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H153" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I153" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q153" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B154" t="str">
+        <v>87544512154</v>
+      </c>
+      <c r="C154" t="str">
+        <v>177994</v>
+      </c>
+      <c r="D154" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E154" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F154" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G154" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H154" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I154" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q154" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B155" t="str">
+        <v>87544512155</v>
+      </c>
+      <c r="C155" t="str">
+        <v>177995</v>
+      </c>
+      <c r="D155" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E155" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F155" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G155" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H155" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I155" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q155" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B156" t="str">
+        <v>87544512156</v>
+      </c>
+      <c r="C156" t="str">
+        <v>177996</v>
+      </c>
+      <c r="D156" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E156" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F156" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G156" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H156" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I156" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q156" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B157" t="str">
+        <v>87544512157</v>
+      </c>
+      <c r="C157" t="str">
+        <v>177997</v>
+      </c>
+      <c r="D157" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E157" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F157" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G157" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H157" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I157" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q157" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B158" t="str">
+        <v>87544512158</v>
+      </c>
+      <c r="C158" t="str">
+        <v>177998</v>
+      </c>
+      <c r="D158" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E158" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F158" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G158" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H158" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I158" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q158" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B159" t="str">
+        <v>87544512173</v>
+      </c>
+      <c r="C159" t="str">
+        <v>178013</v>
+      </c>
+      <c r="D159" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E159" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F159" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G159" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H159" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I159" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q159" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B160" t="str">
+        <v>87544512174</v>
+      </c>
+      <c r="C160" t="str">
+        <v>178014</v>
+      </c>
+      <c r="D160" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E160" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F160" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G160" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H160" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I160" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q160" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B161" t="str">
+        <v>87544512175</v>
+      </c>
+      <c r="C161" t="str">
+        <v>178015</v>
+      </c>
+      <c r="D161" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E161" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F161" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G161" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H161" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I161" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q161" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B162" t="str">
+        <v>87544512176</v>
+      </c>
+      <c r="C162" t="str">
+        <v>178016</v>
+      </c>
+      <c r="D162" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E162" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F162" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G162" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H162" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I162" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q162" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B163" t="str">
+        <v>87544512177</v>
+      </c>
+      <c r="C163" t="str">
+        <v>178017</v>
+      </c>
+      <c r="D163" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E163" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F163" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G163" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H163" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I163" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q163" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B164" t="str">
+        <v>87544512178</v>
+      </c>
+      <c r="C164" t="str">
+        <v>178018</v>
+      </c>
+      <c r="D164" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E164" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F164" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G164" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H164" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I164" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q164" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B165" t="str">
+        <v>87544512179</v>
+      </c>
+      <c r="C165" t="str">
+        <v>178019</v>
+      </c>
+      <c r="D165" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E165" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F165" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G165" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H165" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I165" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q165" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B166" t="str">
+        <v>87544512180</v>
+      </c>
+      <c r="C166" t="str">
+        <v>178020</v>
+      </c>
+      <c r="D166" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E166" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F166" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G166" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H166" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I166" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q166" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B167" t="str">
+        <v>87544512181</v>
+      </c>
+      <c r="C167" t="str">
+        <v>178021</v>
+      </c>
+      <c r="D167" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E167" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F167" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G167" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H167" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I167" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q167" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>529630</v>
+      </c>
+      <c r="B168" t="str">
+        <v>87544512182</v>
+      </c>
+      <c r="C168" t="str">
+        <v>178022</v>
+      </c>
+      <c r="D168" t="str">
+        <v>31/05/2025</v>
+      </c>
+      <c r="E168" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F168" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G168" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H168" t="str">
+        <v>ASDASD</v>
+      </c>
+      <c r="I168" t="str">
+        <v>AÉREO</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q168" t="str">
+        <v>Em romaneio</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q168"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/lista.xlsx
+++ b/lista.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,45 +436,3462 @@
       <c r="K1" t="str">
         <v>Categoria</v>
       </c>
+      <c r="L1" t="str">
+        <v>Nome</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Transporte</v>
+      </c>
+      <c r="N1" t="str">
+        <v>CPF</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Data Expedição</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Hora Expedição</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Status</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
+        <v>2062025</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>27052506</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>1789134</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>02/06/2025</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>LLPP TERESINA</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>TERESINA</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>PI</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>RAPIDO PARANÁ</v>
       </c>
       <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v/>
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J2">
+        <v>1048.25</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>MARKETING</v>
+      </c>
+      <c r="L2" t="str">
+        <v>MARIVALDO  LORENÇO</v>
+      </c>
+      <c r="M2" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="N2" t="str">
+        <v>04318731430</v>
+      </c>
+      <c r="O2" t="str">
+        <v>03/06/2025</v>
+      </c>
+      <c r="P2" t="str">
+        <v>14:34</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2062025</v>
+      </c>
+      <c r="B3" t="str">
+        <v>27052505</v>
+      </c>
+      <c r="C3" t="str">
+        <v>1789132</v>
+      </c>
+      <c r="D3" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E3" t="str">
+        <v>LLPP PARTAGE NATAL</v>
+      </c>
+      <c r="F3" t="str">
+        <v>NATAL</v>
+      </c>
+      <c r="G3" t="str">
+        <v>RN</v>
+      </c>
+      <c r="H3" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I3" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J3">
+        <v>1119.6</v>
+      </c>
+      <c r="K3" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="L3" t="str">
+        <v>MARIVALDO  LORENÇO</v>
+      </c>
+      <c r="M3" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="N3" t="str">
+        <v>04318731430</v>
+      </c>
+      <c r="O3" t="str">
+        <v>03/06/2025</v>
+      </c>
+      <c r="P3" t="str">
+        <v>14:34</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2062025</v>
+      </c>
+      <c r="B4" t="str">
+        <v>29052508</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1789145</v>
+      </c>
+      <c r="D4" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E4" t="str">
+        <v>LLPP TAMBIÁ</v>
+      </c>
+      <c r="F4" t="str">
+        <v>JOÃO PESSOA</v>
+      </c>
+      <c r="G4" t="str">
+        <v>PB</v>
+      </c>
+      <c r="H4" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I4" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J4">
+        <v>5426.4</v>
+      </c>
+      <c r="K4" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="L4" t="str">
+        <v>MARIVALDO  LORENÇO</v>
+      </c>
+      <c r="M4" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="N4" t="str">
+        <v>04318731430</v>
+      </c>
+      <c r="O4" t="str">
+        <v>03/06/2025</v>
+      </c>
+      <c r="P4" t="str">
+        <v>14:34</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>4062025</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2062533</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1790386</v>
+      </c>
+      <c r="D5" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E5" t="str">
+        <v>LOJA MACEIO SHOPPING AL</v>
+      </c>
+      <c r="F5" t="str">
+        <v>MACEIÓ</v>
+      </c>
+      <c r="G5" t="str">
+        <v>AL</v>
+      </c>
+      <c r="H5" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I5" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J5">
+        <v>668.15</v>
+      </c>
+      <c r="K5" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="L5" t="str">
+        <v>MARIVALDO  LORENÇO</v>
+      </c>
+      <c r="M5" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="N5" t="str">
+        <v>04318731430</v>
+      </c>
+      <c r="O5" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P5" t="str">
+        <v>15:43</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>4062025</v>
+      </c>
+      <c r="B6" t="str">
+        <v>2062532</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1790377</v>
+      </c>
+      <c r="D6" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E6" t="str">
+        <v>LOJA MACEIO SHOPPING AL</v>
+      </c>
+      <c r="F6" t="str">
+        <v>MACEIÓ</v>
+      </c>
+      <c r="G6" t="str">
+        <v>AL</v>
+      </c>
+      <c r="H6" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I6" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J6">
+        <v>668.15</v>
+      </c>
+      <c r="K6" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="L6" t="str">
+        <v>MARIVALDO  LORENÇO</v>
+      </c>
+      <c r="M6" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="N6" t="str">
+        <v>04318731430</v>
+      </c>
+      <c r="O6" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P6" t="str">
+        <v>15:43</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>4062025</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2062534</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1790389</v>
+      </c>
+      <c r="D7" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E7" t="str">
+        <v>LOJA TERESINA SHOPPING PI</v>
+      </c>
+      <c r="F7" t="str">
+        <v>TERESINA</v>
+      </c>
+      <c r="G7" t="str">
+        <v>PI</v>
+      </c>
+      <c r="H7" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I7" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J7">
+        <v>131.9</v>
+      </c>
+      <c r="K7" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="L7" t="str">
+        <v>MARIVALDO  LORENÇO</v>
+      </c>
+      <c r="M7" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="N7" t="str">
+        <v>04318731430</v>
+      </c>
+      <c r="O7" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P7" t="str">
+        <v>15:43</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>521917</v>
+      </c>
+      <c r="B8" t="str">
+        <v>8760524453</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1787007</v>
+      </c>
+      <c r="D8" t="str">
+        <v>28/05/2025</v>
+      </c>
+      <c r="E8" t="str">
+        <v>R2 VCA</v>
+      </c>
+      <c r="F8" t="str">
+        <v>VITORIA DA CONQUISTA</v>
+      </c>
+      <c r="G8" t="str">
+        <v>BA</v>
+      </c>
+      <c r="H8" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I8" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J8">
+        <v>63668.72</v>
+      </c>
+      <c r="K8" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="L8" t="str">
+        <v>HUDSON DANUBIO DA SILVA</v>
+      </c>
+      <c r="M8" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="N8" t="str">
+        <v>71727582691</v>
+      </c>
+      <c r="O8" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P8" t="str">
+        <v>15:20</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>521917</v>
+      </c>
+      <c r="B9" t="str">
+        <v>8760524425</v>
+      </c>
+      <c r="C9" t="str">
+        <v>1787002</v>
+      </c>
+      <c r="D9" t="str">
+        <v>28/05/2025</v>
+      </c>
+      <c r="E9" t="str">
+        <v>R2 VCA</v>
+      </c>
+      <c r="F9" t="str">
+        <v>VITORIA DA CONQUISTA</v>
+      </c>
+      <c r="G9" t="str">
+        <v>BA</v>
+      </c>
+      <c r="H9" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I9" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J9">
+        <v>159837.62</v>
+      </c>
+      <c r="K9" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="L9" t="str">
+        <v>HUDSON DANUBIO DA SILVA</v>
+      </c>
+      <c r="M9" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="N9" t="str">
+        <v>71727582691</v>
+      </c>
+      <c r="O9" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P9" t="str">
+        <v>15:20</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>522081</v>
+      </c>
+      <c r="B10" t="str">
+        <v>8760521290</v>
+      </c>
+      <c r="C10" t="str">
+        <v>1787585</v>
+      </c>
+      <c r="D10" t="str">
+        <v>29/05/2025</v>
+      </c>
+      <c r="E10" t="str">
+        <v>INSVAL RS REDEEXT - PAE</v>
+      </c>
+      <c r="F10" t="str">
+        <v>PORTO ALEGRE</v>
+      </c>
+      <c r="G10" t="str">
+        <v>RS</v>
+      </c>
+      <c r="H10" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="I10" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J10">
+        <v>1235.34</v>
+      </c>
+      <c r="K10" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>522081</v>
+      </c>
+      <c r="B11" t="str">
+        <v>8760521291</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1787583</v>
+      </c>
+      <c r="D11" t="str">
+        <v>29/05/2025</v>
+      </c>
+      <c r="E11" t="str">
+        <v>EMPVAL RS CETP MANUTENÇÃO</v>
+      </c>
+      <c r="F11" t="str">
+        <v>PORTO ALEGRE</v>
+      </c>
+      <c r="G11" t="str">
+        <v>RS</v>
+      </c>
+      <c r="H11" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="I11" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J11">
+        <v>14824.09</v>
+      </c>
+      <c r="K11" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>522335</v>
+      </c>
+      <c r="B12" t="str">
+        <v>8760529731</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1789508</v>
+      </c>
+      <c r="D12" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E12" t="str">
+        <v>EMPVAL AL - R2T</v>
+      </c>
+      <c r="F12" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="G12" t="str">
+        <v>AL</v>
+      </c>
+      <c r="H12" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I12" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J12">
+        <v>9844.52</v>
+      </c>
+      <c r="K12" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L12" t="str">
+        <v>JOSÉ DE CARVALHO NETO</v>
+      </c>
+      <c r="M12" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N12" t="str">
+        <v>21815889888</v>
+      </c>
+      <c r="O12" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P12" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>522335</v>
+      </c>
+      <c r="B13" t="str">
+        <v>8760529740</v>
+      </c>
+      <c r="C13" t="str">
+        <v>1789510</v>
+      </c>
+      <c r="D13" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E13" t="str">
+        <v>INSVAL AL REDEEXT - MCE</v>
+      </c>
+      <c r="F13" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="G13" t="str">
+        <v>AL</v>
+      </c>
+      <c r="H13" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I13" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J13">
+        <v>2729.93</v>
+      </c>
+      <c r="K13" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L13" t="str">
+        <v>JOSÉ DE CARVALHO NETO</v>
+      </c>
+      <c r="M13" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N13" t="str">
+        <v>21815889888</v>
+      </c>
+      <c r="O13" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P13" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>522335</v>
+      </c>
+      <c r="B14" t="str">
+        <v>8760529745</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1789512</v>
+      </c>
+      <c r="D14" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E14" t="str">
+        <v>EMPVAL AL R2T MANUTENÇÃO</v>
+      </c>
+      <c r="F14" t="str">
+        <v>MACEIO</v>
+      </c>
+      <c r="G14" t="str">
+        <v>AL</v>
+      </c>
+      <c r="H14" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I14" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J14">
+        <v>5459.86</v>
+      </c>
+      <c r="K14" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L14" t="str">
+        <v>JOSÉ DE CARVALHO NETO</v>
+      </c>
+      <c r="M14" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N14" t="str">
+        <v>21815889888</v>
+      </c>
+      <c r="O14" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P14" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>522346</v>
+      </c>
+      <c r="B15" t="str">
+        <v>8760529759</v>
+      </c>
+      <c r="C15" t="str">
+        <v>1789491</v>
+      </c>
+      <c r="D15" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E15" t="str">
+        <v>EMPVAL BA - R2</v>
+      </c>
+      <c r="F15" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="G15" t="str">
+        <v>BA</v>
+      </c>
+      <c r="H15" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I15" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J15">
+        <v>28930</v>
+      </c>
+      <c r="K15" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L15" t="str">
+        <v>JOSENILDO DA SILVA SANTOS</v>
+      </c>
+      <c r="M15" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N15" t="str">
+        <v>70016907400</v>
+      </c>
+      <c r="O15" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P15" t="str">
+        <v>16:24</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>522346</v>
+      </c>
+      <c r="B16" t="str">
+        <v>8760529747</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1789490</v>
+      </c>
+      <c r="D16" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E16" t="str">
+        <v>EMPVAL BA  R2T MANUTENÇÃO</v>
+      </c>
+      <c r="F16" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="G16" t="str">
+        <v>BA</v>
+      </c>
+      <c r="H16" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I16" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J16">
+        <v>5459.86</v>
+      </c>
+      <c r="K16" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L16" t="str">
+        <v>JOSENILDO DA SILVA SANTOS</v>
+      </c>
+      <c r="M16" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N16" t="str">
+        <v>70016907400</v>
+      </c>
+      <c r="O16" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P16" t="str">
+        <v>16:24</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>522348</v>
+      </c>
+      <c r="B17" t="str">
+        <v>8760529738</v>
+      </c>
+      <c r="C17" t="str">
+        <v>1789503</v>
+      </c>
+      <c r="D17" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E17" t="str">
+        <v>TECNOMULTI - IMP - SDR</v>
+      </c>
+      <c r="F17" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="G17" t="str">
+        <v>BA</v>
+      </c>
+      <c r="H17" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I17" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J17">
+        <v>35489.09</v>
+      </c>
+      <c r="K17" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L17" t="str">
+        <v>JOSENILDO DA SILVA SANTOS</v>
+      </c>
+      <c r="M17" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N17" t="str">
+        <v>70016907400</v>
+      </c>
+      <c r="O17" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P17" t="str">
+        <v>16:24</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>522348</v>
+      </c>
+      <c r="B18" t="str">
+        <v>8760829739</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1789504</v>
+      </c>
+      <c r="D18" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E18" t="str">
+        <v>INSVAL BA REDEEXT - SDR</v>
+      </c>
+      <c r="F18" t="str">
+        <v>SALVADOR</v>
+      </c>
+      <c r="G18" t="str">
+        <v>BA</v>
+      </c>
+      <c r="H18" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I18" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J18">
+        <v>35489.09</v>
+      </c>
+      <c r="K18" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L18" t="str">
+        <v>JOSENILDO DA SILVA SANTOS</v>
+      </c>
+      <c r="M18" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N18" t="str">
+        <v>70016907400</v>
+      </c>
+      <c r="O18" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P18" t="str">
+        <v>16:24</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>522351</v>
+      </c>
+      <c r="B19" t="str">
+        <v>8760529741</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1789483</v>
+      </c>
+      <c r="D19" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E19" t="str">
+        <v>EMPVAL R2 - MNT - FSA</v>
+      </c>
+      <c r="F19" t="str">
+        <v>FEIRA DE SANTANA</v>
+      </c>
+      <c r="G19" t="str">
+        <v>BA</v>
+      </c>
+      <c r="H19" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I19" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J19">
+        <v>2729.93</v>
+      </c>
+      <c r="K19" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L19" t="str">
+        <v>JOSENILDO DA SILVA SANTOS</v>
+      </c>
+      <c r="M19" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N19" t="str">
+        <v>70016907400</v>
+      </c>
+      <c r="O19" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P19" t="str">
+        <v>16:24</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>522351</v>
+      </c>
+      <c r="B20" t="str">
+        <v>8760529729</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1789481</v>
+      </c>
+      <c r="D20" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E20" t="str">
+        <v>EMPVAL R2 - IMP - FSA</v>
+      </c>
+      <c r="F20" t="str">
+        <v>FEIRA DE SANTANA</v>
+      </c>
+      <c r="G20" t="str">
+        <v>BA</v>
+      </c>
+      <c r="H20" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I20" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J20">
+        <v>2729.93</v>
+      </c>
+      <c r="K20" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L20" t="str">
+        <v>JOSENILDO DA SILVA SANTOS</v>
+      </c>
+      <c r="M20" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N20" t="str">
+        <v>70016907400</v>
+      </c>
+      <c r="O20" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P20" t="str">
+        <v>16:24</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>522354</v>
+      </c>
+      <c r="B21" t="str">
+        <v>8760529757</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1789487</v>
+      </c>
+      <c r="D21" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E21" t="str">
+        <v>EMPVAL ICOMON MNT BBN LFS</v>
+      </c>
+      <c r="F21" t="str">
+        <v>LAURO DE FREITAS</v>
+      </c>
+      <c r="G21" t="str">
+        <v>BA</v>
+      </c>
+      <c r="H21" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I21" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J21">
+        <v>16379.58</v>
+      </c>
+      <c r="K21" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L21" t="str">
+        <v>JOSENILDO DA SILVA SANTOS</v>
+      </c>
+      <c r="M21" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N21" t="str">
+        <v>70016907400</v>
+      </c>
+      <c r="O21" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P21" t="str">
+        <v>16:24</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>522360</v>
+      </c>
+      <c r="B22" t="str">
+        <v>8760529752</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1789517</v>
+      </c>
+      <c r="D22" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E22" t="str">
+        <v>EMPVAL CE R2T MANUTENÇÃO</v>
+      </c>
+      <c r="F22" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="G22" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H22" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I22" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J22">
+        <v>5459.86</v>
+      </c>
+      <c r="K22" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L22" t="str">
+        <v>WASHINGTON JANUÁRIO</v>
+      </c>
+      <c r="M22" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N22" t="str">
+        <v>08288300456</v>
+      </c>
+      <c r="O22" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P22" t="str">
+        <v>10:02</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>522360</v>
+      </c>
+      <c r="B23" t="str">
+        <v>8760529737</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1789515</v>
+      </c>
+      <c r="D23" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E23" t="str">
+        <v>INSVAL CE REDEEXT - FLA</v>
+      </c>
+      <c r="F23" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="G23" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H23" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I23" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J23">
+        <v>10919.72</v>
+      </c>
+      <c r="K23" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L23" t="str">
+        <v>WASHINGTON JANUÁRIO</v>
+      </c>
+      <c r="M23" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N23" t="str">
+        <v>08288300456</v>
+      </c>
+      <c r="O23" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P23" t="str">
+        <v>10:02</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>522360</v>
+      </c>
+      <c r="B24" t="str">
+        <v>8760529758</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1789543</v>
+      </c>
+      <c r="D24" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E24" t="str">
+        <v>EMPVAL CE - R2</v>
+      </c>
+      <c r="F24" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="G24" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H24" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I24" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J24">
+        <v>10919.72</v>
+      </c>
+      <c r="K24" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L24" t="str">
+        <v>WASHINGTON JANUÁRIO</v>
+      </c>
+      <c r="M24" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N24" t="str">
+        <v>08288300456</v>
+      </c>
+      <c r="O24" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P24" t="str">
+        <v>10:02</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>522360</v>
+      </c>
+      <c r="B25" t="str">
+        <v>8760529756</v>
+      </c>
+      <c r="C25" t="str">
+        <v>1789521</v>
+      </c>
+      <c r="D25" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E25" t="str">
+        <v>EMPVAL ICOMON MNT BBN FLA</v>
+      </c>
+      <c r="F25" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="G25" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H25" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I25" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J25">
+        <v>30029.23</v>
+      </c>
+      <c r="K25" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L25" t="str">
+        <v>WASHINGTON JANUÁRIO</v>
+      </c>
+      <c r="M25" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N25" t="str">
+        <v>08288300456</v>
+      </c>
+      <c r="O25" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P25" t="str">
+        <v>10:02</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>522365</v>
+      </c>
+      <c r="B26" t="str">
+        <v>8760529743</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1789544</v>
+      </c>
+      <c r="D26" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E26" t="str">
+        <v>EMPVAL PB TECNOMULTIMANUTENÇÃO</v>
+      </c>
+      <c r="F26" t="str">
+        <v>JOAO PESSOA</v>
+      </c>
+      <c r="G26" t="str">
+        <v>PB</v>
+      </c>
+      <c r="H26" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I26" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J26">
+        <v>2729.93</v>
+      </c>
+      <c r="K26" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L26" t="str">
+        <v>WASHINGTON JANUÁRIO</v>
+      </c>
+      <c r="M26" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N26" t="str">
+        <v>08288300456</v>
+      </c>
+      <c r="O26" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P26" t="str">
+        <v>10:02</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>522365</v>
+      </c>
+      <c r="B27" t="str">
+        <v>8760529746</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1789546</v>
+      </c>
+      <c r="D27" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E27" t="str">
+        <v>EMPVAL PB TECNOMULTI MANUTENÇÃ</v>
+      </c>
+      <c r="F27" t="str">
+        <v>CAMPINA GRANDE</v>
+      </c>
+      <c r="G27" t="str">
+        <v>PB</v>
+      </c>
+      <c r="H27" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I27" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J27">
+        <v>2729.93</v>
+      </c>
+      <c r="K27" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L27" t="str">
+        <v>WASHINGTON JANUÁRIO</v>
+      </c>
+      <c r="M27" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N27" t="str">
+        <v>08288300456</v>
+      </c>
+      <c r="O27" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P27" t="str">
+        <v>10:02</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>522368</v>
+      </c>
+      <c r="B28" t="str">
+        <v>8760529754</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1789551</v>
+      </c>
+      <c r="D28" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E28" t="str">
+        <v>EMPVAL ICOMON MNT BBN TSA</v>
+      </c>
+      <c r="F28" t="str">
+        <v>TERESINA</v>
+      </c>
+      <c r="G28" t="str">
+        <v>PI</v>
+      </c>
+      <c r="H28" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I28" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J28">
+        <v>13649.65</v>
+      </c>
+      <c r="K28" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L28" t="str">
+        <v>WASHINGTON JANUÁRIO</v>
+      </c>
+      <c r="M28" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N28" t="str">
+        <v>08288300456</v>
+      </c>
+      <c r="O28" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P28" t="str">
+        <v>10:02</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>522368</v>
+      </c>
+      <c r="B29" t="str">
+        <v>8760529742</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1789549</v>
+      </c>
+      <c r="D29" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E29" t="str">
+        <v>EMPVAL PI R2T TERESINA MNT</v>
+      </c>
+      <c r="F29" t="str">
+        <v>TERESINA</v>
+      </c>
+      <c r="G29" t="str">
+        <v>PI</v>
+      </c>
+      <c r="H29" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I29" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J29">
+        <v>2729.93</v>
+      </c>
+      <c r="K29" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L29" t="str">
+        <v>WASHINGTON JANUÁRIO</v>
+      </c>
+      <c r="M29" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N29" t="str">
+        <v>08288300456</v>
+      </c>
+      <c r="O29" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P29" t="str">
+        <v>10:02</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>522377</v>
+      </c>
+      <c r="B30" t="str">
+        <v>8760529732</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1789554</v>
+      </c>
+      <c r="D30" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E30" t="str">
+        <v>INSVAL SE REDEEXT - AJU</v>
+      </c>
+      <c r="F30" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="G30" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H30" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I30" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J30">
+        <v>19109.51</v>
+      </c>
+      <c r="K30" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L30" t="str">
+        <v>JOSÉ DE CARVALHO NETO</v>
+      </c>
+      <c r="M30" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N30" t="str">
+        <v>21815889888</v>
+      </c>
+      <c r="O30" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P30" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>522377</v>
+      </c>
+      <c r="B31" t="str">
+        <v>8760529730</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1789552</v>
+      </c>
+      <c r="D31" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E31" t="str">
+        <v>EMPVAL SE - R2T</v>
+      </c>
+      <c r="F31" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="G31" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H31" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I31" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J31">
+        <v>8189.789999999999</v>
+      </c>
+      <c r="K31" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L31" t="str">
+        <v>JOSÉ DE CARVALHO NETO</v>
+      </c>
+      <c r="M31" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N31" t="str">
+        <v>21815889888</v>
+      </c>
+      <c r="O31" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P31" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>522377</v>
+      </c>
+      <c r="B32" t="str">
+        <v>8760529751</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1789559</v>
+      </c>
+      <c r="D32" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E32" t="str">
+        <v>EMPVAL SE R2T MANUTENÇÃO</v>
+      </c>
+      <c r="F32" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="G32" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H32" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I32" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J32">
+        <v>2729.93</v>
+      </c>
+      <c r="K32" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L32" t="str">
+        <v>JOSÉ DE CARVALHO NETO</v>
+      </c>
+      <c r="M32" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N32" t="str">
+        <v>21815889888</v>
+      </c>
+      <c r="O32" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P32" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>522377</v>
+      </c>
+      <c r="B33" t="str">
+        <v>8760529753</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1789560</v>
+      </c>
+      <c r="D33" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E33" t="str">
+        <v>EMPVAL ICOMON MNT BBN AJU</v>
+      </c>
+      <c r="F33" t="str">
+        <v>ARACAJU</v>
+      </c>
+      <c r="G33" t="str">
+        <v>SE</v>
+      </c>
+      <c r="H33" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I33" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J33">
+        <v>10919.74</v>
+      </c>
+      <c r="K33" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L33" t="str">
+        <v>JOSÉ DE CARVALHO NETO</v>
+      </c>
+      <c r="M33" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N33" t="str">
+        <v>21815889888</v>
+      </c>
+      <c r="O33" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P33" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>522432</v>
+      </c>
+      <c r="B34" t="str">
+        <v>8760529734</v>
+      </c>
+      <c r="C34" t="str">
+        <v>4947080679</v>
+      </c>
+      <c r="D34" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E34" t="str">
+        <v>INSVAL PE REDEEXT - RCE</v>
+      </c>
+      <c r="F34" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G34" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H34" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I34" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J34">
+        <v>14414.04</v>
+      </c>
+      <c r="K34" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L34" t="str">
+        <v>WASHINGTON JANUÁRIO</v>
+      </c>
+      <c r="M34" t="str">
+        <v>CAROBA</v>
+      </c>
+      <c r="N34" t="str">
+        <v>08288300456</v>
+      </c>
+      <c r="O34" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P34" t="str">
+        <v>10:02</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>522770</v>
+      </c>
+      <c r="B35" t="str">
+        <v>8760680597</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1790713</v>
+      </c>
+      <c r="D35" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E35" t="str">
+        <v>TECNOMULTI - IMP - FLA</v>
+      </c>
+      <c r="F35" t="str">
+        <v>IBIAPINA</v>
+      </c>
+      <c r="G35" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H35" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I35" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J35">
+        <v>177279.62</v>
+      </c>
+      <c r="K35" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>522788</v>
+      </c>
+      <c r="B36" t="str">
+        <v>8760688771</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1790720</v>
+      </c>
+      <c r="D36" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E36" t="str">
+        <v>TECNOMULTI - IMP - FLA</v>
+      </c>
+      <c r="F36" t="str">
+        <v>APUIARES</v>
+      </c>
+      <c r="G36" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H36" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I36" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J36">
+        <v>316570.75</v>
+      </c>
+      <c r="K36" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>522801</v>
+      </c>
+      <c r="B37" t="str">
+        <v>8760688769</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1790716</v>
+      </c>
+      <c r="D37" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E37" t="str">
+        <v>TECNOMULTI - IMP - FLA</v>
+      </c>
+      <c r="F37" t="str">
+        <v>APUIARES</v>
+      </c>
+      <c r="G37" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H37" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I37" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J37">
+        <v>303907.92</v>
+      </c>
+      <c r="K37" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>522803</v>
+      </c>
+      <c r="B38" t="str">
+        <v>8760680600</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1790730</v>
+      </c>
+      <c r="D38" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E38" t="str">
+        <v>INS - REDE - SDR</v>
+      </c>
+      <c r="F38" t="str">
+        <v>SANTA RITA DE CASSIA</v>
+      </c>
+      <c r="G38" t="str">
+        <v>BA</v>
+      </c>
+      <c r="H38" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I38" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J38">
+        <v>139291.13</v>
+      </c>
+      <c r="K38" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>522805</v>
+      </c>
+      <c r="B39" t="str">
+        <v>8760682203</v>
+      </c>
+      <c r="C39" t="str">
+        <v>1790737</v>
+      </c>
+      <c r="D39" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E39" t="str">
+        <v>ELO - IMP - TSA</v>
+      </c>
+      <c r="F39" t="str">
+        <v>SÃO GONSALO DO GURGUEIA</v>
+      </c>
+      <c r="G39" t="str">
+        <v>PI</v>
+      </c>
+      <c r="H39" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="I39" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J39">
+        <v>126628.3</v>
+      </c>
+      <c r="K39" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>522805</v>
+      </c>
+      <c r="B40" t="str">
+        <v>8760682205</v>
+      </c>
+      <c r="C40" t="str">
+        <v>1790740</v>
+      </c>
+      <c r="D40" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E40" t="str">
+        <v>ELO - IMP - TSA</v>
+      </c>
+      <c r="F40" t="str">
+        <v>SÃO GONSALO DO GURGUEIA</v>
+      </c>
+      <c r="G40" t="str">
+        <v>PI</v>
+      </c>
+      <c r="H40" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="I40" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J40">
+        <v>126628.25</v>
+      </c>
+      <c r="K40" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>522808</v>
+      </c>
+      <c r="B41" t="str">
+        <v>8760688774</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1790746</v>
+      </c>
+      <c r="D41" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E41" t="str">
+        <v>R2 - IMP - TSA</v>
+      </c>
+      <c r="F41" t="str">
+        <v>TERESINA</v>
+      </c>
+      <c r="G41" t="str">
+        <v>PI</v>
+      </c>
+      <c r="H41" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="I41" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J41">
+        <v>151953.9</v>
+      </c>
+      <c r="K41" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>522808</v>
+      </c>
+      <c r="B42" t="str">
+        <v>8760688773</v>
+      </c>
+      <c r="C42" t="str">
+        <v>1790743</v>
+      </c>
+      <c r="D42" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E42" t="str">
+        <v>R2 - IMP - TSA</v>
+      </c>
+      <c r="F42" t="str">
+        <v>TERESINA</v>
+      </c>
+      <c r="G42" t="str">
+        <v>PI</v>
+      </c>
+      <c r="H42" t="str">
+        <v>RAPIDO PARANA</v>
+      </c>
+      <c r="I42" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J42">
+        <v>151953.9</v>
+      </c>
+      <c r="K42" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>522815</v>
+      </c>
+      <c r="B43" t="str">
+        <v>8760688775</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1790748</v>
+      </c>
+      <c r="D43" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E43" t="str">
+        <v>R2 - IMP - TSA</v>
+      </c>
+      <c r="F43" t="str">
+        <v>TERESINA</v>
+      </c>
+      <c r="G43" t="str">
+        <v>PI</v>
+      </c>
+      <c r="H43" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I43" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J43">
+        <v>139291.07</v>
+      </c>
+      <c r="K43" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>522890</v>
+      </c>
+      <c r="B44" t="str">
+        <v>8760699029</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1791439</v>
+      </c>
+      <c r="D44" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E44" t="str">
+        <v>R2 FORTALEZA</v>
+      </c>
+      <c r="F44" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="G44" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H44" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I44" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J44">
+        <v>8745.23</v>
+      </c>
+      <c r="K44" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>522890</v>
+      </c>
+      <c r="B45" t="str">
+        <v>8760699028</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1791445</v>
+      </c>
+      <c r="D45" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E45" t="str">
+        <v>R2 FORTALEZA</v>
+      </c>
+      <c r="F45" t="str">
+        <v>FORTALEZA</v>
+      </c>
+      <c r="G45" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H45" t="str">
+        <v>SAMSUNG</v>
+      </c>
+      <c r="I45" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J45">
+        <v>32347.89</v>
+      </c>
+      <c r="K45" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>522892</v>
+      </c>
+      <c r="B46" t="str">
+        <v>8760699030</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1791259</v>
+      </c>
+      <c r="D46" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E46" t="str">
+        <v>R2 JUAZEIRO</v>
+      </c>
+      <c r="F46" t="str">
+        <v>JUAZEIRO</v>
+      </c>
+      <c r="G46" t="str">
+        <v>CE</v>
+      </c>
+      <c r="H46" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I46" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J46">
+        <v>15258.01</v>
+      </c>
+      <c r="K46" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>522895</v>
+      </c>
+      <c r="B47" t="str">
+        <v>8760699031</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1791285</v>
+      </c>
+      <c r="D47" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E47" t="str">
+        <v>R2 TERESINA</v>
+      </c>
+      <c r="F47" t="str">
+        <v>TERESINA</v>
+      </c>
+      <c r="G47" t="str">
+        <v>PI</v>
+      </c>
+      <c r="H47" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I47" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J47">
+        <v>63331.24</v>
+      </c>
+      <c r="K47" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q47" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B48" t="str">
+        <v>2062508</v>
+      </c>
+      <c r="C48" t="str">
+        <v>1791021</v>
+      </c>
+      <c r="D48" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E48" t="str">
+        <v>LLPP GUARARAPES</v>
+      </c>
+      <c r="F48" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G48" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H48" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I48" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J48">
+        <v>333.05</v>
+      </c>
+      <c r="K48" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="Q48" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B49" t="str">
+        <v>2062509</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1791024</v>
+      </c>
+      <c r="D49" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E49" t="str">
+        <v>LLPP SHOPPING PLAZA</v>
+      </c>
+      <c r="F49" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G49" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H49" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I49" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J49">
+        <v>344.45</v>
+      </c>
+      <c r="K49" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="Q49" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B50" t="str">
+        <v>2062510</v>
+      </c>
+      <c r="C50" t="str">
+        <v>1791046</v>
+      </c>
+      <c r="D50" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E50" t="str">
+        <v>LLPP BOA VISTA</v>
+      </c>
+      <c r="F50" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G50" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H50" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I50" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J50">
+        <v>555.63</v>
+      </c>
+      <c r="K50" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B51" t="str">
+        <v>2062511</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1791054</v>
+      </c>
+      <c r="D51" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E51" t="str">
+        <v>LLPP CARUARU</v>
+      </c>
+      <c r="F51" t="str">
+        <v>CARUARU</v>
+      </c>
+      <c r="G51" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H51" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I51" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J51">
+        <v>311.15</v>
+      </c>
+      <c r="K51" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B52" t="str">
+        <v>8760699027</v>
+      </c>
+      <c r="C52" t="str">
+        <v>4947164586</v>
+      </c>
+      <c r="D52" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E52" t="str">
+        <v>TECNOMULTI RECIFE</v>
+      </c>
+      <c r="F52" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G52" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H52" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I52" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J52">
+        <v>94789.93</v>
+      </c>
+      <c r="K52" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="L52" t="str">
+        <v>RENILDO MORAES DE LIMA</v>
+      </c>
+      <c r="M52" t="str">
+        <v>TECNOMULTI RECIFE</v>
+      </c>
+      <c r="N52" t="str">
+        <v>40751880434</v>
+      </c>
+      <c r="O52" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P52" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q52" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B53" t="str">
+        <v>8760529749</v>
+      </c>
+      <c r="C53" t="str">
+        <v>4947082572</v>
+      </c>
+      <c r="D53" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E53" t="str">
+        <v>EMPVAL PE R2T MANUTENÇÃO</v>
+      </c>
+      <c r="F53" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G53" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H53" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I53" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J53">
+        <v>4804.68</v>
+      </c>
+      <c r="K53" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="Q53" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B54" t="str">
+        <v>8760705618</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1791173</v>
+      </c>
+      <c r="D54" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E54" t="str">
+        <v>TECNOMULTI JPA</v>
+      </c>
+      <c r="F54" t="str">
+        <v>JOÃO PESSOA</v>
+      </c>
+      <c r="G54" t="str">
+        <v>PB</v>
+      </c>
+      <c r="H54" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I54" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J54">
+        <v>44342.64</v>
+      </c>
+      <c r="K54" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B55" t="str">
+        <v>8760705670</v>
+      </c>
+      <c r="C55" t="str">
+        <v>1791177</v>
+      </c>
+      <c r="D55" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E55" t="str">
+        <v>TECNOMULTI JPA</v>
+      </c>
+      <c r="F55" t="str">
+        <v>JOÃO PESSOA</v>
+      </c>
+      <c r="G55" t="str">
+        <v>PB</v>
+      </c>
+      <c r="H55" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I55" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J55">
+        <v>68418.74</v>
+      </c>
+      <c r="K55" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B56" t="str">
+        <v>8760699021</v>
+      </c>
+      <c r="C56" t="str">
+        <v>4947165441</v>
+      </c>
+      <c r="D56" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E56" t="str">
+        <v>TECNOMULTI CARUARU</v>
+      </c>
+      <c r="F56" t="str">
+        <v>CARUARU</v>
+      </c>
+      <c r="G56" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H56" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I56" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J56">
+        <v>3613.04</v>
+      </c>
+      <c r="K56" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="L56" t="str">
+        <v>RENILDO MORAES DE LIMA</v>
+      </c>
+      <c r="M56" t="str">
+        <v>TECNOMULTI RECIFE</v>
+      </c>
+      <c r="N56" t="str">
+        <v>40751880434</v>
+      </c>
+      <c r="O56" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P56" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B57" t="str">
+        <v>2062512</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1791062</v>
+      </c>
+      <c r="D57" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E57" t="str">
+        <v>LLPP RIVER PETROLINA</v>
+      </c>
+      <c r="F57" t="str">
+        <v>PETROLINA</v>
+      </c>
+      <c r="G57" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H57" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I57" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J57">
+        <v>612.39</v>
+      </c>
+      <c r="K57" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="Q57" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B58" t="str">
+        <v>8760699023</v>
+      </c>
+      <c r="C58" t="str">
+        <v>4947165615</v>
+      </c>
+      <c r="D58" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E58" t="str">
+        <v>TECNOMULTI GARANHUNS</v>
+      </c>
+      <c r="F58" t="str">
+        <v>GARANHUNS</v>
+      </c>
+      <c r="G58" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H58" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I58" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J58">
+        <v>1756.85</v>
+      </c>
+      <c r="K58" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="L58" t="str">
+        <v>RENILDO MORAES DE LIMA</v>
+      </c>
+      <c r="M58" t="str">
+        <v>TECNOMULTI RECIFE</v>
+      </c>
+      <c r="N58" t="str">
+        <v>40751880434</v>
+      </c>
+      <c r="O58" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P58" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q58" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B59" t="str">
+        <v>8760699026</v>
+      </c>
+      <c r="C59" t="str">
+        <v>4947165203</v>
+      </c>
+      <c r="D59" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E59" t="str">
+        <v>TECNOMULTI CARUARU</v>
+      </c>
+      <c r="F59" t="str">
+        <v>CARUARU</v>
+      </c>
+      <c r="G59" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H59" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I59" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J59">
+        <v>2708.53</v>
+      </c>
+      <c r="K59" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="L59" t="str">
+        <v>RENILDO MORAES DE LIMA</v>
+      </c>
+      <c r="M59" t="str">
+        <v>TECNOMULTI RECIFE</v>
+      </c>
+      <c r="N59" t="str">
+        <v>40751880434</v>
+      </c>
+      <c r="O59" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P59" t="str">
+        <v>11:21</v>
+      </c>
+      <c r="Q59" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B60" t="str">
+        <v>2062502</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1790351</v>
+      </c>
+      <c r="D60" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E60" t="str">
+        <v>LOJA SHOPPING GUARARAPES PE</v>
+      </c>
+      <c r="F60" t="str">
+        <v>JABOATÃO DOS GUARARAPES</v>
+      </c>
+      <c r="G60" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H60" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I60" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J60">
+        <v>1250.26</v>
+      </c>
+      <c r="K60" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="L60" t="str">
+        <v>DOUGLAS DE MORAES SILVA</v>
+      </c>
+      <c r="M60" t="str">
+        <v>LM EXPRESS0</v>
+      </c>
+      <c r="N60" t="str">
+        <v>02395829420</v>
+      </c>
+      <c r="O60" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P60" t="str">
+        <v>11:55</v>
+      </c>
+      <c r="Q60" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B61" t="str">
+        <v>2062501</v>
+      </c>
+      <c r="C61" t="str">
+        <v>1789587</v>
+      </c>
+      <c r="D61" t="str">
+        <v>03/06/2025</v>
+      </c>
+      <c r="E61" t="str">
+        <v>LLPP RIOMAR PE</v>
+      </c>
+      <c r="F61" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G61" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H61" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I61" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J61">
+        <v>472</v>
+      </c>
+      <c r="K61" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="L61" t="str">
+        <v>DOUGLAS DE MORAES SILVA</v>
+      </c>
+      <c r="M61" t="str">
+        <v>LM EXPRESS0</v>
+      </c>
+      <c r="N61" t="str">
+        <v>02395829420</v>
+      </c>
+      <c r="O61" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P61" t="str">
+        <v>11:55</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B62" t="str">
+        <v>8760529755</v>
+      </c>
+      <c r="C62" t="str">
+        <v>4947082434</v>
+      </c>
+      <c r="D62" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E62" t="str">
+        <v>EMPVAL ICOMON MNT BBN RCE</v>
+      </c>
+      <c r="F62" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G62" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H62" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I62" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J62">
+        <v>31230.42</v>
+      </c>
+      <c r="K62" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L62" t="str">
+        <v>PAULO HENRIQUE PEREIRA</v>
+      </c>
+      <c r="M62" t="str">
+        <v>ICOMOM</v>
+      </c>
+      <c r="N62" t="str">
+        <v>05548847473</v>
+      </c>
+      <c r="O62" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P62" t="str">
+        <v>15:42</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B63" t="str">
+        <v>8760699020</v>
+      </c>
+      <c r="C63" t="str">
+        <v>4947169891</v>
+      </c>
+      <c r="D63" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E63" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F63" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G63" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H63" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I63" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J63">
+        <v>4032.28</v>
+      </c>
+      <c r="K63" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q63" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B64" t="str">
+        <v>8760699025</v>
+      </c>
+      <c r="C64" t="str">
+        <v>4947169520</v>
+      </c>
+      <c r="D64" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E64" t="str">
+        <v>R2 RECIFE</v>
+      </c>
+      <c r="F64" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G64" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H64" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I64" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J64">
+        <v>125165.28</v>
+      </c>
+      <c r="K64" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B65" t="str">
+        <v>8760529750</v>
+      </c>
+      <c r="C65" t="str">
+        <v>4947082325</v>
+      </c>
+      <c r="D65" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E65" t="str">
+        <v>EMPVAL PE ROCHAS MANUTENÇÃO</v>
+      </c>
+      <c r="F65" t="str">
+        <v>CARUARU</v>
+      </c>
+      <c r="G65" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H65" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I65" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J65">
+        <v>2402.34</v>
+      </c>
+      <c r="K65" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L65" t="str">
+        <v>RENILDO MORAES DE LIMA</v>
+      </c>
+      <c r="M65" t="str">
+        <v>TECNOMULTI RECIFE</v>
+      </c>
+      <c r="N65" t="str">
+        <v>40751880434</v>
+      </c>
+      <c r="O65" t="str">
+        <v>03/06/2025</v>
+      </c>
+      <c r="P65" t="str">
+        <v>15:55</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B66" t="str">
+        <v>8760699022</v>
+      </c>
+      <c r="C66" t="str">
+        <v>4947164805</v>
+      </c>
+      <c r="D66" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E66" t="str">
+        <v>TECNOMULTI RECIFE</v>
+      </c>
+      <c r="F66" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G66" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H66" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I66" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J66">
+        <v>7394.1</v>
+      </c>
+      <c r="K66" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="L66" t="str">
+        <v>RENILDO MORAES DE LIMA</v>
+      </c>
+      <c r="M66" t="str">
+        <v>TECNOMULTI RECIFE</v>
+      </c>
+      <c r="N66" t="str">
+        <v>40751880434</v>
+      </c>
+      <c r="O66" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="P66" t="str">
+        <v>17:14</v>
+      </c>
+      <c r="Q66" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B67" t="str">
+        <v>8760529744</v>
+      </c>
+      <c r="C67" t="str">
+        <v>4947085838</v>
+      </c>
+      <c r="D67" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E67" t="str">
+        <v>EMPVAL PE - TECNOMULT</v>
+      </c>
+      <c r="F67" t="str">
+        <v>JABOATÃO DOS GUARARAPES</v>
+      </c>
+      <c r="G67" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H67" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I67" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J67">
+        <v>7207.02</v>
+      </c>
+      <c r="K67" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L67" t="str">
+        <v>RENILDO MORAES DE LIMA</v>
+      </c>
+      <c r="M67" t="str">
+        <v>TECNOMULTI RECIFE</v>
+      </c>
+      <c r="N67" t="str">
+        <v>40751880434</v>
+      </c>
+      <c r="O67" t="str">
+        <v>03/06/2025</v>
+      </c>
+      <c r="P67" t="str">
+        <v>15:55</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B68" t="str">
+        <v>8760529736</v>
+      </c>
+      <c r="C68" t="str">
+        <v>4947082064</v>
+      </c>
+      <c r="D68" t="str">
+        <v>02/06/2025</v>
+      </c>
+      <c r="E68" t="str">
+        <v>EMPVAL PE - TECNOMULT</v>
+      </c>
+      <c r="F68" t="str">
+        <v>JABOATÃO DOS GUARARAPES</v>
+      </c>
+      <c r="G68" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H68" t="str">
+        <v>EPS</v>
+      </c>
+      <c r="I68" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J68">
+        <v>21621.06</v>
+      </c>
+      <c r="K68" t="str">
+        <v>REDE EXTERNA</v>
+      </c>
+      <c r="L68" t="str">
+        <v>RENILDO MORAES DE LIMA</v>
+      </c>
+      <c r="M68" t="str">
+        <v>TECNOMULTI RECIFE</v>
+      </c>
+      <c r="N68" t="str">
+        <v>40751880434</v>
+      </c>
+      <c r="O68" t="str">
+        <v>03/06/2025</v>
+      </c>
+      <c r="P68" t="str">
+        <v>15:55</v>
+      </c>
+      <c r="Q68" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B69" t="str">
+        <v>2062503</v>
+      </c>
+      <c r="C69" t="str">
+        <v>1790359</v>
+      </c>
+      <c r="D69" t="str">
+        <v>04/06/2025</v>
+      </c>
+      <c r="E69" t="str">
+        <v>LOJA RIOMAR PE</v>
+      </c>
+      <c r="F69" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G69" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H69" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I69" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J69">
+        <v>588.48</v>
+      </c>
+      <c r="K69" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="L69" t="str">
+        <v>DOUGLAS DE MORAES SILVA</v>
+      </c>
+      <c r="M69" t="str">
+        <v>LM EXPRESS0</v>
+      </c>
+      <c r="N69" t="str">
+        <v>02395829420</v>
+      </c>
+      <c r="O69" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="P69" t="str">
+        <v>11:55</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B70" t="str">
+        <v>8760685751</v>
+      </c>
+      <c r="C70" t="str">
+        <v>4947132490</v>
+      </c>
+      <c r="D70" t="str">
+        <v>03/06/2025</v>
+      </c>
+      <c r="E70" t="str">
+        <v>SUP VIVO</v>
+      </c>
+      <c r="F70" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G70" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H70" t="str">
+        <v>TÉCNICO TBRA</v>
+      </c>
+      <c r="I70" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J70">
+        <v>1154.55</v>
+      </c>
+      <c r="K70" t="str">
+        <v>CASA CLIENTE</v>
+      </c>
+      <c r="L70" t="str">
+        <v>DELFRANKLIN FERREIRA</v>
+      </c>
+      <c r="M70" t="str">
+        <v>TECNICO VIVO</v>
+      </c>
+      <c r="N70" t="str">
+        <v>93522339487</v>
+      </c>
+      <c r="O70" t="str">
+        <v>03/06/2025</v>
+      </c>
+      <c r="P70" t="str">
+        <v>17:01</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>Expedido</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B71" t="str">
+        <v>2062504</v>
+      </c>
+      <c r="C71" t="str">
+        <v>1790862</v>
+      </c>
+      <c r="D71" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E71" t="str">
+        <v>LLPP RIOMAR PE</v>
+      </c>
+      <c r="F71" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G71" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H71" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I71" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J71">
+        <v>962.04</v>
+      </c>
+      <c r="K71" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B72" t="str">
+        <v>2062505</v>
+      </c>
+      <c r="C72" t="str">
+        <v>1790913</v>
+      </c>
+      <c r="D72" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E72" t="str">
+        <v>LLPP SHOPPING RECIFE</v>
+      </c>
+      <c r="F72" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G72" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H72" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I72" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J72">
+        <v>322.01</v>
+      </c>
+      <c r="K72" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B73" t="str">
+        <v>2062506</v>
+      </c>
+      <c r="C73" t="str">
+        <v>1790879</v>
+      </c>
+      <c r="D73" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E73" t="str">
+        <v>LLPP SHOPPING RECIFE 2</v>
+      </c>
+      <c r="F73" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G73" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H73" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I73" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J73">
+        <v>176.9</v>
+      </c>
+      <c r="K73" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>Pendente</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>S/ST</v>
+      </c>
+      <c r="B74" t="str">
+        <v>2062507</v>
+      </c>
+      <c r="C74" t="str">
+        <v>1791012</v>
+      </c>
+      <c r="D74" t="str">
+        <v>05/06/2025</v>
+      </c>
+      <c r="E74" t="str">
+        <v>LLPP TACARUNA</v>
+      </c>
+      <c r="F74" t="str">
+        <v>RECIFE</v>
+      </c>
+      <c r="G74" t="str">
+        <v>PE</v>
+      </c>
+      <c r="H74" t="str">
+        <v>RAPIDO PARANÁ</v>
+      </c>
+      <c r="I74" t="str">
+        <v>RODOVIÁRIO</v>
+      </c>
+      <c r="J74">
+        <v>459.37</v>
+      </c>
+      <c r="K74" t="str">
+        <v>MARKETING</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>Pendente</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q74"/>
   </ignoredErrors>
 </worksheet>
 </file>